--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="Pileup Profiles 2" sheetId="5" r:id="rId3"/>
     <sheet name="Cutoff Area Changes" sheetId="6" r:id="rId4"/>
     <sheet name="Before and After Gold 200nm" sheetId="7" r:id="rId5"/>
+    <sheet name="AFM" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>Load</t>
   </si>
@@ -132,6 +133,9 @@
   <si>
     <t>After Au-Pd, Nanovea Hardness</t>
   </si>
+  <si>
+    <t>C.S. Area</t>
+  </si>
 </sst>
 </file>
 
@@ -234,7 +238,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="113">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -348,8 +352,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,8 +385,9 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="113">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -431,6 +444,10 @@
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -487,6 +504,10 @@
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1017,11 +1038,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2101326776"/>
-        <c:axId val="2054757800"/>
+        <c:axId val="2127644168"/>
+        <c:axId val="2082914200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2101326776"/>
+        <c:axId val="2127644168"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1052,12 +1073,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2054757800"/>
+        <c:crossAx val="2082914200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2054757800"/>
+        <c:axId val="2082914200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,7 +1108,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2101326776"/>
+        <c:crossAx val="2127644168"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4909,8 +4930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:X18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="S10" sqref="S10"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6070,4 +6091,204 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:E21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="3" spans="3:5">
+      <c r="C3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="3:5">
+      <c r="C4">
+        <v>245</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>37.207000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="3:5">
+      <c r="C5">
+        <v>245</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>34.234000000000002</v>
+      </c>
+    </row>
+    <row r="6" spans="3:5">
+      <c r="C6">
+        <v>245</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="3:5">
+      <c r="C7">
+        <v>245</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>34.494999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="3:5">
+      <c r="D8" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="3">
+        <f>AVERAGE(E4:E7)</f>
+        <v>35.312000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="3:5">
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" s="3">
+        <f>STDEV(E4:E7)</f>
+        <v>1.6462985755931401</v>
+      </c>
+    </row>
+    <row r="10" spans="3:5">
+      <c r="C10">
+        <v>490</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>69.230999999999995</v>
+      </c>
+    </row>
+    <row r="11" spans="3:5">
+      <c r="C11">
+        <v>490</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="3:5">
+      <c r="C12">
+        <v>490</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="3:5">
+      <c r="C13">
+        <v>490</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="3:5">
+      <c r="D14" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="3">
+        <f>AVERAGE(E10:E13)</f>
+        <v>69.230999999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="3:5">
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="3" t="e">
+        <f>STDEV(E10:E13)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="16" spans="3:5">
+      <c r="C16">
+        <v>2942</v>
+      </c>
+      <c r="D16" s="23">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>396.38</v>
+      </c>
+    </row>
+    <row r="17" spans="3:5">
+      <c r="C17">
+        <v>2942</v>
+      </c>
+      <c r="D17" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:5">
+      <c r="C18">
+        <v>2942</v>
+      </c>
+      <c r="D18" s="23">
+        <v>3</v>
+      </c>
+      <c r="E18">
+        <v>384.065</v>
+      </c>
+    </row>
+    <row r="19" spans="3:5">
+      <c r="C19">
+        <v>2942</v>
+      </c>
+      <c r="D19" s="23">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="3:5">
+      <c r="D20" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="3">
+        <f>AVERAGE(E16:E19)</f>
+        <v>390.22249999999997</v>
+      </c>
+    </row>
+    <row r="21" spans="3:5">
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="3">
+        <f>STDEV(E16:E19)</f>
+        <v>8.7080200103123317</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Pileup Profiles 2" sheetId="5" r:id="rId3"/>
     <sheet name="Cutoff Area Changes" sheetId="6" r:id="rId4"/>
     <sheet name="Before and After Gold 200nm" sheetId="7" r:id="rId5"/>
-    <sheet name="AFM" sheetId="8" r:id="rId6"/>
+    <sheet name="LP, AFM" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
   <si>
     <t>Load</t>
   </si>
@@ -134,7 +134,25 @@
     <t>After Au-Pd, Nanovea Hardness</t>
   </si>
   <si>
-    <t>C.S. Area</t>
+    <t>AFM Area 1</t>
+  </si>
+  <si>
+    <t>AFM Area 2</t>
+  </si>
+  <si>
+    <t>Avg AFM Area</t>
+  </si>
+  <si>
+    <t>STDEV AFM Area</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Metallization Area</t>
+  </si>
+  <si>
+    <t>Keyence Area</t>
   </si>
 </sst>
 </file>
@@ -145,7 +163,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -184,8 +202,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -228,6 +260,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -238,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -360,8 +404,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -385,9 +443,29 @@
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="135">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -448,6 +526,13 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -508,6 +593,13 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -545,7 +637,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1038,11 +1129,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2127644168"/>
-        <c:axId val="2082914200"/>
+        <c:axId val="2128725224"/>
+        <c:axId val="2128726328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2127644168"/>
+        <c:axId val="2128725224"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1066,19 +1157,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2082914200"/>
+        <c:crossAx val="2128726328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2082914200"/>
+        <c:axId val="2128726328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1101,14 +1191,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127644168"/>
+        <c:crossAx val="2128725224"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1123,7 +1212,6 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -6095,192 +6183,856 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:E21"/>
+  <dimension ref="A3:AF21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="42"/>
+    <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="42"/>
+    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="42"/>
+    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="32" width="10.83203125" style="42"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="3:5">
+    <row r="3" spans="1:32">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
       <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E3" s="41"/>
+      <c r="F3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" s="23" customFormat="1">
+      <c r="A4" s="42"/>
+      <c r="B4" s="23">
+        <v>245</v>
+      </c>
+      <c r="C4" s="23">
+        <v>1</v>
+      </c>
+      <c r="D4" s="23">
+        <v>37.207000000000001</v>
+      </c>
+      <c r="E4" s="42"/>
+      <c r="F4" s="23">
+        <v>31.445499999999999</v>
+      </c>
+      <c r="G4" s="23">
+        <v>31.445499999999999</v>
+      </c>
+      <c r="H4" s="24">
+        <f>AVERAGE(F4:G4)</f>
+        <v>31.445499999999999</v>
+      </c>
+      <c r="I4" s="24">
+        <f>STDEV(F4:G4)</f>
         <v>0</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="J4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="42"/>
+      <c r="P4" s="42"/>
+      <c r="Q4" s="42"/>
+      <c r="R4" s="42"/>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="42"/>
+      <c r="X4" s="42"/>
+      <c r="Y4" s="42"/>
+      <c r="Z4" s="42"/>
+      <c r="AA4" s="42"/>
+      <c r="AB4" s="42"/>
+      <c r="AC4" s="42"/>
+      <c r="AD4" s="42"/>
+      <c r="AE4" s="42"/>
+      <c r="AF4" s="42"/>
+    </row>
+    <row r="5" spans="1:32" s="23" customFormat="1">
+      <c r="A5" s="42"/>
+      <c r="B5" s="23">
+        <v>245</v>
+      </c>
+      <c r="C5" s="23">
+        <v>2</v>
+      </c>
+      <c r="D5" s="23">
+        <v>34.234000000000002</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="23">
+        <v>30.0503</v>
+      </c>
+      <c r="G5" s="23">
+        <v>30.084599999999998</v>
+      </c>
+      <c r="H5" s="24">
+        <f t="shared" ref="H5:H7" si="0">AVERAGE(F5:G5)</f>
+        <v>30.067450000000001</v>
+      </c>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I7" si="1">STDEV(F5:G5)</f>
+        <v>2.4253762594697324E-2</v>
+      </c>
+      <c r="J5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
+      <c r="O5" s="42"/>
+      <c r="P5" s="42"/>
+      <c r="Q5" s="42"/>
+      <c r="R5" s="42"/>
+      <c r="S5" s="42"/>
+      <c r="T5" s="42"/>
+      <c r="U5" s="42"/>
+      <c r="V5" s="42"/>
+      <c r="W5" s="42"/>
+      <c r="X5" s="42"/>
+      <c r="Y5" s="42"/>
+      <c r="Z5" s="42"/>
+      <c r="AA5" s="42"/>
+      <c r="AB5" s="42"/>
+      <c r="AC5" s="42"/>
+      <c r="AD5" s="42"/>
+      <c r="AE5" s="42"/>
+      <c r="AF5" s="42"/>
+    </row>
+    <row r="6" spans="1:32" s="23" customFormat="1">
+      <c r="A6" s="42"/>
+      <c r="B6" s="23">
+        <v>245</v>
+      </c>
+      <c r="C6" s="23">
+        <v>3</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="23">
+        <v>29.550899999999999</v>
+      </c>
+      <c r="G6" s="23">
+        <v>29.550899999999999</v>
+      </c>
+      <c r="H6" s="24">
+        <f t="shared" si="0"/>
+        <v>29.550899999999999</v>
+      </c>
+      <c r="I6" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
+      <c r="O6" s="42"/>
+      <c r="P6" s="42"/>
+      <c r="Q6" s="42"/>
+      <c r="R6" s="42"/>
+      <c r="S6" s="42"/>
+      <c r="T6" s="42"/>
+      <c r="U6" s="42"/>
+      <c r="V6" s="42"/>
+      <c r="W6" s="42"/>
+      <c r="X6" s="42"/>
+      <c r="Y6" s="42"/>
+      <c r="Z6" s="42"/>
+      <c r="AA6" s="42"/>
+      <c r="AB6" s="42"/>
+      <c r="AC6" s="42"/>
+      <c r="AD6" s="42"/>
+      <c r="AE6" s="42"/>
+      <c r="AF6" s="42"/>
+    </row>
+    <row r="7" spans="1:32" s="23" customFormat="1">
+      <c r="A7" s="42"/>
+      <c r="B7" s="23">
+        <v>245</v>
+      </c>
+      <c r="C7" s="23">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23">
+        <v>34.494999999999997</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="23">
+        <v>29.8353</v>
+      </c>
+      <c r="G7" s="23">
+        <v>29.8353</v>
+      </c>
+      <c r="H7" s="24">
+        <f t="shared" si="0"/>
+        <v>29.8353</v>
+      </c>
+      <c r="I7" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
+      <c r="O7" s="42"/>
+      <c r="P7" s="42"/>
+      <c r="Q7" s="42"/>
+      <c r="R7" s="42"/>
+      <c r="S7" s="42"/>
+      <c r="T7" s="42"/>
+      <c r="U7" s="42"/>
+      <c r="V7" s="42"/>
+      <c r="W7" s="42"/>
+      <c r="X7" s="42"/>
+      <c r="Y7" s="42"/>
+      <c r="Z7" s="42"/>
+      <c r="AA7" s="42"/>
+      <c r="AB7" s="42"/>
+      <c r="AC7" s="42"/>
+      <c r="AD7" s="42"/>
+      <c r="AE7" s="42"/>
+      <c r="AF7" s="42"/>
+    </row>
+    <row r="8" spans="1:32" s="23" customFormat="1">
+      <c r="A8" s="42"/>
+      <c r="C8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="26">
+        <f>AVERAGE(D4:D7)</f>
+        <v>35.312000000000005</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="G8" s="25" t="s">
+        <v>34</v>
+      </c>
+      <c r="H8" s="26">
+        <f>AVERAGE(H4:H7)</f>
+        <v>30.224787500000001</v>
+      </c>
+      <c r="J8" s="42"/>
+      <c r="L8" s="42"/>
+      <c r="M8" s="42"/>
+      <c r="N8" s="42"/>
+      <c r="O8" s="42"/>
+      <c r="P8" s="42"/>
+      <c r="Q8" s="42"/>
+      <c r="R8" s="42"/>
+      <c r="S8" s="42"/>
+      <c r="T8" s="42"/>
+      <c r="U8" s="42"/>
+      <c r="V8" s="42"/>
+      <c r="W8" s="42"/>
+      <c r="X8" s="42"/>
+      <c r="Y8" s="42"/>
+      <c r="Z8" s="42"/>
+      <c r="AA8" s="42"/>
+      <c r="AB8" s="42"/>
+      <c r="AC8" s="42"/>
+      <c r="AD8" s="42"/>
+      <c r="AE8" s="42"/>
+      <c r="AF8" s="42"/>
+    </row>
+    <row r="9" spans="1:32" s="23" customFormat="1">
+      <c r="A9" s="42"/>
+      <c r="C9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" s="27">
+        <f>STDEV(D4:D7)</f>
+        <v>1.6462985755931401</v>
+      </c>
+      <c r="E9" s="43"/>
+      <c r="G9" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="27">
+        <f>STDEV(H4:H7)</f>
+        <v>0.84077721422403751</v>
+      </c>
+      <c r="J9" s="42"/>
+      <c r="L9" s="42"/>
+      <c r="M9" s="42"/>
+      <c r="N9" s="42"/>
+      <c r="O9" s="42"/>
+      <c r="P9" s="42"/>
+      <c r="Q9" s="42"/>
+      <c r="R9" s="42"/>
+      <c r="S9" s="42"/>
+      <c r="T9" s="42"/>
+      <c r="U9" s="42"/>
+      <c r="V9" s="42"/>
+      <c r="W9" s="42"/>
+      <c r="X9" s="42"/>
+      <c r="Y9" s="42"/>
+      <c r="Z9" s="42"/>
+      <c r="AA9" s="42"/>
+      <c r="AB9" s="42"/>
+      <c r="AC9" s="42"/>
+      <c r="AD9" s="42"/>
+      <c r="AE9" s="42"/>
+      <c r="AF9" s="42"/>
+    </row>
+    <row r="10" spans="1:32" s="28" customFormat="1">
+      <c r="A10" s="42"/>
+      <c r="B10" s="28">
+        <v>490</v>
+      </c>
+      <c r="C10" s="28">
         <v>1</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="3:5">
-      <c r="C4">
-        <v>245</v>
-      </c>
-      <c r="D4">
+      <c r="D10" s="28">
+        <v>69.230999999999995</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="28">
+        <v>57.530500000000004</v>
+      </c>
+      <c r="G10" s="28">
+        <v>57.6447</v>
+      </c>
+      <c r="H10" s="29">
+        <f>AVERAGE(F10:G10)</f>
+        <v>57.587600000000002</v>
+      </c>
+      <c r="I10" s="29">
+        <f>STDEV(F10:G10)</f>
+        <v>8.0751594411501426E-2</v>
+      </c>
+      <c r="J10" s="42"/>
+      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
+      <c r="N10" s="42"/>
+      <c r="O10" s="42"/>
+      <c r="P10" s="42"/>
+      <c r="Q10" s="42"/>
+      <c r="R10" s="42"/>
+      <c r="S10" s="42"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="42"/>
+      <c r="V10" s="42"/>
+      <c r="W10" s="42"/>
+      <c r="X10" s="42"/>
+      <c r="Y10" s="42"/>
+      <c r="Z10" s="42"/>
+      <c r="AA10" s="42"/>
+      <c r="AB10" s="42"/>
+      <c r="AC10" s="42"/>
+      <c r="AD10" s="42"/>
+      <c r="AE10" s="42"/>
+      <c r="AF10" s="42"/>
+    </row>
+    <row r="11" spans="1:32" s="28" customFormat="1">
+      <c r="A11" s="42"/>
+      <c r="B11" s="28">
+        <v>490</v>
+      </c>
+      <c r="C11" s="28">
+        <v>2</v>
+      </c>
+      <c r="E11" s="42"/>
+      <c r="F11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="H11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="42"/>
+      <c r="L11" s="42"/>
+      <c r="M11" s="42"/>
+      <c r="N11" s="42"/>
+      <c r="O11" s="42"/>
+      <c r="P11" s="42"/>
+      <c r="Q11" s="42"/>
+      <c r="R11" s="42"/>
+      <c r="S11" s="42"/>
+      <c r="T11" s="42"/>
+      <c r="U11" s="42"/>
+      <c r="V11" s="42"/>
+      <c r="W11" s="42"/>
+      <c r="X11" s="42"/>
+      <c r="Y11" s="42"/>
+      <c r="Z11" s="42"/>
+      <c r="AA11" s="42"/>
+      <c r="AB11" s="42"/>
+      <c r="AC11" s="42"/>
+      <c r="AD11" s="42"/>
+      <c r="AE11" s="42"/>
+      <c r="AF11" s="42"/>
+    </row>
+    <row r="12" spans="1:32" s="28" customFormat="1">
+      <c r="A12" s="42"/>
+      <c r="B12" s="28">
+        <v>490</v>
+      </c>
+      <c r="C12" s="28">
+        <v>3</v>
+      </c>
+      <c r="E12" s="42"/>
+      <c r="F12" s="28">
+        <v>62.307299999999998</v>
+      </c>
+      <c r="G12" s="28">
+        <v>61.901600000000002</v>
+      </c>
+      <c r="H12" s="29">
+        <f t="shared" ref="H12" si="2">AVERAGE(F12:G12)</f>
+        <v>62.10445</v>
+      </c>
+      <c r="I12" s="29">
+        <f t="shared" ref="I12" si="3">STDEV(F12:G12)</f>
+        <v>0.28687322112737945</v>
+      </c>
+      <c r="J12" s="42"/>
+      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
+      <c r="N12" s="42"/>
+      <c r="O12" s="42"/>
+      <c r="P12" s="42"/>
+      <c r="Q12" s="42"/>
+      <c r="R12" s="42"/>
+      <c r="S12" s="42"/>
+      <c r="T12" s="42"/>
+      <c r="U12" s="42"/>
+      <c r="V12" s="42"/>
+      <c r="W12" s="42"/>
+      <c r="X12" s="42"/>
+      <c r="Y12" s="42"/>
+      <c r="Z12" s="42"/>
+      <c r="AA12" s="42"/>
+      <c r="AB12" s="42"/>
+      <c r="AC12" s="42"/>
+      <c r="AD12" s="42"/>
+      <c r="AE12" s="42"/>
+      <c r="AF12" s="42"/>
+    </row>
+    <row r="13" spans="1:32" s="28" customFormat="1">
+      <c r="A13" s="42"/>
+      <c r="B13" s="28">
+        <v>490</v>
+      </c>
+      <c r="C13" s="28">
+        <v>4</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="28">
+        <v>59.804699999999997</v>
+      </c>
+      <c r="G13" s="28">
+        <v>59.804699999999997</v>
+      </c>
+      <c r="H13" s="29">
+        <f t="shared" ref="H11:H13" si="4">AVERAGE(F13:G13)</f>
+        <v>59.804699999999997</v>
+      </c>
+      <c r="I13" s="29">
+        <f t="shared" ref="I11:I13" si="5">STDEV(F13:G13)</f>
+        <v>0</v>
+      </c>
+      <c r="J13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
+      <c r="W13" s="42"/>
+      <c r="X13" s="42"/>
+      <c r="Y13" s="42"/>
+      <c r="Z13" s="42"/>
+      <c r="AA13" s="42"/>
+      <c r="AB13" s="42"/>
+      <c r="AC13" s="42"/>
+      <c r="AD13" s="42"/>
+      <c r="AE13" s="42"/>
+      <c r="AF13" s="42"/>
+    </row>
+    <row r="14" spans="1:32" s="28" customFormat="1">
+      <c r="A14" s="42"/>
+      <c r="C14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="33">
+        <f>AVERAGE(D10:D13)</f>
+        <v>69.230999999999995</v>
+      </c>
+      <c r="E14" s="43"/>
+      <c r="G14" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="H14" s="33">
+        <f>AVERAGE(H10:H13)</f>
+        <v>59.832249999999995</v>
+      </c>
+      <c r="J14" s="42"/>
+      <c r="L14" s="42"/>
+      <c r="M14" s="42"/>
+      <c r="N14" s="42"/>
+      <c r="O14" s="42"/>
+      <c r="P14" s="42"/>
+      <c r="Q14" s="42"/>
+      <c r="R14" s="42"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42"/>
+      <c r="V14" s="42"/>
+      <c r="W14" s="42"/>
+      <c r="X14" s="42"/>
+      <c r="Y14" s="42"/>
+      <c r="Z14" s="42"/>
+      <c r="AA14" s="42"/>
+      <c r="AB14" s="42"/>
+      <c r="AC14" s="42"/>
+      <c r="AD14" s="42"/>
+      <c r="AE14" s="42"/>
+      <c r="AF14" s="42"/>
+    </row>
+    <row r="15" spans="1:32" s="28" customFormat="1">
+      <c r="A15" s="42"/>
+      <c r="C15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" s="34" t="e">
+        <f>STDEV(D10:D13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E15" s="43"/>
+      <c r="G15" s="28" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="34">
+        <f>STDEV(H10:H13)</f>
+        <v>2.2585510249936784</v>
+      </c>
+      <c r="J15" s="42"/>
+      <c r="L15" s="42"/>
+      <c r="M15" s="42"/>
+      <c r="N15" s="42"/>
+      <c r="O15" s="42"/>
+      <c r="P15" s="42"/>
+      <c r="Q15" s="42"/>
+      <c r="R15" s="42"/>
+      <c r="S15" s="42"/>
+      <c r="T15" s="42"/>
+      <c r="U15" s="42"/>
+      <c r="V15" s="42"/>
+      <c r="W15" s="42"/>
+      <c r="X15" s="42"/>
+      <c r="Y15" s="42"/>
+      <c r="Z15" s="42"/>
+      <c r="AA15" s="42"/>
+      <c r="AB15" s="42"/>
+      <c r="AC15" s="42"/>
+      <c r="AD15" s="42"/>
+      <c r="AE15" s="42"/>
+      <c r="AF15" s="42"/>
+    </row>
+    <row r="16" spans="1:32" s="7" customFormat="1">
+      <c r="A16" s="42"/>
+      <c r="B16" s="7">
+        <v>2942</v>
+      </c>
+      <c r="C16" s="35">
         <v>1</v>
       </c>
-      <c r="E4">
-        <v>37.207000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="3:5">
-      <c r="C5">
-        <v>245</v>
-      </c>
-      <c r="D5">
+      <c r="D16" s="8">
+        <v>396.38</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="7">
+        <v>365.06650000000002</v>
+      </c>
+      <c r="G16" s="7">
+        <v>363.6447</v>
+      </c>
+      <c r="H16" s="36">
+        <f>AVERAGE(F16:G16)</f>
+        <v>364.35559999999998</v>
+      </c>
+      <c r="I16" s="36">
+        <f>STDEV(F16:G16)</f>
+        <v>1.0053644214910467</v>
+      </c>
+      <c r="J16" s="42"/>
+      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
+      <c r="N16" s="42"/>
+      <c r="O16" s="42"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="42"/>
+      <c r="R16" s="42"/>
+      <c r="S16" s="42"/>
+      <c r="T16" s="42"/>
+      <c r="U16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42"/>
+      <c r="AA16" s="42"/>
+      <c r="AB16" s="42"/>
+      <c r="AC16" s="42"/>
+      <c r="AD16" s="42"/>
+      <c r="AE16" s="42"/>
+      <c r="AF16" s="42"/>
+    </row>
+    <row r="17" spans="1:32" s="7" customFormat="1">
+      <c r="A17" s="42"/>
+      <c r="B17" s="7">
+        <v>2942</v>
+      </c>
+      <c r="C17" s="35">
         <v>2</v>
       </c>
-      <c r="E5">
-        <v>34.234000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="3:5">
-      <c r="C6">
-        <v>245</v>
-      </c>
-      <c r="D6">
+      <c r="E17" s="42"/>
+      <c r="F17" s="7">
+        <v>345.38619999999997</v>
+      </c>
+      <c r="G17" s="7">
+        <v>345.38619999999997</v>
+      </c>
+      <c r="H17" s="36">
+        <f t="shared" ref="H17:H18" si="6">AVERAGE(F17:G17)</f>
+        <v>345.38619999999997</v>
+      </c>
+      <c r="I17" s="36">
+        <f t="shared" ref="I17:I18" si="7">STDEV(F17:G17)</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
+      <c r="N17" s="42"/>
+      <c r="O17" s="42"/>
+      <c r="P17" s="42"/>
+      <c r="Q17" s="42"/>
+      <c r="R17" s="42"/>
+      <c r="S17" s="42"/>
+      <c r="T17" s="42"/>
+      <c r="U17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42"/>
+      <c r="AA17" s="42"/>
+      <c r="AB17" s="42"/>
+      <c r="AC17" s="42"/>
+      <c r="AD17" s="42"/>
+      <c r="AE17" s="42"/>
+      <c r="AF17" s="42"/>
+    </row>
+    <row r="18" spans="1:32" s="7" customFormat="1">
+      <c r="A18" s="42"/>
+      <c r="B18" s="7">
+        <v>2942</v>
+      </c>
+      <c r="C18" s="35">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="3:5">
-      <c r="C7">
-        <v>245</v>
-      </c>
-      <c r="D7">
+      <c r="D18" s="7">
+        <v>384.065</v>
+      </c>
+      <c r="E18" s="42"/>
+      <c r="F18" s="7">
+        <v>357.85079999999999</v>
+      </c>
+      <c r="G18" s="7">
+        <v>354.88420000000002</v>
+      </c>
+      <c r="H18" s="36">
+        <f t="shared" si="6"/>
+        <v>356.36750000000001</v>
+      </c>
+      <c r="I18" s="36">
+        <f t="shared" si="7"/>
+        <v>2.0977029770679918</v>
+      </c>
+      <c r="J18" s="42"/>
+      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
+      <c r="N18" s="42"/>
+      <c r="O18" s="42"/>
+      <c r="P18" s="42"/>
+      <c r="Q18" s="42"/>
+      <c r="R18" s="42"/>
+      <c r="S18" s="42"/>
+      <c r="T18" s="42"/>
+      <c r="U18" s="42"/>
+      <c r="V18" s="42"/>
+      <c r="W18" s="42"/>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42"/>
+      <c r="AA18" s="42"/>
+      <c r="AB18" s="42"/>
+      <c r="AC18" s="42"/>
+      <c r="AD18" s="42"/>
+      <c r="AE18" s="42"/>
+      <c r="AF18" s="42"/>
+    </row>
+    <row r="19" spans="1:32" s="7" customFormat="1">
+      <c r="A19" s="42"/>
+      <c r="B19" s="7">
+        <v>2942</v>
+      </c>
+      <c r="C19" s="35">
         <v>4</v>
       </c>
-      <c r="E7">
-        <v>34.494999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="3:5">
-      <c r="D8" t="s">
+      <c r="E19" s="42"/>
+      <c r="F19" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="G19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="H19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="42"/>
+      <c r="T19" s="42"/>
+      <c r="U19" s="42"/>
+      <c r="V19" s="42"/>
+      <c r="W19" s="42"/>
+      <c r="X19" s="42"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="42"/>
+      <c r="AA19" s="42"/>
+      <c r="AB19" s="42"/>
+      <c r="AC19" s="42"/>
+      <c r="AD19" s="42"/>
+      <c r="AE19" s="42"/>
+      <c r="AF19" s="42"/>
+    </row>
+    <row r="20" spans="1:32" s="7" customFormat="1">
+      <c r="A20" s="42"/>
+      <c r="C20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="E8" s="3">
-        <f>AVERAGE(E4:E7)</f>
-        <v>35.312000000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="3:5">
-      <c r="D9" t="s">
+      <c r="D20" s="40">
+        <f>AVERAGE(D16:D19)</f>
+        <v>390.22249999999997</v>
+      </c>
+      <c r="E20" s="43"/>
+      <c r="G20" s="39" t="s">
+        <v>34</v>
+      </c>
+      <c r="H20" s="40">
+        <f>AVERAGE(H16:H19)</f>
+        <v>355.36976666666669</v>
+      </c>
+      <c r="J20" s="42"/>
+      <c r="L20" s="42"/>
+      <c r="M20" s="42"/>
+      <c r="N20" s="42"/>
+      <c r="O20" s="42"/>
+      <c r="P20" s="42"/>
+      <c r="Q20" s="42"/>
+      <c r="R20" s="42"/>
+      <c r="S20" s="42"/>
+      <c r="T20" s="42"/>
+      <c r="U20" s="42"/>
+      <c r="V20" s="42"/>
+      <c r="W20" s="42"/>
+      <c r="X20" s="42"/>
+      <c r="Y20" s="42"/>
+      <c r="Z20" s="42"/>
+      <c r="AA20" s="42"/>
+      <c r="AB20" s="42"/>
+      <c r="AC20" s="42"/>
+      <c r="AD20" s="42"/>
+      <c r="AE20" s="42"/>
+      <c r="AF20" s="42"/>
+    </row>
+    <row r="21" spans="1:32" s="7" customFormat="1">
+      <c r="A21" s="42"/>
+      <c r="C21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="3">
-        <f>STDEV(E4:E7)</f>
-        <v>1.6462985755931401</v>
-      </c>
-    </row>
-    <row r="10" spans="3:5">
-      <c r="C10">
-        <v>490</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>69.230999999999995</v>
-      </c>
-    </row>
-    <row r="11" spans="3:5">
-      <c r="C11">
-        <v>490</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="3:5">
-      <c r="C12">
-        <v>490</v>
-      </c>
-      <c r="D12">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="3:5">
-      <c r="C13">
-        <v>490</v>
-      </c>
-      <c r="D13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="3:5">
-      <c r="D14" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="3">
-        <f>AVERAGE(E10:E13)</f>
-        <v>69.230999999999995</v>
-      </c>
-    </row>
-    <row r="15" spans="3:5">
-      <c r="D15" t="s">
+      <c r="D21" s="19">
+        <f>STDEV(D16:D19)</f>
+        <v>8.7080200103123317</v>
+      </c>
+      <c r="E21" s="43"/>
+      <c r="G21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="E15" s="3" t="e">
-        <f>STDEV(E10:E13)</f>
-        <v>#DIV/0!</v>
-      </c>
-    </row>
-    <row r="16" spans="3:5">
-      <c r="C16">
-        <v>2942</v>
-      </c>
-      <c r="D16" s="23">
-        <v>1</v>
-      </c>
-      <c r="E16">
-        <v>396.38</v>
-      </c>
-    </row>
-    <row r="17" spans="3:5">
-      <c r="C17">
-        <v>2942</v>
-      </c>
-      <c r="D17" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="3:5">
-      <c r="C18">
-        <v>2942</v>
-      </c>
-      <c r="D18" s="23">
-        <v>3</v>
-      </c>
-      <c r="E18">
-        <v>384.065</v>
-      </c>
-    </row>
-    <row r="19" spans="3:5">
-      <c r="C19">
-        <v>2942</v>
-      </c>
-      <c r="D19" s="23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="3:5">
-      <c r="D20" t="s">
-        <v>34</v>
-      </c>
-      <c r="E20" s="3">
-        <f>AVERAGE(E16:E19)</f>
-        <v>390.22249999999997</v>
-      </c>
-    </row>
-    <row r="21" spans="3:5">
-      <c r="D21" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="3">
-        <f>STDEV(E16:E19)</f>
-        <v>8.7080200103123317</v>
-      </c>
+      <c r="H21" s="19">
+        <f>STDEV(H16:H19)</f>
+        <v>9.5239770024571886</v>
+      </c>
+      <c r="J21" s="42"/>
+      <c r="L21" s="42"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="42"/>
+      <c r="O21" s="42"/>
+      <c r="P21" s="42"/>
+      <c r="Q21" s="42"/>
+      <c r="R21" s="42"/>
+      <c r="S21" s="42"/>
+      <c r="T21" s="42"/>
+      <c r="U21" s="42"/>
+      <c r="V21" s="42"/>
+      <c r="W21" s="42"/>
+      <c r="X21" s="42"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="42"/>
+      <c r="AA21" s="42"/>
+      <c r="AB21" s="42"/>
+      <c r="AC21" s="42"/>
+      <c r="AD21" s="42"/>
+      <c r="AE21" s="42"/>
+      <c r="AF21" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t>Load</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>Keyence Area</t>
+  </si>
+  <si>
+    <t>Revised Keyence Area</t>
   </si>
 </sst>
 </file>
@@ -6183,25 +6186,26 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AF21"/>
+  <dimension ref="A3:AG21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="42"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="42"/>
-    <col min="8" max="8" width="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="42"/>
-    <col min="11" max="11" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="32" width="10.83203125" style="42"/>
+    <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.83203125" style="42"/>
+    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.83203125" style="42"/>
+    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="33" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:32">
+    <row r="3" spans="1:33">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -6211,24 +6215,27 @@
       <c r="D3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="41"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" s="41"/>
+      <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="H3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:32" s="23" customFormat="1">
+    <row r="4" spans="1:33" s="23" customFormat="1">
       <c r="A4" s="42"/>
       <c r="B4" s="23">
         <v>245</v>
@@ -6239,23 +6246,22 @@
       <c r="D4" s="23">
         <v>37.207000000000001</v>
       </c>
-      <c r="E4" s="42"/>
-      <c r="F4" s="23">
-        <v>31.445499999999999</v>
-      </c>
+      <c r="F4" s="42"/>
       <c r="G4" s="23">
         <v>31.445499999999999</v>
       </c>
-      <c r="H4" s="24">
-        <f>AVERAGE(F4:G4)</f>
+      <c r="H4" s="23">
         <v>31.445499999999999</v>
       </c>
       <c r="I4" s="24">
-        <f>STDEV(F4:G4)</f>
+        <f>AVERAGE(G4:H4)</f>
+        <v>31.445499999999999</v>
+      </c>
+      <c r="J4" s="24">
+        <f>STDEV(G4:H4)</f>
         <v>0</v>
       </c>
-      <c r="J4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="K4" s="42"/>
       <c r="M4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
@@ -6276,8 +6282,9 @@
       <c r="AD4" s="42"/>
       <c r="AE4" s="42"/>
       <c r="AF4" s="42"/>
-    </row>
-    <row r="5" spans="1:32" s="23" customFormat="1">
+      <c r="AG4" s="42"/>
+    </row>
+    <row r="5" spans="1:33" s="23" customFormat="1">
       <c r="A5" s="42"/>
       <c r="B5" s="23">
         <v>245</v>
@@ -6288,23 +6295,22 @@
       <c r="D5" s="23">
         <v>34.234000000000002</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="23">
+      <c r="F5" s="42"/>
+      <c r="G5" s="23">
         <v>30.0503</v>
       </c>
-      <c r="G5" s="23">
+      <c r="H5" s="23">
         <v>30.084599999999998</v>
       </c>
-      <c r="H5" s="24">
-        <f t="shared" ref="H5:H7" si="0">AVERAGE(F5:G5)</f>
+      <c r="I5" s="24">
+        <f t="shared" ref="I5:I7" si="0">AVERAGE(G5:H5)</f>
         <v>30.067450000000001</v>
       </c>
-      <c r="I5" s="24">
-        <f t="shared" ref="I5:I7" si="1">STDEV(F5:G5)</f>
+      <c r="J5" s="24">
+        <f t="shared" ref="J5:J7" si="1">STDEV(G5:H5)</f>
         <v>2.4253762594697324E-2</v>
       </c>
-      <c r="J5" s="42"/>
-      <c r="L5" s="42"/>
+      <c r="K5" s="42"/>
       <c r="M5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
@@ -6325,8 +6331,9 @@
       <c r="AD5" s="42"/>
       <c r="AE5" s="42"/>
       <c r="AF5" s="42"/>
-    </row>
-    <row r="6" spans="1:32" s="23" customFormat="1">
+      <c r="AG5" s="42"/>
+    </row>
+    <row r="6" spans="1:33" s="23" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="23">
         <v>245</v>
@@ -6334,23 +6341,22 @@
       <c r="C6" s="23">
         <v>3</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="23">
-        <v>29.550899999999999</v>
-      </c>
+      <c r="F6" s="42"/>
       <c r="G6" s="23">
         <v>29.550899999999999</v>
       </c>
-      <c r="H6" s="24">
+      <c r="H6" s="23">
+        <v>29.550899999999999</v>
+      </c>
+      <c r="I6" s="24">
         <f t="shared" si="0"/>
         <v>29.550899999999999</v>
       </c>
-      <c r="I6" s="24">
+      <c r="J6" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J6" s="42"/>
-      <c r="L6" s="42"/>
+      <c r="K6" s="42"/>
       <c r="M6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
@@ -6371,8 +6377,9 @@
       <c r="AD6" s="42"/>
       <c r="AE6" s="42"/>
       <c r="AF6" s="42"/>
-    </row>
-    <row r="7" spans="1:32" s="23" customFormat="1">
+      <c r="AG6" s="42"/>
+    </row>
+    <row r="7" spans="1:33" s="23" customFormat="1">
       <c r="A7" s="42"/>
       <c r="B7" s="23">
         <v>245</v>
@@ -6383,23 +6390,22 @@
       <c r="D7" s="23">
         <v>34.494999999999997</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="23">
-        <v>29.8353</v>
-      </c>
+      <c r="F7" s="42"/>
       <c r="G7" s="23">
         <v>29.8353</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
+        <v>29.8353</v>
+      </c>
+      <c r="I7" s="24">
         <f t="shared" si="0"/>
         <v>29.8353</v>
       </c>
-      <c r="I7" s="24">
+      <c r="J7" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="J7" s="42"/>
-      <c r="L7" s="42"/>
+      <c r="K7" s="42"/>
       <c r="M7" s="42"/>
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
@@ -6420,8 +6426,9 @@
       <c r="AD7" s="42"/>
       <c r="AE7" s="42"/>
       <c r="AF7" s="42"/>
-    </row>
-    <row r="8" spans="1:32" s="23" customFormat="1">
+      <c r="AG7" s="42"/>
+    </row>
+    <row r="8" spans="1:33" s="23" customFormat="1">
       <c r="A8" s="42"/>
       <c r="C8" s="25" t="s">
         <v>34</v>
@@ -6430,16 +6437,16 @@
         <f>AVERAGE(D4:D7)</f>
         <v>35.312000000000005</v>
       </c>
-      <c r="E8" s="43"/>
-      <c r="G8" s="25" t="s">
+      <c r="E8" s="26"/>
+      <c r="F8" s="43"/>
+      <c r="H8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="H8" s="26">
-        <f>AVERAGE(H4:H7)</f>
+      <c r="I8" s="26">
+        <f>AVERAGE(I4:I7)</f>
         <v>30.224787500000001</v>
       </c>
-      <c r="J8" s="42"/>
-      <c r="L8" s="42"/>
+      <c r="K8" s="42"/>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
@@ -6460,8 +6467,9 @@
       <c r="AD8" s="42"/>
       <c r="AE8" s="42"/>
       <c r="AF8" s="42"/>
-    </row>
-    <row r="9" spans="1:32" s="23" customFormat="1">
+      <c r="AG8" s="42"/>
+    </row>
+    <row r="9" spans="1:33" s="23" customFormat="1">
       <c r="A9" s="42"/>
       <c r="C9" s="23" t="s">
         <v>10</v>
@@ -6470,16 +6478,16 @@
         <f>STDEV(D4:D7)</f>
         <v>1.6462985755931401</v>
       </c>
-      <c r="E9" s="43"/>
-      <c r="G9" s="23" t="s">
+      <c r="E9" s="27"/>
+      <c r="F9" s="43"/>
+      <c r="H9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="27">
-        <f>STDEV(H4:H7)</f>
+      <c r="I9" s="27">
+        <f>STDEV(I4:I7)</f>
         <v>0.84077721422403751</v>
       </c>
-      <c r="J9" s="42"/>
-      <c r="L9" s="42"/>
+      <c r="K9" s="42"/>
       <c r="M9" s="42"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
@@ -6500,8 +6508,9 @@
       <c r="AD9" s="42"/>
       <c r="AE9" s="42"/>
       <c r="AF9" s="42"/>
-    </row>
-    <row r="10" spans="1:32" s="28" customFormat="1">
+      <c r="AG9" s="42"/>
+    </row>
+    <row r="10" spans="1:33" s="28" customFormat="1">
       <c r="A10" s="42"/>
       <c r="B10" s="28">
         <v>490</v>
@@ -6512,23 +6521,22 @@
       <c r="D10" s="28">
         <v>69.230999999999995</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="28">
+      <c r="F10" s="42"/>
+      <c r="G10" s="28">
         <v>57.530500000000004</v>
       </c>
-      <c r="G10" s="28">
+      <c r="H10" s="28">
         <v>57.6447</v>
       </c>
-      <c r="H10" s="29">
-        <f>AVERAGE(F10:G10)</f>
+      <c r="I10" s="29">
+        <f>AVERAGE(G10:H10)</f>
         <v>57.587600000000002</v>
       </c>
-      <c r="I10" s="29">
-        <f>STDEV(F10:G10)</f>
+      <c r="J10" s="29">
+        <f>STDEV(G10:H10)</f>
         <v>8.0751594411501426E-2</v>
       </c>
-      <c r="J10" s="42"/>
-      <c r="L10" s="42"/>
+      <c r="K10" s="42"/>
       <c r="M10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
@@ -6549,8 +6557,9 @@
       <c r="AD10" s="42"/>
       <c r="AE10" s="42"/>
       <c r="AF10" s="42"/>
-    </row>
-    <row r="11" spans="1:32" s="28" customFormat="1">
+      <c r="AG10" s="42"/>
+    </row>
+    <row r="11" spans="1:33" s="28" customFormat="1">
       <c r="A11" s="42"/>
       <c r="B11" s="28">
         <v>490</v>
@@ -6558,21 +6567,20 @@
       <c r="C11" s="28">
         <v>2</v>
       </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="30" t="s">
-        <v>40</v>
-      </c>
+      <c r="F11" s="42"/>
       <c r="G11" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="30" t="s">
         <v>40</v>
       </c>
       <c r="I11" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="J11" s="42"/>
-      <c r="L11" s="42"/>
+      <c r="J11" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
@@ -6593,8 +6601,9 @@
       <c r="AD11" s="42"/>
       <c r="AE11" s="42"/>
       <c r="AF11" s="42"/>
-    </row>
-    <row r="12" spans="1:32" s="28" customFormat="1">
+      <c r="AG11" s="42"/>
+    </row>
+    <row r="12" spans="1:33" s="28" customFormat="1">
       <c r="A12" s="42"/>
       <c r="B12" s="28">
         <v>490</v>
@@ -6602,23 +6611,22 @@
       <c r="C12" s="28">
         <v>3</v>
       </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="28">
+      <c r="F12" s="42"/>
+      <c r="G12" s="28">
         <v>62.307299999999998</v>
       </c>
-      <c r="G12" s="28">
+      <c r="H12" s="28">
         <v>61.901600000000002</v>
       </c>
-      <c r="H12" s="29">
-        <f t="shared" ref="H12" si="2">AVERAGE(F12:G12)</f>
+      <c r="I12" s="29">
+        <f t="shared" ref="I12" si="2">AVERAGE(G12:H12)</f>
         <v>62.10445</v>
       </c>
-      <c r="I12" s="29">
-        <f t="shared" ref="I12" si="3">STDEV(F12:G12)</f>
+      <c r="J12" s="29">
+        <f t="shared" ref="J12" si="3">STDEV(G12:H12)</f>
         <v>0.28687322112737945</v>
       </c>
-      <c r="J12" s="42"/>
-      <c r="L12" s="42"/>
+      <c r="K12" s="42"/>
       <c r="M12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
@@ -6639,8 +6647,9 @@
       <c r="AD12" s="42"/>
       <c r="AE12" s="42"/>
       <c r="AF12" s="42"/>
-    </row>
-    <row r="13" spans="1:32" s="28" customFormat="1">
+      <c r="AG12" s="42"/>
+    </row>
+    <row r="13" spans="1:33" s="28" customFormat="1">
       <c r="A13" s="42"/>
       <c r="B13" s="28">
         <v>490</v>
@@ -6648,23 +6657,22 @@
       <c r="C13" s="28">
         <v>4</v>
       </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="28">
-        <v>59.804699999999997</v>
-      </c>
+      <c r="F13" s="42"/>
       <c r="G13" s="28">
         <v>59.804699999999997</v>
       </c>
-      <c r="H13" s="29">
-        <f t="shared" ref="H11:H13" si="4">AVERAGE(F13:G13)</f>
+      <c r="H13" s="28">
         <v>59.804699999999997</v>
       </c>
       <c r="I13" s="29">
-        <f t="shared" ref="I11:I13" si="5">STDEV(F13:G13)</f>
+        <f t="shared" ref="I11:I13" si="4">AVERAGE(G13:H13)</f>
+        <v>59.804699999999997</v>
+      </c>
+      <c r="J13" s="29">
+        <f t="shared" ref="J11:J13" si="5">STDEV(G13:H13)</f>
         <v>0</v>
       </c>
-      <c r="J13" s="42"/>
-      <c r="L13" s="42"/>
+      <c r="K13" s="42"/>
       <c r="M13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
@@ -6685,8 +6693,9 @@
       <c r="AD13" s="42"/>
       <c r="AE13" s="42"/>
       <c r="AF13" s="42"/>
-    </row>
-    <row r="14" spans="1:32" s="28" customFormat="1">
+      <c r="AG13" s="42"/>
+    </row>
+    <row r="14" spans="1:33" s="28" customFormat="1">
       <c r="A14" s="42"/>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -6695,16 +6704,16 @@
         <f>AVERAGE(D10:D13)</f>
         <v>69.230999999999995</v>
       </c>
-      <c r="E14" s="43"/>
-      <c r="G14" s="32" t="s">
+      <c r="E14" s="33"/>
+      <c r="F14" s="43"/>
+      <c r="H14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="33">
-        <f>AVERAGE(H10:H13)</f>
+      <c r="I14" s="33">
+        <f>AVERAGE(I10:I13)</f>
         <v>59.832249999999995</v>
       </c>
-      <c r="J14" s="42"/>
-      <c r="L14" s="42"/>
+      <c r="K14" s="42"/>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -6725,8 +6734,9 @@
       <c r="AD14" s="42"/>
       <c r="AE14" s="42"/>
       <c r="AF14" s="42"/>
-    </row>
-    <row r="15" spans="1:32" s="28" customFormat="1">
+      <c r="AG14" s="42"/>
+    </row>
+    <row r="15" spans="1:33" s="28" customFormat="1">
       <c r="A15" s="42"/>
       <c r="C15" s="28" t="s">
         <v>10</v>
@@ -6735,16 +6745,16 @@
         <f>STDEV(D10:D13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="43"/>
-      <c r="G15" s="28" t="s">
+      <c r="E15" s="34"/>
+      <c r="F15" s="43"/>
+      <c r="H15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="34">
-        <f>STDEV(H10:H13)</f>
+      <c r="I15" s="34">
+        <f>STDEV(I10:I13)</f>
         <v>2.2585510249936784</v>
       </c>
-      <c r="J15" s="42"/>
-      <c r="L15" s="42"/>
+      <c r="K15" s="42"/>
       <c r="M15" s="42"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
@@ -6765,8 +6775,9 @@
       <c r="AD15" s="42"/>
       <c r="AE15" s="42"/>
       <c r="AF15" s="42"/>
-    </row>
-    <row r="16" spans="1:32" s="7" customFormat="1">
+      <c r="AG15" s="42"/>
+    </row>
+    <row r="16" spans="1:33" s="7" customFormat="1">
       <c r="A16" s="42"/>
       <c r="B16" s="7">
         <v>2942</v>
@@ -6777,23 +6788,23 @@
       <c r="D16" s="8">
         <v>396.38</v>
       </c>
-      <c r="E16" s="42"/>
-      <c r="F16" s="7">
+      <c r="E16" s="8"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="7">
         <v>365.06650000000002</v>
       </c>
-      <c r="G16" s="7">
+      <c r="H16" s="7">
         <v>363.6447</v>
       </c>
-      <c r="H16" s="36">
-        <f>AVERAGE(F16:G16)</f>
+      <c r="I16" s="36">
+        <f>AVERAGE(G16:H16)</f>
         <v>364.35559999999998</v>
       </c>
-      <c r="I16" s="36">
-        <f>STDEV(F16:G16)</f>
+      <c r="J16" s="36">
+        <f>STDEV(G16:H16)</f>
         <v>1.0053644214910467</v>
       </c>
-      <c r="J16" s="42"/>
-      <c r="L16" s="42"/>
+      <c r="K16" s="42"/>
       <c r="M16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
@@ -6814,8 +6825,9 @@
       <c r="AD16" s="42"/>
       <c r="AE16" s="42"/>
       <c r="AF16" s="42"/>
-    </row>
-    <row r="17" spans="1:32" s="7" customFormat="1">
+      <c r="AG16" s="42"/>
+    </row>
+    <row r="17" spans="1:33" s="7" customFormat="1">
       <c r="A17" s="42"/>
       <c r="B17" s="7">
         <v>2942</v>
@@ -6823,23 +6835,22 @@
       <c r="C17" s="35">
         <v>2</v>
       </c>
-      <c r="E17" s="42"/>
-      <c r="F17" s="7">
-        <v>345.38619999999997</v>
-      </c>
+      <c r="F17" s="42"/>
       <c r="G17" s="7">
         <v>345.38619999999997</v>
       </c>
-      <c r="H17" s="36">
-        <f t="shared" ref="H17:H18" si="6">AVERAGE(F17:G17)</f>
+      <c r="H17" s="7">
         <v>345.38619999999997</v>
       </c>
       <c r="I17" s="36">
-        <f t="shared" ref="I17:I18" si="7">STDEV(F17:G17)</f>
+        <f t="shared" ref="I17:I18" si="6">AVERAGE(G17:H17)</f>
+        <v>345.38619999999997</v>
+      </c>
+      <c r="J17" s="36">
+        <f t="shared" ref="J17:J18" si="7">STDEV(G17:H17)</f>
         <v>0</v>
       </c>
-      <c r="J17" s="42"/>
-      <c r="L17" s="42"/>
+      <c r="K17" s="42"/>
       <c r="M17" s="42"/>
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
@@ -6860,8 +6871,9 @@
       <c r="AD17" s="42"/>
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
-    </row>
-    <row r="18" spans="1:32" s="7" customFormat="1">
+      <c r="AG17" s="42"/>
+    </row>
+    <row r="18" spans="1:33" s="7" customFormat="1">
       <c r="A18" s="42"/>
       <c r="B18" s="7">
         <v>2942</v>
@@ -6872,23 +6884,22 @@
       <c r="D18" s="7">
         <v>384.065</v>
       </c>
-      <c r="E18" s="42"/>
-      <c r="F18" s="7">
+      <c r="F18" s="42"/>
+      <c r="G18" s="7">
         <v>357.85079999999999</v>
       </c>
-      <c r="G18" s="7">
+      <c r="H18" s="7">
         <v>354.88420000000002</v>
       </c>
-      <c r="H18" s="36">
+      <c r="I18" s="36">
         <f t="shared" si="6"/>
         <v>356.36750000000001</v>
       </c>
-      <c r="I18" s="36">
+      <c r="J18" s="36">
         <f t="shared" si="7"/>
         <v>2.0977029770679918</v>
       </c>
-      <c r="J18" s="42"/>
-      <c r="L18" s="42"/>
+      <c r="K18" s="42"/>
       <c r="M18" s="42"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
@@ -6909,8 +6920,9 @@
       <c r="AD18" s="42"/>
       <c r="AE18" s="42"/>
       <c r="AF18" s="42"/>
-    </row>
-    <row r="19" spans="1:32" s="7" customFormat="1">
+      <c r="AG18" s="42"/>
+    </row>
+    <row r="19" spans="1:33" s="7" customFormat="1">
       <c r="A19" s="42"/>
       <c r="B19" s="7">
         <v>2942</v>
@@ -6918,11 +6930,8 @@
       <c r="C19" s="35">
         <v>4</v>
       </c>
-      <c r="E19" s="42"/>
-      <c r="F19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="G19" s="38" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="37" t="s">
         <v>40</v>
       </c>
       <c r="H19" s="38" t="s">
@@ -6931,8 +6940,10 @@
       <c r="I19" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="J19" s="42"/>
-      <c r="L19" s="42"/>
+      <c r="J19" s="38" t="s">
+        <v>40</v>
+      </c>
+      <c r="K19" s="42"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
@@ -6953,8 +6964,9 @@
       <c r="AD19" s="42"/>
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
-    </row>
-    <row r="20" spans="1:32" s="7" customFormat="1">
+      <c r="AG19" s="42"/>
+    </row>
+    <row r="20" spans="1:33" s="7" customFormat="1">
       <c r="A20" s="42"/>
       <c r="C20" s="39" t="s">
         <v>34</v>
@@ -6963,16 +6975,16 @@
         <f>AVERAGE(D16:D19)</f>
         <v>390.22249999999997</v>
       </c>
-      <c r="E20" s="43"/>
-      <c r="G20" s="39" t="s">
+      <c r="E20" s="40"/>
+      <c r="F20" s="43"/>
+      <c r="H20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="40">
-        <f>AVERAGE(H16:H19)</f>
+      <c r="I20" s="40">
+        <f>AVERAGE(I16:I19)</f>
         <v>355.36976666666669</v>
       </c>
-      <c r="J20" s="42"/>
-      <c r="L20" s="42"/>
+      <c r="K20" s="42"/>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -6993,8 +7005,9 @@
       <c r="AD20" s="42"/>
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
-    </row>
-    <row r="21" spans="1:32" s="7" customFormat="1">
+      <c r="AG20" s="42"/>
+    </row>
+    <row r="21" spans="1:33" s="7" customFormat="1">
       <c r="A21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -7003,16 +7016,16 @@
         <f>STDEV(D16:D19)</f>
         <v>8.7080200103123317</v>
       </c>
-      <c r="E21" s="43"/>
-      <c r="G21" s="7" t="s">
+      <c r="E21" s="19"/>
+      <c r="F21" s="43"/>
+      <c r="H21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="19">
-        <f>STDEV(H16:H19)</f>
+      <c r="I21" s="19">
+        <f>STDEV(I16:I19)</f>
         <v>9.5239770024571886</v>
       </c>
-      <c r="J21" s="42"/>
-      <c r="L21" s="42"/>
+      <c r="K21" s="42"/>
       <c r="M21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
@@ -7033,6 +7046,7 @@
       <c r="AD21" s="42"/>
       <c r="AE21" s="42"/>
       <c r="AF21" s="42"/>
+      <c r="AG21" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
   <si>
     <t>Load</t>
   </si>
@@ -144,9 +144,6 @@
   </si>
   <si>
     <t>STDEV AFM Area</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Metallization Area</t>
@@ -285,7 +282,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="135">
+  <cellStyleXfs count="147">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -421,8 +418,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -467,8 +476,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="135">
+  <cellStyles count="147">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -536,6 +547,12 @@
     <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -603,6 +620,12 @@
     <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1132,11 +1155,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2128725224"/>
-        <c:axId val="2128726328"/>
+        <c:axId val="2088302264"/>
+        <c:axId val="2088307800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2128725224"/>
+        <c:axId val="2088302264"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1166,12 +1189,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128726328"/>
+        <c:crossAx val="2088307800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2128726328"/>
+        <c:axId val="2088307800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1200,7 +1223,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2128725224"/>
+        <c:crossAx val="2088302264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1836,7 +1859,7 @@
         <v>20.471480902302439</v>
       </c>
       <c r="P6" s="3">
-        <f t="shared" ref="P6:P7" si="0">(N6-L6)/AVERAGE(N6,L6)*100</f>
+        <f>(N6-L6)/AVERAGE(N6,L6)*100</f>
         <v>-2.6245842552776861</v>
       </c>
       <c r="Q6" s="3">
@@ -1888,7 +1911,7 @@
         <v>23.27284703253985</v>
       </c>
       <c r="AC6" s="3">
-        <f t="shared" ref="AC6:AC7" si="1">(AA6-T6)/AVERAGE(T6,AA6)*100</f>
+        <f>(AA6-T6)/AVERAGE(T6,AA6)*100</f>
         <v>-0.37120125096065909</v>
       </c>
     </row>
@@ -1926,7 +1949,7 @@
         <v>54.099056993629738</v>
       </c>
       <c r="P7" s="3">
-        <f t="shared" si="0"/>
+        <f>(N7-L7)/AVERAGE(N7,L7)*100</f>
         <v>-7.9712317457618393</v>
       </c>
       <c r="Q7" s="3">
@@ -1978,7 +2001,7 @@
         <v>52.474059211830244</v>
       </c>
       <c r="AC7" s="3">
-        <f t="shared" si="1"/>
+        <f>(AA7-T7)/AVERAGE(T7,AA7)*100</f>
         <v>-0.34968886233807817</v>
       </c>
     </row>
@@ -2139,7 +2162,7 @@
         <v>375.87466666666666</v>
       </c>
       <c r="M11">
-        <f t="shared" ref="M11:M12" si="2">2*K11*SIN((136*3.14159/180)/2)*102/L11</f>
+        <f>2*K11*SIN((136*3.14159/180)/2)*102/L11</f>
         <v>1480.4558636010711</v>
       </c>
     </row>
@@ -2175,7 +2198,7 @@
         <v>570.6930000000001</v>
       </c>
       <c r="M12">
-        <f t="shared" si="2"/>
+        <f>2*K12*SIN((136*3.14159/180)/2)*102/L12</f>
         <v>1625.0068634678071</v>
       </c>
     </row>
@@ -3215,11 +3238,11 @@
         <v>9.7000000000000003E-2</v>
       </c>
       <c r="I22" s="19">
-        <f>(H22-E22)/AVERAGE(H22,E22)*100</f>
+        <f t="shared" ref="I22:I27" si="2">(H22-E22)/AVERAGE(H22,E22)*100</f>
         <v>-99.481865284974077</v>
       </c>
       <c r="J22" s="19">
-        <f>(G22-F22)/AVERAGE(G22,F22)*100</f>
+        <f t="shared" ref="J22:J27" si="3">(G22-F22)/AVERAGE(G22,F22)*100</f>
         <v>-65.984654731457809</v>
       </c>
     </row>
@@ -3243,11 +3266,11 @@
         <v>0.151</v>
       </c>
       <c r="I23" s="19">
-        <f t="shared" ref="I23:I27" si="2">(H23-E23)/AVERAGE(H23,E23)*100</f>
+        <f t="shared" si="2"/>
         <v>8.9965397923875319</v>
       </c>
       <c r="J23" s="19">
-        <f t="shared" ref="J23:J27" si="3">(G23-F23)/AVERAGE(G23,F23)*100</f>
+        <f t="shared" si="3"/>
         <v>1.0526315789473693</v>
       </c>
     </row>
@@ -3383,11 +3406,11 @@
         <v>0.35499999999999998</v>
       </c>
       <c r="I28" s="19">
-        <f>(G28-E28)/AVERAGE(E28,G28)*100</f>
+        <f t="shared" ref="I28:I33" si="4">(G28-E28)/AVERAGE(E28,G28)*100</f>
         <v>-51.263537906137181</v>
       </c>
       <c r="J28" s="19">
-        <f t="shared" ref="J28:J33" si="4">(H28-F28)/AVERAGE(H28,F28)*100</f>
+        <f t="shared" ref="J28:J33" si="5">(H28-F28)/AVERAGE(H28,F28)*100</f>
         <v>17.791411042944784</v>
       </c>
     </row>
@@ -3411,11 +3434,11 @@
         <v>0.26300000000000001</v>
       </c>
       <c r="I29" s="19">
-        <f t="shared" ref="I29:I33" si="5">(G29-E29)/AVERAGE(E29,G29)*100</f>
+        <f t="shared" si="4"/>
         <v>37.054631828978614</v>
       </c>
       <c r="J29" s="19">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>18.711018711018717</v>
       </c>
     </row>
@@ -3439,11 +3462,11 @@
         <v>0.314</v>
       </c>
       <c r="I30" s="19">
+        <f t="shared" si="4"/>
+        <v>15.000000000000002</v>
+      </c>
+      <c r="J30" s="19">
         <f t="shared" si="5"/>
-        <v>15.000000000000002</v>
-      </c>
-      <c r="J30" s="19">
-        <f t="shared" si="4"/>
         <v>48.221343873517789</v>
       </c>
     </row>
@@ -3467,11 +3490,11 @@
         <v>0.38600000000000001</v>
       </c>
       <c r="I31" s="19">
+        <f t="shared" si="4"/>
+        <v>-12.389380530973444</v>
+      </c>
+      <c r="J31" s="19">
         <f t="shared" si="5"/>
-        <v>-12.389380530973444</v>
-      </c>
-      <c r="J31" s="19">
-        <f t="shared" si="4"/>
         <v>102.15264187866929</v>
       </c>
     </row>
@@ -3495,11 +3518,11 @@
         <v>0.52900000000000003</v>
       </c>
       <c r="I32" s="19">
+        <f t="shared" si="4"/>
+        <v>-13.333333333333334</v>
+      </c>
+      <c r="J32" s="19">
         <f t="shared" si="5"/>
-        <v>-13.333333333333334</v>
-      </c>
-      <c r="J32" s="19">
-        <f t="shared" si="4"/>
         <v>113.48148148148147</v>
       </c>
     </row>
@@ -3523,11 +3546,11 @@
         <v>0.26200000000000001</v>
       </c>
       <c r="I33" s="19">
+        <f t="shared" si="4"/>
+        <v>-77.858176555716369</v>
+      </c>
+      <c r="J33" s="19">
         <f t="shared" si="5"/>
-        <v>-77.858176555716369</v>
-      </c>
-      <c r="J33" s="19">
-        <f t="shared" si="4"/>
         <v>-41.452344931921331</v>
       </c>
     </row>
@@ -6188,8 +6211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6213,12 +6236,14 @@
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="41"/>
+      <c r="F3" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="G3" s="2" t="s">
         <v>36</v>
       </c>
@@ -6231,8 +6256,11 @@
       <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
+      <c r="K3" s="41" t="s">
+        <v>19</v>
+      </c>
       <c r="L3" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:33" s="23" customFormat="1">
@@ -6245,6 +6273,9 @@
       </c>
       <c r="D4" s="23">
         <v>37.207000000000001</v>
+      </c>
+      <c r="E4" s="23">
+        <v>38.170999999999999</v>
       </c>
       <c r="F4" s="42"/>
       <c r="G4" s="23">
@@ -6303,11 +6334,11 @@
         <v>30.084599999999998</v>
       </c>
       <c r="I5" s="24">
-        <f t="shared" ref="I5:I7" si="0">AVERAGE(G5:H5)</f>
+        <f>AVERAGE(G5:H5)</f>
         <v>30.067450000000001</v>
       </c>
       <c r="J5" s="24">
-        <f t="shared" ref="J5:J7" si="1">STDEV(G5:H5)</f>
+        <f>STDEV(G5:H5)</f>
         <v>2.4253762594697324E-2</v>
       </c>
       <c r="K5" s="42"/>
@@ -6341,6 +6372,9 @@
       <c r="C6" s="23">
         <v>3</v>
       </c>
+      <c r="E6" s="23">
+        <v>42.972999999999999</v>
+      </c>
       <c r="F6" s="42"/>
       <c r="G6" s="23">
         <v>29.550899999999999</v>
@@ -6349,11 +6383,11 @@
         <v>29.550899999999999</v>
       </c>
       <c r="I6" s="24">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G6:H6)</f>
         <v>29.550899999999999</v>
       </c>
       <c r="J6" s="24">
-        <f t="shared" si="1"/>
+        <f>STDEV(G6:H6)</f>
         <v>0</v>
       </c>
       <c r="K6" s="42"/>
@@ -6390,6 +6424,9 @@
       <c r="D7" s="23">
         <v>34.494999999999997</v>
       </c>
+      <c r="E7" s="23">
+        <v>36.805</v>
+      </c>
       <c r="F7" s="42"/>
       <c r="G7" s="23">
         <v>29.8353</v>
@@ -6398,11 +6435,11 @@
         <v>29.8353</v>
       </c>
       <c r="I7" s="24">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G7:H7)</f>
         <v>29.8353</v>
       </c>
       <c r="J7" s="24">
-        <f t="shared" si="1"/>
+        <f>STDEV(G7:H7)</f>
         <v>0</v>
       </c>
       <c r="K7" s="42"/>
@@ -6437,8 +6474,14 @@
         <f>AVERAGE(D4:D7)</f>
         <v>35.312000000000005</v>
       </c>
-      <c r="E8" s="26"/>
-      <c r="F8" s="43"/>
+      <c r="E8" s="26">
+        <f>AVERAGE(E4:E7)</f>
+        <v>39.31633333333334</v>
+      </c>
+      <c r="F8" s="45">
+        <f>B4/E8</f>
+        <v>6.2315068377010396</v>
+      </c>
       <c r="H8" s="25" t="s">
         <v>34</v>
       </c>
@@ -6446,7 +6489,10 @@
         <f>AVERAGE(I4:I7)</f>
         <v>30.224787500000001</v>
       </c>
-      <c r="K8" s="42"/>
+      <c r="K8" s="45">
+        <f>B4/I8</f>
+        <v>8.1059296115812227</v>
+      </c>
       <c r="M8" s="42"/>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
@@ -6478,8 +6524,11 @@
         <f>STDEV(D4:D7)</f>
         <v>1.6462985755931401</v>
       </c>
-      <c r="E9" s="27"/>
-      <c r="F9" s="43"/>
+      <c r="E9" s="27">
+        <f>STDEV(E4:E7)</f>
+        <v>3.239582894962457</v>
+      </c>
+      <c r="F9" s="45"/>
       <c r="H9" s="23" t="s">
         <v>10</v>
       </c>
@@ -6521,7 +6570,10 @@
       <c r="D10" s="28">
         <v>69.230999999999995</v>
       </c>
-      <c r="F10" s="42"/>
+      <c r="E10" s="28">
+        <v>76.784999999999997</v>
+      </c>
+      <c r="F10" s="45"/>
       <c r="G10" s="28">
         <v>57.530500000000004</v>
       </c>
@@ -6567,19 +6619,11 @@
       <c r="C11" s="28">
         <v>2</v>
       </c>
-      <c r="F11" s="42"/>
-      <c r="G11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I11" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>40</v>
-      </c>
+      <c r="F11" s="45"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31"/>
       <c r="K11" s="42"/>
       <c r="M11" s="42"/>
       <c r="N11" s="42"/>
@@ -6611,7 +6655,10 @@
       <c r="C12" s="28">
         <v>3</v>
       </c>
-      <c r="F12" s="42"/>
+      <c r="E12" s="28">
+        <v>70.697999999999993</v>
+      </c>
+      <c r="F12" s="45"/>
       <c r="G12" s="28">
         <v>62.307299999999998</v>
       </c>
@@ -6619,11 +6666,11 @@
         <v>61.901600000000002</v>
       </c>
       <c r="I12" s="29">
-        <f t="shared" ref="I12" si="2">AVERAGE(G12:H12)</f>
+        <f>AVERAGE(G12:H12)</f>
         <v>62.10445</v>
       </c>
       <c r="J12" s="29">
-        <f t="shared" ref="J12" si="3">STDEV(G12:H12)</f>
+        <f>STDEV(G12:H12)</f>
         <v>0.28687322112737945</v>
       </c>
       <c r="K12" s="42"/>
@@ -6657,7 +6704,10 @@
       <c r="C13" s="28">
         <v>4</v>
       </c>
-      <c r="F13" s="42"/>
+      <c r="E13" s="44">
+        <v>80.06</v>
+      </c>
+      <c r="F13" s="45"/>
       <c r="G13" s="28">
         <v>59.804699999999997</v>
       </c>
@@ -6665,11 +6715,11 @@
         <v>59.804699999999997</v>
       </c>
       <c r="I13" s="29">
-        <f t="shared" ref="I11:I13" si="4">AVERAGE(G13:H13)</f>
+        <f>AVERAGE(G13:H13)</f>
         <v>59.804699999999997</v>
       </c>
       <c r="J13" s="29">
-        <f t="shared" ref="J11:J13" si="5">STDEV(G13:H13)</f>
+        <f>STDEV(G13:H13)</f>
         <v>0</v>
       </c>
       <c r="K13" s="42"/>
@@ -6704,8 +6754,14 @@
         <f>AVERAGE(D10:D13)</f>
         <v>69.230999999999995</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="43"/>
+      <c r="E14" s="33">
+        <f>AVERAGE(E10:E13)</f>
+        <v>75.847666666666669</v>
+      </c>
+      <c r="F14" s="45">
+        <f>B10/E14</f>
+        <v>6.4603173905591467</v>
+      </c>
       <c r="H14" s="32" t="s">
         <v>34</v>
       </c>
@@ -6713,7 +6769,10 @@
         <f>AVERAGE(I10:I13)</f>
         <v>59.832249999999995</v>
       </c>
-      <c r="K14" s="42"/>
+      <c r="K14" s="45">
+        <f>B10/I14</f>
+        <v>8.1895633207843606</v>
+      </c>
       <c r="M14" s="42"/>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
@@ -6745,8 +6804,11 @@
         <f>STDEV(D10:D13)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E15" s="34"/>
-      <c r="F15" s="43"/>
+      <c r="E15" s="34">
+        <f>STDEV(E10:E13)</f>
+        <v>4.7508637460290712</v>
+      </c>
+      <c r="F15" s="45"/>
       <c r="H15" s="28" t="s">
         <v>10</v>
       </c>
@@ -6788,8 +6850,10 @@
       <c r="D16" s="8">
         <v>396.38</v>
       </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="42"/>
+      <c r="E16" s="8">
+        <v>390.73500000000001</v>
+      </c>
+      <c r="F16" s="45"/>
       <c r="G16" s="7">
         <v>365.06650000000002</v>
       </c>
@@ -6835,7 +6899,7 @@
       <c r="C17" s="35">
         <v>2</v>
       </c>
-      <c r="F17" s="42"/>
+      <c r="F17" s="45"/>
       <c r="G17" s="7">
         <v>345.38619999999997</v>
       </c>
@@ -6843,11 +6907,11 @@
         <v>345.38619999999997</v>
       </c>
       <c r="I17" s="36">
-        <f t="shared" ref="I17:I18" si="6">AVERAGE(G17:H17)</f>
+        <f>AVERAGE(G17:H17)</f>
         <v>345.38619999999997</v>
       </c>
       <c r="J17" s="36">
-        <f t="shared" ref="J17:J18" si="7">STDEV(G17:H17)</f>
+        <f>STDEV(G17:H17)</f>
         <v>0</v>
       </c>
       <c r="K17" s="42"/>
@@ -6884,7 +6948,10 @@
       <c r="D18" s="7">
         <v>384.065</v>
       </c>
-      <c r="F18" s="42"/>
+      <c r="E18" s="7">
+        <v>380.54899999999998</v>
+      </c>
+      <c r="F18" s="45"/>
       <c r="G18" s="7">
         <v>357.85079999999999</v>
       </c>
@@ -6892,11 +6959,11 @@
         <v>354.88420000000002</v>
       </c>
       <c r="I18" s="36">
-        <f t="shared" si="6"/>
+        <f>AVERAGE(G18:H18)</f>
         <v>356.36750000000001</v>
       </c>
       <c r="J18" s="36">
-        <f t="shared" si="7"/>
+        <f>STDEV(G18:H18)</f>
         <v>2.0977029770679918</v>
       </c>
       <c r="K18" s="42"/>
@@ -6930,19 +6997,11 @@
       <c r="C19" s="35">
         <v>4</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="37" t="s">
-        <v>40</v>
-      </c>
-      <c r="H19" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="38" t="s">
-        <v>40</v>
-      </c>
+      <c r="F19" s="45"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
       <c r="K19" s="42"/>
       <c r="M19" s="42"/>
       <c r="N19" s="42"/>
@@ -6975,8 +7034,14 @@
         <f>AVERAGE(D16:D19)</f>
         <v>390.22249999999997</v>
       </c>
-      <c r="E20" s="40"/>
-      <c r="F20" s="43"/>
+      <c r="E20" s="40">
+        <f>AVERAGE(E16:E19)</f>
+        <v>385.642</v>
+      </c>
+      <c r="F20" s="45">
+        <f>B16/E20</f>
+        <v>7.62883710799135</v>
+      </c>
       <c r="H20" s="39" t="s">
         <v>34</v>
       </c>
@@ -6984,7 +7049,10 @@
         <f>AVERAGE(I16:I19)</f>
         <v>355.36976666666669</v>
       </c>
-      <c r="K20" s="42"/>
+      <c r="K20" s="45">
+        <f>B16/I20</f>
+        <v>8.2787008799191604</v>
+      </c>
       <c r="M20" s="42"/>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
@@ -7016,7 +7084,10 @@
         <f>STDEV(D16:D19)</f>
         <v>8.7080200103123317</v>
       </c>
-      <c r="E21" s="19"/>
+      <c r="E21" s="19">
+        <f>STDEV(E16:E19)</f>
+        <v>7.202589673166198</v>
+      </c>
       <c r="F21" s="43"/>
       <c r="H21" s="7" t="s">
         <v>10</v>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -13,6 +13,7 @@
     <sheet name="Cutoff Area Changes" sheetId="6" r:id="rId4"/>
     <sheet name="Before and After Gold 200nm" sheetId="7" r:id="rId5"/>
     <sheet name="LP, AFM" sheetId="8" r:id="rId6"/>
+    <sheet name="Human Error" sheetId="9" r:id="rId7"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
   <si>
     <t>Load</t>
   </si>
@@ -154,14 +155,84 @@
   <si>
     <t>Revised Keyence Area</t>
   </si>
+  <si>
+    <t>Nicole calibrated it to 0, same calibration used across all experiments</t>
+  </si>
+  <si>
+    <t>J diag 1</t>
+  </si>
+  <si>
+    <t>J diag 2</t>
+  </si>
+  <si>
+    <t>Diagonals all in microns</t>
+  </si>
+  <si>
+    <t>Jackie area</t>
+  </si>
+  <si>
+    <t>N area</t>
+  </si>
+  <si>
+    <t>N diag 1</t>
+  </si>
+  <si>
+    <t>N diag 2</t>
+  </si>
+  <si>
+    <t>Jackie Vickers</t>
+  </si>
+  <si>
+    <t>Nicole Vickers</t>
+  </si>
+  <si>
+    <t>Load (kfg)</t>
+  </si>
+  <si>
+    <t>Load (mN)</t>
+  </si>
+  <si>
+    <t>Summary</t>
+  </si>
+  <si>
+    <t>Jackie Avg</t>
+  </si>
+  <si>
+    <t>Jackie STDEV</t>
+  </si>
+  <si>
+    <t>Nicole Avg</t>
+  </si>
+  <si>
+    <t>Nicole STDEV</t>
+  </si>
+  <si>
+    <t>Laser Profiler 245.2 mN</t>
+  </si>
+  <si>
+    <t>AFM 245.2 mN</t>
+  </si>
+  <si>
+    <t>Laser Profiler 2942 mN</t>
+  </si>
+  <si>
+    <t>AFM 2942 mN</t>
+  </si>
+  <si>
+    <t>in nm</t>
+  </si>
+  <si>
+    <t>AFM: 107</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -217,7 +288,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,6 +343,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +359,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="147">
+  <cellStyleXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -430,8 +507,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -478,8 +577,13 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="147">
+  <cellStyles count="169">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -553,6 +657,17 @@
     <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -626,6 +741,17 @@
     <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -663,6 +789,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1155,11 +1282,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2088302264"/>
-        <c:axId val="2088307800"/>
+        <c:axId val="-2088583160"/>
+        <c:axId val="2127611704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2088302264"/>
+        <c:axId val="-2088583160"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1183,18 +1310,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088307800"/>
+        <c:crossAx val="2127611704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2088307800"/>
+        <c:axId val="2127611704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1217,13 +1345,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2088302264"/>
+        <c:crossAx val="-2088583160"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1238,6 +1367,7 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1250,6 +1380,1427 @@
     <a:p>
       <a:pPr>
         <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.140725872974624"/>
+          <c:y val="0.0911206037690397"/>
+          <c:w val="0.709733806528768"/>
+          <c:h val="0.689473186904354"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>490.3 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>73.49</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>71.983</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.139</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>69.372</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.367</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>67.80500000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>980.7 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>142.199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>141.937</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141.696</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>141.475</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>141.335</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>141.174</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>140.049</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.904</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>138.04</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>136.111</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>135.187</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>134.404</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>1961 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="8">
+                  <c:v>274.513</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>270.676</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>269.209</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>267.642</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>2942 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$F$4:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>391.237</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>390.735</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>390.353</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>389.891</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>389.329</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>388.927</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>386.898</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>384.326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>382.357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>378.379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>376.511</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>374.422</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>4903 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.01</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.015</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.02</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.03</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.035</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$G$4:$G$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>527.9109999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>527.569</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>527.047</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>526.685</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>526.324</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>525.842</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>523.592</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>521.582</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>519.794</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>515.997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>514.27</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>512.441</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2088507576"/>
+        <c:axId val="-2088520472"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2088507576"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="-0.001"/>
+          <c:min val="-0.045"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Height from Surface Plane [µm]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2088520472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2088520472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area [µm^2]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2088507576"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.804190359448318"/>
+          <c:y val="0.22866656940961"/>
+          <c:w val="0.175435625789064"/>
+          <c:h val="0.450490533790684"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1600"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0657268346185308"/>
+          <c:y val="0.0601851851851852"/>
+          <c:w val="0.641700692891841"/>
+          <c:h val="0.715987897346165"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AFM, 245.2 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AL$3:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AN$3:$AN$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>32.2895</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>32.0829</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.7956</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31.6356</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.4364</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.2311</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30.2696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29.1974</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28.3881</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>26.8889</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>26.3547</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>25.5443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Laser Profiler, 245.2 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AL$3:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AM$3:$AM$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>AFM, 2942 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AL$3:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AP$3:$AP$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>367.3386</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>365.6177</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.0000">
+                  <c:v>366.627</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>365.0101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>364.8468</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>366.0543</c:v>
+                </c:pt>
+                <c:pt idx="6" formatCode="0.0000">
+                  <c:v>362.157</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>358.4554</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>354.8267</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>350.8613</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>346.3859</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>345.2583</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Laser Profiler, 2942 mN</c:v>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AL$3:$AL$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-10.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-15.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-20.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-30.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-35.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-40.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Cutoff Area Changes'!$AO$3:$AO$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="-2097957048"/>
+        <c:axId val="-2067991432"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="-2097957048"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Threshold</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Change (nm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2067991432"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="-2067991432"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Area (sq. µm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.00234120734908135"/>
+              <c:y val="0.290864319043453"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="-2097957048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.75090577907699"/>
+          <c:y val="0.202168270632838"/>
+          <c:w val="0.227355095139701"/>
+          <c:h val="0.553996792067658"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>User 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Error'!$P$7:$P$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>14.12453900981172</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.13808832425835</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>67.3061453220276</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Error'!$P$7:$P$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>14.12453900981172</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>13.13808832425835</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>67.3061453220276</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Human Error'!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Human Error'!$O$7:$O$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>685.3598677279909</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>701.3846865313373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>646.2241175700025</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>User 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="5"/>
+          </c:marker>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Error'!$R$7:$R$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>31.36861291323757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>23.77446554394838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.42742108039214</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Error'!$R$7:$R$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>31.36861291323757</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>23.77446554394838</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>45.42742108039214</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Human Error'!$N$7:$N$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>679.1655081103684</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>658.8312009525997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>635.4849121233971</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2125310312"/>
+        <c:axId val="2125317272"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2125310312"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="3000.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load (mN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125317272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2125317272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="550.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Vickers Hardness (HV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.025"/>
+              <c:y val="0.12241469816273"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2125310312"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.690620734908136"/>
+          <c:y val="0.421693642461359"/>
+          <c:w val="0.154895320431039"/>
+          <c:h val="0.211137131701966"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -1276,6 +2827,103 @@
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>33867</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>177800</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>84667</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>702734</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>67733</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>169333</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>643466</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5042,15 +6690,38 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:X18"/>
+  <dimension ref="B2:AP18"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AP14" sqref="AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="39" max="39" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="13" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="2:24">
+    <row r="2" spans="2:42">
+      <c r="AL2" t="s">
+        <v>64</v>
+      </c>
+      <c r="AM2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="AN2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP2" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="2:42">
       <c r="C3" s="2">
         <v>490.3</v>
       </c>
@@ -5081,8 +6752,21 @@
       <c r="X3" s="2">
         <v>4903</v>
       </c>
-    </row>
-    <row r="4" spans="2:24">
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <f>AK3*1000</f>
+        <v>0</v>
+      </c>
+      <c r="AN3">
+        <v>32.289499999999997</v>
+      </c>
+      <c r="AP3">
+        <v>367.33859999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="2:42">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -5107,8 +6791,21 @@
       <c r="X4">
         <v>527.91099999999994</v>
       </c>
-    </row>
-    <row r="5" spans="2:24">
+      <c r="AK4" s="2">
+        <v>-1E-3</v>
+      </c>
+      <c r="AL4" s="2">
+        <f t="shared" ref="AL4:AL14" si="0">AK4*1000</f>
+        <v>-1</v>
+      </c>
+      <c r="AN4">
+        <v>32.082900000000002</v>
+      </c>
+      <c r="AP4">
+        <v>365.61770000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:42">
       <c r="B5" s="2">
         <v>-1E-3</v>
       </c>
@@ -5133,8 +6830,21 @@
       <c r="X5">
         <v>527.56899999999996</v>
       </c>
-    </row>
-    <row r="6" spans="2:24">
+      <c r="AK5" s="2">
+        <v>-2E-3</v>
+      </c>
+      <c r="AL5" s="2">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+      <c r="AN5">
+        <v>31.7956</v>
+      </c>
+      <c r="AP5" s="50">
+        <v>366.62700000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:42">
       <c r="B6" s="2">
         <v>-2E-3</v>
       </c>
@@ -5159,8 +6869,21 @@
       <c r="X6">
         <v>527.04700000000003</v>
       </c>
-    </row>
-    <row r="7" spans="2:24">
+      <c r="AK6" s="2">
+        <v>-3.0000000000000001E-3</v>
+      </c>
+      <c r="AL6" s="2">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+      <c r="AN6">
+        <v>31.6356</v>
+      </c>
+      <c r="AP6">
+        <v>365.01010000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="2:42">
       <c r="B7" s="2">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -5185,8 +6908,21 @@
       <c r="X7">
         <v>526.68499999999995</v>
       </c>
-    </row>
-    <row r="8" spans="2:24">
+      <c r="AK7" s="2">
+        <v>-4.0000000000000001E-3</v>
+      </c>
+      <c r="AL7" s="2">
+        <f t="shared" si="0"/>
+        <v>-4</v>
+      </c>
+      <c r="AN7">
+        <v>31.436399999999999</v>
+      </c>
+      <c r="AP7">
+        <v>364.84679999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="2:42">
       <c r="B8" s="2">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -5211,8 +6947,21 @@
       <c r="X8">
         <v>526.32399999999996</v>
       </c>
-    </row>
-    <row r="9" spans="2:24">
+      <c r="AK8" s="2">
+        <v>-5.0000000000000001E-3</v>
+      </c>
+      <c r="AL8" s="2">
+        <f t="shared" si="0"/>
+        <v>-5</v>
+      </c>
+      <c r="AN8">
+        <v>31.231100000000001</v>
+      </c>
+      <c r="AP8">
+        <v>366.05430000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:42">
       <c r="B9" s="2">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -5237,8 +6986,21 @@
       <c r="X9">
         <v>525.84199999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:24">
+      <c r="AK9" s="2">
+        <v>-0.01</v>
+      </c>
+      <c r="AL9" s="2">
+        <f t="shared" si="0"/>
+        <v>-10</v>
+      </c>
+      <c r="AN9">
+        <v>30.269600000000001</v>
+      </c>
+      <c r="AP9" s="50">
+        <v>362.15699999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:42">
       <c r="B10" s="2">
         <v>-0.01</v>
       </c>
@@ -5269,8 +7031,21 @@
       <c r="X10">
         <v>523.59199999999998</v>
       </c>
-    </row>
-    <row r="11" spans="2:24">
+      <c r="AK10" s="2">
+        <v>-1.4999999999999999E-2</v>
+      </c>
+      <c r="AL10" s="2">
+        <f t="shared" si="0"/>
+        <v>-15</v>
+      </c>
+      <c r="AN10">
+        <v>29.197399999999998</v>
+      </c>
+      <c r="AP10">
+        <v>358.4554</v>
+      </c>
+    </row>
+    <row r="11" spans="2:42">
       <c r="B11" s="2">
         <v>-1.4999999999999999E-2</v>
       </c>
@@ -5301,8 +7076,21 @@
       <c r="X11">
         <v>521.58199999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:24">
+      <c r="AK11" s="2">
+        <v>-0.02</v>
+      </c>
+      <c r="AL11" s="2">
+        <f t="shared" si="0"/>
+        <v>-20</v>
+      </c>
+      <c r="AN11">
+        <v>28.388100000000001</v>
+      </c>
+      <c r="AP11">
+        <v>354.82670000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:42">
       <c r="B12" s="2">
         <v>-0.02</v>
       </c>
@@ -5339,8 +7127,21 @@
       <c r="X12">
         <v>519.79399999999998</v>
       </c>
-    </row>
-    <row r="13" spans="2:24">
+      <c r="AK12" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="AL12" s="2">
+        <f t="shared" si="0"/>
+        <v>-30</v>
+      </c>
+      <c r="AN12">
+        <v>26.8889</v>
+      </c>
+      <c r="AP12">
+        <v>350.86130000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="2:42">
       <c r="B13" s="2">
         <v>-0.03</v>
       </c>
@@ -5377,8 +7178,21 @@
       <c r="X13">
         <v>515.99699999999996</v>
       </c>
-    </row>
-    <row r="14" spans="2:24">
+      <c r="AK13" s="2">
+        <v>-3.5000000000000003E-2</v>
+      </c>
+      <c r="AL13" s="2">
+        <f t="shared" si="0"/>
+        <v>-35</v>
+      </c>
+      <c r="AN13">
+        <v>26.354700000000001</v>
+      </c>
+      <c r="AP13">
+        <v>346.38589999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="2:42">
       <c r="B14" s="2">
         <v>-3.5000000000000003E-2</v>
       </c>
@@ -5415,8 +7229,21 @@
       <c r="X14">
         <v>514.27</v>
       </c>
-    </row>
-    <row r="15" spans="2:24">
+      <c r="AK14" s="2">
+        <v>-0.04</v>
+      </c>
+      <c r="AL14" s="2">
+        <f t="shared" si="0"/>
+        <v>-40</v>
+      </c>
+      <c r="AN14">
+        <v>25.5443</v>
+      </c>
+      <c r="AP14">
+        <v>345.25830000000002</v>
+      </c>
+    </row>
+    <row r="15" spans="2:42">
       <c r="B15" s="2">
         <v>-0.04</v>
       </c>
@@ -5454,7 +7281,7 @@
         <v>512.44100000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:24">
+    <row r="16" spans="2:42">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -5488,6 +7315,9 @@
       <c r="X16" s="3">
         <f>(X15-X4)/X4*100</f>
         <v>-2.9304181954912694</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="2:24">
@@ -6211,7 +8041,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AG21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
@@ -7128,4 +8958,748 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:R24"/>
+  <sheetViews>
+    <sheetView topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18">
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18">
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="N5" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="23">
+        <v>2942</v>
+      </c>
+      <c r="C7" s="24">
+        <f>B7*1.02*10^(-4)</f>
+        <v>0.30008400000000002</v>
+      </c>
+      <c r="D7" s="23">
+        <v>1</v>
+      </c>
+      <c r="E7" s="24">
+        <v>28.83</v>
+      </c>
+      <c r="F7" s="24">
+        <v>28.84</v>
+      </c>
+      <c r="G7" s="27">
+        <f>0.5*(AVERAGE(E7:F7)^2)</f>
+        <v>415.7286125</v>
+      </c>
+      <c r="H7" s="27">
+        <f>1.854*C7/((0.001*(E7+F7)/2)^2)</f>
+        <v>669.13332312434954</v>
+      </c>
+      <c r="I7" s="24">
+        <v>29.09</v>
+      </c>
+      <c r="J7" s="24">
+        <v>30.03</v>
+      </c>
+      <c r="K7" s="27">
+        <f>0.5*(AVERAGE(I7:J7)^2)</f>
+        <v>436.89680000000004</v>
+      </c>
+      <c r="L7" s="27">
+        <f>1.854*C7/(0.001*(I7+J7)/2)^2</f>
+        <v>636.71299034463061</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2942</v>
+      </c>
+      <c r="O7" s="3">
+        <f>H11</f>
+        <v>685.35986772799095</v>
+      </c>
+      <c r="P7" s="3">
+        <f>H12</f>
+        <v>14.124539009811716</v>
+      </c>
+      <c r="Q7" s="3">
+        <f>L11</f>
+        <v>679.16550811036836</v>
+      </c>
+      <c r="R7" s="3">
+        <f>L12</f>
+        <v>31.368612913237573</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="23">
+        <v>2942</v>
+      </c>
+      <c r="C8" s="24">
+        <f t="shared" ref="C8:C22" si="0">B8*1.02*10^(-4)</f>
+        <v>0.30008400000000002</v>
+      </c>
+      <c r="D8" s="23">
+        <v>2</v>
+      </c>
+      <c r="E8" s="24">
+        <v>28.83</v>
+      </c>
+      <c r="F8" s="24">
+        <v>28.22</v>
+      </c>
+      <c r="G8" s="27">
+        <f t="shared" ref="G8:G22" si="1">0.5*(AVERAGE(E8:F8)^2)</f>
+        <v>406.83781249999998</v>
+      </c>
+      <c r="H8" s="27">
+        <f t="shared" ref="H8:H22" si="2">1.854*C8/((0.001*(E8+F8)/2)^2)</f>
+        <v>683.75617863691093</v>
+      </c>
+      <c r="I8" s="24">
+        <v>28.27</v>
+      </c>
+      <c r="J8" s="24">
+        <v>28.96</v>
+      </c>
+      <c r="K8" s="27">
+        <f t="shared" ref="K8:K22" si="3">0.5*(AVERAGE(I8:J8)^2)</f>
+        <v>409.40911250000005</v>
+      </c>
+      <c r="L8" s="27">
+        <f t="shared" ref="L8:L22" si="4">1.854*C8/(0.001*(I8+J8)/2)^2</f>
+        <v>679.46183782120875</v>
+      </c>
+      <c r="N8" s="2">
+        <v>490.3</v>
+      </c>
+      <c r="O8" s="3">
+        <f>H17</f>
+        <v>701.38468653133737</v>
+      </c>
+      <c r="P8" s="3">
+        <f>H18</f>
+        <v>13.138088324258353</v>
+      </c>
+      <c r="Q8" s="3">
+        <f>L17</f>
+        <v>658.83120095259972</v>
+      </c>
+      <c r="R8" s="3">
+        <f>L18</f>
+        <v>23.774465543948377</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="23">
+        <v>2942</v>
+      </c>
+      <c r="C9" s="24">
+        <f t="shared" si="0"/>
+        <v>0.30008400000000002</v>
+      </c>
+      <c r="D9" s="23">
+        <v>3</v>
+      </c>
+      <c r="E9" s="24">
+        <v>28.17</v>
+      </c>
+      <c r="F9" s="24">
+        <v>28.07</v>
+      </c>
+      <c r="G9" s="27">
+        <f t="shared" si="1"/>
+        <v>395.36720000000003</v>
+      </c>
+      <c r="H9" s="27">
+        <f t="shared" si="2"/>
+        <v>703.59369214239325</v>
+      </c>
+      <c r="I9" s="24">
+        <v>27.88</v>
+      </c>
+      <c r="J9" s="24">
+        <v>28.96</v>
+      </c>
+      <c r="K9" s="27">
+        <f t="shared" si="3"/>
+        <v>403.84820000000008</v>
+      </c>
+      <c r="L9" s="27">
+        <f t="shared" si="4"/>
+        <v>688.81789741789123</v>
+      </c>
+      <c r="N9" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="O9" s="3">
+        <f>H23</f>
+        <v>646.22411757000259</v>
+      </c>
+      <c r="P9" s="3">
+        <f>H24</f>
+        <v>67.306145322027604</v>
+      </c>
+      <c r="Q9" s="3">
+        <f>L23</f>
+        <v>635.48491212339718</v>
+      </c>
+      <c r="R9" s="3">
+        <f>L24</f>
+        <v>45.427421080392136</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="23">
+        <v>2942</v>
+      </c>
+      <c r="C10" s="24">
+        <f t="shared" si="0"/>
+        <v>0.30008400000000002</v>
+      </c>
+      <c r="D10" s="23">
+        <v>4</v>
+      </c>
+      <c r="E10" s="24">
+        <v>28.41</v>
+      </c>
+      <c r="F10" s="24">
+        <v>28.59</v>
+      </c>
+      <c r="G10" s="27">
+        <f t="shared" si="1"/>
+        <v>406.125</v>
+      </c>
+      <c r="H10" s="27">
+        <f t="shared" si="2"/>
+        <v>684.95627700831039</v>
+      </c>
+      <c r="I10" s="24">
+        <v>27.7</v>
+      </c>
+      <c r="J10" s="24">
+        <v>28.22</v>
+      </c>
+      <c r="K10" s="27">
+        <f t="shared" si="3"/>
+        <v>390.88080000000002</v>
+      </c>
+      <c r="L10" s="27">
+        <f t="shared" si="4"/>
+        <v>711.66930685774275</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18">
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="26">
+        <f>AVERAGE(H7:H10)</f>
+        <v>685.35986772799095</v>
+      </c>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="26">
+        <f>AVERAGE(L7:L10)</f>
+        <v>679.16550811036836</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="26">
+        <f>STDEV(H7:H10)</f>
+        <v>14.124539009811716</v>
+      </c>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="26">
+        <f>STDEV(L7:L10)</f>
+        <v>31.368612913237573</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="28">
+        <v>490.3</v>
+      </c>
+      <c r="C13" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0010600000000002E-2</v>
+      </c>
+      <c r="D13" s="28">
+        <v>1</v>
+      </c>
+      <c r="E13" s="29">
+        <v>11.61</v>
+      </c>
+      <c r="F13" s="29">
+        <v>11.65</v>
+      </c>
+      <c r="G13" s="34">
+        <f t="shared" si="1"/>
+        <v>67.628449999999987</v>
+      </c>
+      <c r="H13" s="34">
+        <f t="shared" si="2"/>
+        <v>685.50774415205433</v>
+      </c>
+      <c r="I13" s="29">
+        <v>11.76</v>
+      </c>
+      <c r="J13" s="29">
+        <v>11.86</v>
+      </c>
+      <c r="K13" s="34">
+        <f t="shared" si="3"/>
+        <v>69.738049999999987</v>
+      </c>
+      <c r="L13" s="34">
+        <f t="shared" si="4"/>
+        <v>664.7708991002761</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="28">
+        <v>490.3</v>
+      </c>
+      <c r="C14" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0010600000000002E-2</v>
+      </c>
+      <c r="D14" s="28">
+        <v>2</v>
+      </c>
+      <c r="E14" s="29">
+        <v>11.4</v>
+      </c>
+      <c r="F14" s="29">
+        <v>11.34</v>
+      </c>
+      <c r="G14" s="34">
+        <f t="shared" si="1"/>
+        <v>64.638450000000006</v>
+      </c>
+      <c r="H14" s="34">
+        <f t="shared" si="2"/>
+        <v>717.21747968894658</v>
+      </c>
+      <c r="I14" s="29">
+        <v>12</v>
+      </c>
+      <c r="J14" s="29">
+        <v>12.3</v>
+      </c>
+      <c r="K14" s="34">
+        <f t="shared" si="3"/>
+        <v>73.811250000000001</v>
+      </c>
+      <c r="L14" s="34">
+        <f t="shared" si="4"/>
+        <v>628.08618198445345</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="28">
+        <v>490.3</v>
+      </c>
+      <c r="C15" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0010600000000002E-2</v>
+      </c>
+      <c r="D15" s="28">
+        <v>3</v>
+      </c>
+      <c r="E15" s="29">
+        <v>11.76</v>
+      </c>
+      <c r="F15" s="29">
+        <v>11.19</v>
+      </c>
+      <c r="G15" s="34">
+        <f t="shared" si="1"/>
+        <v>65.837812499999998</v>
+      </c>
+      <c r="H15" s="34">
+        <f t="shared" si="2"/>
+        <v>704.15198257080624</v>
+      </c>
+      <c r="I15" s="29">
+        <v>11.39</v>
+      </c>
+      <c r="J15" s="29">
+        <v>11.87</v>
+      </c>
+      <c r="K15" s="34">
+        <f t="shared" si="3"/>
+        <v>67.628449999999987</v>
+      </c>
+      <c r="L15" s="34">
+        <f t="shared" si="4"/>
+        <v>685.50774415205433</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="28">
+        <v>490.3</v>
+      </c>
+      <c r="C16" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0010600000000002E-2</v>
+      </c>
+      <c r="D16" s="28">
+        <v>4</v>
+      </c>
+      <c r="E16" s="29">
+        <v>11.67</v>
+      </c>
+      <c r="F16" s="29">
+        <v>11.37</v>
+      </c>
+      <c r="G16" s="34">
+        <f t="shared" si="1"/>
+        <v>66.355199999999996</v>
+      </c>
+      <c r="H16" s="34">
+        <f t="shared" si="2"/>
+        <v>698.66153971354186</v>
+      </c>
+      <c r="I16" s="29">
+        <v>11.74</v>
+      </c>
+      <c r="J16" s="29">
+        <v>12.02</v>
+      </c>
+      <c r="K16" s="34">
+        <f t="shared" si="3"/>
+        <v>70.567199999999985</v>
+      </c>
+      <c r="L16" s="34">
+        <f t="shared" si="4"/>
+        <v>656.95997857361488</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="33">
+        <f>AVERAGE(H13:H16)</f>
+        <v>701.38468653133737</v>
+      </c>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="33">
+        <f>AVERAGE(L13:L16)</f>
+        <v>658.83120095259972</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="28"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="33">
+        <f>STDEV(H13:H16)</f>
+        <v>13.138088324258353</v>
+      </c>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="33">
+        <f>STDEV(L13:L16)</f>
+        <v>23.774465543948377</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="B19" s="46">
+        <v>245.2</v>
+      </c>
+      <c r="C19" s="47">
+        <f t="shared" si="0"/>
+        <v>2.5010399999999999E-2</v>
+      </c>
+      <c r="D19" s="46">
+        <v>1</v>
+      </c>
+      <c r="E19" s="47">
+        <v>8.99</v>
+      </c>
+      <c r="F19" s="47">
+        <v>8.19</v>
+      </c>
+      <c r="G19" s="48">
+        <f t="shared" si="1"/>
+        <v>36.89405</v>
+      </c>
+      <c r="H19" s="48">
+        <f t="shared" si="2"/>
+        <v>628.41137798642319</v>
+      </c>
+      <c r="I19" s="47">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J19" s="47">
+        <v>8.82</v>
+      </c>
+      <c r="K19" s="48">
+        <f t="shared" si="3"/>
+        <v>38.3688</v>
+      </c>
+      <c r="L19" s="48">
+        <f t="shared" si="4"/>
+        <v>604.25764683805585</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="B20" s="46">
+        <v>245.2</v>
+      </c>
+      <c r="C20" s="47">
+        <f t="shared" si="0"/>
+        <v>2.5010399999999999E-2</v>
+      </c>
+      <c r="D20" s="46">
+        <v>2</v>
+      </c>
+      <c r="E20" s="47">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F20" s="47">
+        <v>8.3699999999999992</v>
+      </c>
+      <c r="G20" s="48">
+        <f t="shared" si="1"/>
+        <v>37.54111249999999</v>
+      </c>
+      <c r="H20" s="48">
+        <f t="shared" si="2"/>
+        <v>617.58001444416459</v>
+      </c>
+      <c r="I20" s="47">
+        <v>8.43</v>
+      </c>
+      <c r="J20" s="47">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K20" s="48">
+        <f t="shared" si="3"/>
+        <v>37.109112500000002</v>
+      </c>
+      <c r="L20" s="48">
+        <f t="shared" si="4"/>
+        <v>624.76947676935129</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="46">
+        <v>245.2</v>
+      </c>
+      <c r="C21" s="47">
+        <f t="shared" si="0"/>
+        <v>2.5010399999999999E-2</v>
+      </c>
+      <c r="D21" s="46">
+        <v>3</v>
+      </c>
+      <c r="E21" s="47">
+        <v>8.07</v>
+      </c>
+      <c r="F21" s="47">
+        <v>7.71</v>
+      </c>
+      <c r="G21" s="48">
+        <f t="shared" si="1"/>
+        <v>31.126050000000003</v>
+      </c>
+      <c r="H21" s="48">
+        <f t="shared" si="2"/>
+        <v>744.86292992525523</v>
+      </c>
+      <c r="I21" s="47">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="J21" s="47">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="K21" s="48">
+        <f t="shared" si="3"/>
+        <v>33.0078125</v>
+      </c>
+      <c r="L21" s="48">
+        <f t="shared" si="4"/>
+        <v>702.39858518343192</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="B22" s="46">
+        <v>245.2</v>
+      </c>
+      <c r="C22" s="47">
+        <f t="shared" si="0"/>
+        <v>2.5010399999999999E-2</v>
+      </c>
+      <c r="D22" s="46">
+        <v>4</v>
+      </c>
+      <c r="E22" s="47">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="F22" s="47">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="G22" s="48">
+        <f t="shared" si="1"/>
+        <v>39.028612500000008</v>
+      </c>
+      <c r="H22" s="48">
+        <f t="shared" si="2"/>
+        <v>594.04214792416712</v>
+      </c>
+      <c r="I22" s="47">
+        <v>8.6</v>
+      </c>
+      <c r="J22" s="47">
+        <v>8.83</v>
+      </c>
+      <c r="K22" s="48">
+        <f t="shared" si="3"/>
+        <v>37.975612499999997</v>
+      </c>
+      <c r="L22" s="48">
+        <f t="shared" si="4"/>
+        <v>610.51393970274989</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="B23" s="46"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="46"/>
+      <c r="F23" s="46"/>
+      <c r="G23" s="46"/>
+      <c r="H23" s="49">
+        <f>AVERAGE(H19:H22)</f>
+        <v>646.22411757000259</v>
+      </c>
+      <c r="I23" s="46"/>
+      <c r="J23" s="46"/>
+      <c r="K23" s="46"/>
+      <c r="L23" s="49">
+        <f>AVERAGE(L19:L22)</f>
+        <v>635.48491212339718</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12">
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="49">
+        <f>STDEV(H19:H22)</f>
+        <v>67.306145322027604</v>
+      </c>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="49">
+        <f>STDEV(L19:L22)</f>
+        <v>45.427421080392136</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
   <si>
     <t>Load</t>
   </si>
@@ -224,6 +224,9 @@
   <si>
     <t>AFM: 107</t>
   </si>
+  <si>
+    <t>Redone AFM Area</t>
+  </si>
 </sst>
 </file>
 
@@ -359,7 +362,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="169">
+  <cellStyleXfs count="187">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -529,8 +532,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,8 +603,12 @@
     <xf numFmtId="165" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="165" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="169">
+  <cellStyles count="187">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -668,6 +693,15 @@
     <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -752,6 +786,15 @@
     <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2173,6 +2216,42 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>37.207</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>36.946</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>36.785</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>36.705</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36.303</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>36.162</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35.459</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34.877</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>34.394</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0.000">
+                  <c:v>33.29</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32.727</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32.225</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2333,6 +2412,42 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
+                <c:pt idx="0" formatCode="0.000">
+                  <c:v>396.38</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>395.918</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>395.556</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>395.054</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>394.512</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>393.929</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>391.599</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>389.329</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>387.199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>381.594</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>379.866</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>377.636</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -6692,8 +6807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AL1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AP14" sqref="AP14"/>
+    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AO15" sqref="AO15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6759,8 +6874,14 @@
         <f>AK3*1000</f>
         <v>0</v>
       </c>
+      <c r="AM3">
+        <v>37.207000000000001</v>
+      </c>
       <c r="AN3">
         <v>32.289499999999997</v>
+      </c>
+      <c r="AO3" s="1">
+        <v>396.38</v>
       </c>
       <c r="AP3">
         <v>367.33859999999999</v>
@@ -6798,8 +6919,14 @@
         <f t="shared" ref="AL4:AL14" si="0">AK4*1000</f>
         <v>-1</v>
       </c>
+      <c r="AM4">
+        <v>36.945999999999998</v>
+      </c>
       <c r="AN4">
         <v>32.082900000000002</v>
+      </c>
+      <c r="AO4">
+        <v>395.91800000000001</v>
       </c>
       <c r="AP4">
         <v>365.61770000000001</v>
@@ -6837,8 +6964,14 @@
         <f t="shared" si="0"/>
         <v>-2</v>
       </c>
+      <c r="AM5">
+        <v>36.784999999999997</v>
+      </c>
       <c r="AN5">
         <v>31.7956</v>
+      </c>
+      <c r="AO5">
+        <v>395.55599999999998</v>
       </c>
       <c r="AP5" s="50">
         <v>366.62700000000001</v>
@@ -6876,8 +7009,14 @@
         <f t="shared" si="0"/>
         <v>-3</v>
       </c>
+      <c r="AM6">
+        <v>36.704999999999998</v>
+      </c>
       <c r="AN6">
         <v>31.6356</v>
+      </c>
+      <c r="AO6">
+        <v>395.05399999999997</v>
       </c>
       <c r="AP6">
         <v>365.01010000000002</v>
@@ -6915,8 +7054,14 @@
         <f t="shared" si="0"/>
         <v>-4</v>
       </c>
+      <c r="AM7">
+        <v>36.302999999999997</v>
+      </c>
       <c r="AN7">
         <v>31.436399999999999</v>
+      </c>
+      <c r="AO7">
+        <v>394.512</v>
       </c>
       <c r="AP7">
         <v>364.84679999999997</v>
@@ -6954,8 +7099,14 @@
         <f t="shared" si="0"/>
         <v>-5</v>
       </c>
+      <c r="AM8">
+        <v>36.161999999999999</v>
+      </c>
       <c r="AN8">
         <v>31.231100000000001</v>
+      </c>
+      <c r="AO8">
+        <v>393.92899999999997</v>
       </c>
       <c r="AP8">
         <v>366.05430000000001</v>
@@ -6993,8 +7144,14 @@
         <f t="shared" si="0"/>
         <v>-10</v>
       </c>
+      <c r="AM9">
+        <v>35.459000000000003</v>
+      </c>
       <c r="AN9">
         <v>30.269600000000001</v>
+      </c>
+      <c r="AO9">
+        <v>391.59899999999999</v>
       </c>
       <c r="AP9" s="50">
         <v>362.15699999999998</v>
@@ -7038,8 +7195,14 @@
         <f t="shared" si="0"/>
         <v>-15</v>
       </c>
+      <c r="AM10">
+        <v>34.877000000000002</v>
+      </c>
       <c r="AN10">
         <v>29.197399999999998</v>
+      </c>
+      <c r="AO10">
+        <v>389.32900000000001</v>
       </c>
       <c r="AP10">
         <v>358.4554</v>
@@ -7083,8 +7246,14 @@
         <f t="shared" si="0"/>
         <v>-20</v>
       </c>
+      <c r="AM11">
+        <v>34.393999999999998</v>
+      </c>
       <c r="AN11">
         <v>28.388100000000001</v>
+      </c>
+      <c r="AO11">
+        <v>387.19900000000001</v>
       </c>
       <c r="AP11">
         <v>354.82670000000002</v>
@@ -7134,8 +7303,14 @@
         <f t="shared" si="0"/>
         <v>-30</v>
       </c>
+      <c r="AM12" s="1">
+        <v>33.29</v>
+      </c>
       <c r="AN12">
         <v>26.8889</v>
+      </c>
+      <c r="AO12">
+        <v>381.59399999999999</v>
       </c>
       <c r="AP12">
         <v>350.86130000000003</v>
@@ -7185,8 +7360,14 @@
         <f t="shared" si="0"/>
         <v>-35</v>
       </c>
+      <c r="AM13">
+        <v>32.726999999999997</v>
+      </c>
       <c r="AN13">
         <v>26.354700000000001</v>
+      </c>
+      <c r="AO13">
+        <v>379.86599999999999</v>
       </c>
       <c r="AP13">
         <v>346.38589999999999</v>
@@ -7236,8 +7417,14 @@
         <f t="shared" si="0"/>
         <v>-40</v>
       </c>
+      <c r="AM14">
+        <v>32.225000000000001</v>
+      </c>
       <c r="AN14">
         <v>25.5443</v>
+      </c>
+      <c r="AO14">
+        <v>377.63600000000002</v>
       </c>
       <c r="AP14">
         <v>345.25830000000002</v>
@@ -8039,10 +8226,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AG21"/>
+  <dimension ref="A3:AH21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="D7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8053,12 +8240,13 @@
     <col min="6" max="6" width="10.83203125" style="42"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.83203125" style="42"/>
-    <col min="12" max="12" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="33" width="10.83203125" style="42"/>
+    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="42"/>
+    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="34" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:33">
+    <row r="3" spans="1:34">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8086,14 +8274,17 @@
       <c r="J3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="41" t="s">
+      <c r="K3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:33" s="23" customFormat="1">
+    <row r="4" spans="1:34" s="23" customFormat="1">
       <c r="A4" s="42"/>
       <c r="B4" s="23">
         <v>245</v>
@@ -8122,8 +8313,10 @@
         <f>STDEV(G4:H4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="42"/>
-      <c r="M4" s="42"/>
+      <c r="K4" s="23">
+        <v>32.289499999999997</v>
+      </c>
+      <c r="L4" s="42"/>
       <c r="N4" s="42"/>
       <c r="O4" s="42"/>
       <c r="P4" s="42"/>
@@ -8144,8 +8337,9 @@
       <c r="AE4" s="42"/>
       <c r="AF4" s="42"/>
       <c r="AG4" s="42"/>
-    </row>
-    <row r="5" spans="1:33" s="23" customFormat="1">
+      <c r="AH4" s="42"/>
+    </row>
+    <row r="5" spans="1:34" s="23" customFormat="1">
       <c r="A5" s="42"/>
       <c r="B5" s="23">
         <v>245</v>
@@ -8171,8 +8365,10 @@
         <f>STDEV(G5:H5)</f>
         <v>2.4253762594697324E-2</v>
       </c>
-      <c r="K5" s="42"/>
-      <c r="M5" s="42"/>
+      <c r="K5" s="53">
+        <v>31.642700000000001</v>
+      </c>
+      <c r="L5" s="42"/>
       <c r="N5" s="42"/>
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
@@ -8193,8 +8389,9 @@
       <c r="AE5" s="42"/>
       <c r="AF5" s="42"/>
       <c r="AG5" s="42"/>
-    </row>
-    <row r="6" spans="1:33" s="23" customFormat="1">
+      <c r="AH5" s="42"/>
+    </row>
+    <row r="6" spans="1:34" s="23" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="23">
         <v>245</v>
@@ -8220,8 +8417,10 @@
         <f>STDEV(G6:H6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="42"/>
-      <c r="M6" s="42"/>
+      <c r="K6" s="53">
+        <v>30.452500000000001</v>
+      </c>
+      <c r="L6" s="42"/>
       <c r="N6" s="42"/>
       <c r="O6" s="42"/>
       <c r="P6" s="42"/>
@@ -8242,8 +8441,9 @@
       <c r="AE6" s="42"/>
       <c r="AF6" s="42"/>
       <c r="AG6" s="42"/>
-    </row>
-    <row r="7" spans="1:33" s="23" customFormat="1">
+      <c r="AH6" s="42"/>
+    </row>
+    <row r="7" spans="1:34" s="23" customFormat="1">
       <c r="A7" s="42"/>
       <c r="B7" s="23">
         <v>245</v>
@@ -8272,8 +8472,10 @@
         <f>STDEV(G7:H7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="42"/>
-      <c r="M7" s="42"/>
+      <c r="K7" s="53">
+        <v>29.8047</v>
+      </c>
+      <c r="L7" s="42"/>
       <c r="N7" s="42"/>
       <c r="O7" s="42"/>
       <c r="P7" s="42"/>
@@ -8294,8 +8496,9 @@
       <c r="AE7" s="42"/>
       <c r="AF7" s="42"/>
       <c r="AG7" s="42"/>
-    </row>
-    <row r="8" spans="1:33" s="23" customFormat="1">
+      <c r="AH7" s="42"/>
+    </row>
+    <row r="8" spans="1:34" s="23" customFormat="1">
       <c r="A8" s="42"/>
       <c r="C8" s="25" t="s">
         <v>34</v>
@@ -8319,11 +8522,14 @@
         <f>AVERAGE(I4:I7)</f>
         <v>30.224787500000001</v>
       </c>
-      <c r="K8" s="45">
-        <f>B4/I8</f>
-        <v>8.1059296115812227</v>
-      </c>
-      <c r="M8" s="42"/>
+      <c r="K8" s="26">
+        <f>AVERAGE(K4:K7)</f>
+        <v>31.047349999999998</v>
+      </c>
+      <c r="L8" s="45">
+        <f>B4/K8</f>
+        <v>7.8911726765730412</v>
+      </c>
       <c r="N8" s="42"/>
       <c r="O8" s="42"/>
       <c r="P8" s="42"/>
@@ -8344,8 +8550,9 @@
       <c r="AE8" s="42"/>
       <c r="AF8" s="42"/>
       <c r="AG8" s="42"/>
-    </row>
-    <row r="9" spans="1:33" s="23" customFormat="1">
+      <c r="AH8" s="42"/>
+    </row>
+    <row r="9" spans="1:34" s="23" customFormat="1">
       <c r="A9" s="42"/>
       <c r="C9" s="23" t="s">
         <v>10</v>
@@ -8366,8 +8573,11 @@
         <f>STDEV(I4:I7)</f>
         <v>0.84077721422403751</v>
       </c>
-      <c r="K9" s="42"/>
-      <c r="M9" s="42"/>
+      <c r="K9" s="27">
+        <f>STDEV(K4:K7)</f>
+        <v>1.124782021845417</v>
+      </c>
+      <c r="L9" s="42"/>
       <c r="N9" s="42"/>
       <c r="O9" s="42"/>
       <c r="P9" s="42"/>
@@ -8388,8 +8598,9 @@
       <c r="AE9" s="42"/>
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
-    </row>
-    <row r="10" spans="1:33" s="28" customFormat="1">
+      <c r="AH9" s="42"/>
+    </row>
+    <row r="10" spans="1:34" s="28" customFormat="1">
       <c r="A10" s="42"/>
       <c r="B10" s="28">
         <v>490</v>
@@ -8418,8 +8629,10 @@
         <f>STDEV(G10:H10)</f>
         <v>8.0751594411501426E-2</v>
       </c>
-      <c r="K10" s="42"/>
-      <c r="M10" s="42"/>
+      <c r="K10" s="51">
+        <v>59.0229</v>
+      </c>
+      <c r="L10" s="42"/>
       <c r="N10" s="42"/>
       <c r="O10" s="42"/>
       <c r="P10" s="42"/>
@@ -8440,8 +8653,9 @@
       <c r="AE10" s="42"/>
       <c r="AF10" s="42"/>
       <c r="AG10" s="42"/>
-    </row>
-    <row r="11" spans="1:33" s="28" customFormat="1">
+      <c r="AH10" s="42"/>
+    </row>
+    <row r="11" spans="1:34" s="28" customFormat="1">
       <c r="A11" s="42"/>
       <c r="B11" s="28">
         <v>490</v>
@@ -8454,8 +8668,8 @@
       <c r="H11" s="30"/>
       <c r="I11" s="31"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="42"/>
-      <c r="M11" s="42"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="42"/>
       <c r="N11" s="42"/>
       <c r="O11" s="42"/>
       <c r="P11" s="42"/>
@@ -8476,8 +8690,9 @@
       <c r="AE11" s="42"/>
       <c r="AF11" s="42"/>
       <c r="AG11" s="42"/>
-    </row>
-    <row r="12" spans="1:33" s="28" customFormat="1">
+      <c r="AH11" s="42"/>
+    </row>
+    <row r="12" spans="1:34" s="28" customFormat="1">
       <c r="A12" s="42"/>
       <c r="B12" s="28">
         <v>490</v>
@@ -8503,8 +8718,10 @@
         <f>STDEV(G12:H12)</f>
         <v>0.28687322112737945</v>
       </c>
-      <c r="K12" s="42"/>
-      <c r="M12" s="42"/>
+      <c r="K12" s="51">
+        <v>62.274500000000003</v>
+      </c>
+      <c r="L12" s="42"/>
       <c r="N12" s="42"/>
       <c r="O12" s="42"/>
       <c r="P12" s="42"/>
@@ -8525,8 +8742,9 @@
       <c r="AE12" s="42"/>
       <c r="AF12" s="42"/>
       <c r="AG12" s="42"/>
-    </row>
-    <row r="13" spans="1:33" s="28" customFormat="1">
+      <c r="AH12" s="42"/>
+    </row>
+    <row r="13" spans="1:34" s="28" customFormat="1">
       <c r="A13" s="42"/>
       <c r="B13" s="28">
         <v>490</v>
@@ -8552,8 +8770,10 @@
         <f>STDEV(G13:H13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="42"/>
-      <c r="M13" s="42"/>
+      <c r="K13" s="51">
+        <v>60.290599999999998</v>
+      </c>
+      <c r="L13" s="42"/>
       <c r="N13" s="42"/>
       <c r="O13" s="42"/>
       <c r="P13" s="42"/>
@@ -8574,8 +8794,9 @@
       <c r="AE13" s="42"/>
       <c r="AF13" s="42"/>
       <c r="AG13" s="42"/>
-    </row>
-    <row r="14" spans="1:33" s="28" customFormat="1">
+      <c r="AH13" s="42"/>
+    </row>
+    <row r="14" spans="1:34" s="28" customFormat="1">
       <c r="A14" s="42"/>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -8599,11 +8820,14 @@
         <f>AVERAGE(I10:I13)</f>
         <v>59.832249999999995</v>
       </c>
-      <c r="K14" s="45">
-        <f>B10/I14</f>
-        <v>8.1895633207843606</v>
-      </c>
-      <c r="M14" s="42"/>
+      <c r="K14" s="33">
+        <f>AVERAGE(K10:K13)</f>
+        <v>60.529333333333341</v>
+      </c>
+      <c r="L14" s="45">
+        <f>B10/K14</f>
+        <v>8.0952485847082389</v>
+      </c>
       <c r="N14" s="42"/>
       <c r="O14" s="42"/>
       <c r="P14" s="42"/>
@@ -8624,8 +8848,9 @@
       <c r="AE14" s="42"/>
       <c r="AF14" s="42"/>
       <c r="AG14" s="42"/>
-    </row>
-    <row r="15" spans="1:33" s="28" customFormat="1">
+      <c r="AH14" s="42"/>
+    </row>
+    <row r="15" spans="1:34" s="28" customFormat="1">
       <c r="A15" s="42"/>
       <c r="C15" s="28" t="s">
         <v>10</v>
@@ -8646,8 +8871,11 @@
         <f>STDEV(I10:I13)</f>
         <v>2.2585510249936784</v>
       </c>
-      <c r="K15" s="42"/>
-      <c r="M15" s="42"/>
+      <c r="K15" s="34">
+        <f>STDEV(K10:K13)</f>
+        <v>1.638893176303245</v>
+      </c>
+      <c r="L15" s="42"/>
       <c r="N15" s="42"/>
       <c r="O15" s="42"/>
       <c r="P15" s="42"/>
@@ -8668,8 +8896,9 @@
       <c r="AE15" s="42"/>
       <c r="AF15" s="42"/>
       <c r="AG15" s="42"/>
-    </row>
-    <row r="16" spans="1:33" s="7" customFormat="1">
+      <c r="AH15" s="42"/>
+    </row>
+    <row r="16" spans="1:34" s="7" customFormat="1">
       <c r="A16" s="42"/>
       <c r="B16" s="7">
         <v>2942</v>
@@ -8698,8 +8927,10 @@
         <f>STDEV(G16:H16)</f>
         <v>1.0053644214910467</v>
       </c>
-      <c r="K16" s="42"/>
-      <c r="M16" s="42"/>
+      <c r="K16" s="7">
+        <v>367.33859999999999</v>
+      </c>
+      <c r="L16" s="42"/>
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
       <c r="P16" s="42"/>
@@ -8720,8 +8951,9 @@
       <c r="AE16" s="42"/>
       <c r="AF16" s="42"/>
       <c r="AG16" s="42"/>
-    </row>
-    <row r="17" spans="1:33" s="7" customFormat="1">
+      <c r="AH16" s="42"/>
+    </row>
+    <row r="17" spans="1:34" s="7" customFormat="1">
       <c r="A17" s="42"/>
       <c r="B17" s="7">
         <v>2942</v>
@@ -8744,8 +8976,10 @@
         <f>STDEV(G17:H17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="42"/>
-      <c r="M17" s="42"/>
+      <c r="K17" s="54">
+        <v>347.58150000000001</v>
+      </c>
+      <c r="L17" s="42"/>
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
       <c r="P17" s="42"/>
@@ -8766,8 +9000,9 @@
       <c r="AE17" s="42"/>
       <c r="AF17" s="42"/>
       <c r="AG17" s="42"/>
-    </row>
-    <row r="18" spans="1:33" s="7" customFormat="1">
+      <c r="AH17" s="42"/>
+    </row>
+    <row r="18" spans="1:34" s="7" customFormat="1">
       <c r="A18" s="42"/>
       <c r="B18" s="7">
         <v>2942</v>
@@ -8796,8 +9031,10 @@
         <f>STDEV(G18:H18)</f>
         <v>2.0977029770679918</v>
       </c>
-      <c r="K18" s="42"/>
-      <c r="M18" s="42"/>
+      <c r="K18" s="54">
+        <v>360.84500000000003</v>
+      </c>
+      <c r="L18" s="42"/>
       <c r="N18" s="42"/>
       <c r="O18" s="42"/>
       <c r="P18" s="42"/>
@@ -8818,8 +9055,9 @@
       <c r="AE18" s="42"/>
       <c r="AF18" s="42"/>
       <c r="AG18" s="42"/>
-    </row>
-    <row r="19" spans="1:33" s="7" customFormat="1">
+      <c r="AH18" s="42"/>
+    </row>
+    <row r="19" spans="1:34" s="7" customFormat="1">
       <c r="A19" s="42"/>
       <c r="B19" s="7">
         <v>2942</v>
@@ -8832,8 +9070,10 @@
       <c r="H19" s="38"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="42"/>
-      <c r="M19" s="42"/>
+      <c r="K19" s="35">
+        <v>368.45240000000001</v>
+      </c>
+      <c r="L19" s="42"/>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
       <c r="P19" s="42"/>
@@ -8854,8 +9094,9 @@
       <c r="AE19" s="42"/>
       <c r="AF19" s="42"/>
       <c r="AG19" s="42"/>
-    </row>
-    <row r="20" spans="1:33" s="7" customFormat="1">
+      <c r="AH19" s="42"/>
+    </row>
+    <row r="20" spans="1:34" s="7" customFormat="1">
       <c r="A20" s="42"/>
       <c r="C20" s="39" t="s">
         <v>34</v>
@@ -8879,11 +9120,14 @@
         <f>AVERAGE(I16:I19)</f>
         <v>355.36976666666669</v>
       </c>
-      <c r="K20" s="45">
-        <f>B16/I20</f>
-        <v>8.2787008799191604</v>
-      </c>
-      <c r="M20" s="42"/>
+      <c r="K20" s="40">
+        <f>AVERAGE(K16:K19)</f>
+        <v>361.05437500000005</v>
+      </c>
+      <c r="L20" s="45">
+        <f>B16/K20</f>
+        <v>8.1483571553453675</v>
+      </c>
       <c r="N20" s="42"/>
       <c r="O20" s="42"/>
       <c r="P20" s="42"/>
@@ -8904,8 +9148,9 @@
       <c r="AE20" s="42"/>
       <c r="AF20" s="42"/>
       <c r="AG20" s="42"/>
-    </row>
-    <row r="21" spans="1:33" s="7" customFormat="1">
+      <c r="AH20" s="42"/>
+    </row>
+    <row r="21" spans="1:34" s="7" customFormat="1">
       <c r="A21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -8926,8 +9171,11 @@
         <f>STDEV(I16:I19)</f>
         <v>9.5239770024571886</v>
       </c>
-      <c r="K21" s="42"/>
-      <c r="M21" s="42"/>
+      <c r="K21" s="19">
+        <f>STDEV(K16:K19)</f>
+        <v>9.5879169862819147</v>
+      </c>
+      <c r="L21" s="42"/>
       <c r="N21" s="42"/>
       <c r="O21" s="42"/>
       <c r="P21" s="42"/>
@@ -8948,6 +9196,7 @@
       <c r="AE21" s="42"/>
       <c r="AF21" s="42"/>
       <c r="AG21" s="42"/>
+      <c r="AH21" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
   <si>
     <t>Load</t>
   </si>
@@ -195,18 +195,6 @@
     <t>Summary</t>
   </si>
   <si>
-    <t>Jackie Avg</t>
-  </si>
-  <si>
-    <t>Jackie STDEV</t>
-  </si>
-  <si>
-    <t>Nicole Avg</t>
-  </si>
-  <si>
-    <t>Nicole STDEV</t>
-  </si>
-  <si>
     <t>Laser Profiler 245.2 mN</t>
   </si>
   <si>
@@ -222,20 +210,45 @@
     <t>in nm</t>
   </si>
   <si>
-    <t>AFM: 107</t>
+    <t>Redone AFM Area</t>
   </si>
   <si>
-    <t>Redone AFM Area</t>
+    <t>Calibration: µm per pixel</t>
+  </si>
+  <si>
+    <t>AFM</t>
+  </si>
+  <si>
+    <t>Laser Profiler</t>
+  </si>
+  <si>
+    <t>Metallization</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>User 1</t>
+  </si>
+  <si>
+    <t>User 2</t>
+  </si>
+  <si>
+    <t>User 1 Error</t>
+  </si>
+  <si>
+    <t>User 2 Error</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -362,7 +375,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="187">
+  <cellStyleXfs count="277">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -550,8 +563,98 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -607,8 +710,10 @@
     <xf numFmtId="166" fontId="6" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="187">
+  <cellStyles count="277">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -702,6 +807,51 @@
     <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -795,6 +945,51 @@
     <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -832,7 +1027,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1325,11 +1519,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088583160"/>
-        <c:axId val="2127611704"/>
+        <c:axId val="2116101896"/>
+        <c:axId val="2116099480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088583160"/>
+        <c:axId val="2116101896"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1353,19 +1547,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2127611704"/>
+        <c:crossAx val="2116099480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2127611704"/>
+        <c:axId val="2116099480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1388,14 +1581,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088583160"/>
+        <c:crossAx val="2116101896"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1410,7 +1602,6 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1921,11 +2112,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2088507576"/>
-        <c:axId val="-2088520472"/>
+        <c:axId val="2116059416"/>
+        <c:axId val="2117963624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2088507576"/>
+        <c:axId val="2116059416"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1949,19 +2140,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088520472"/>
+        <c:crossAx val="2117963624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2088520472"/>
+        <c:axId val="2117963624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1983,14 +2173,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2088507576"/>
+        <c:crossAx val="2116059416"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2052,10 +2241,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0657268346185308"/>
+          <c:x val="0.15600221695589"/>
           <c:y val="0.0601851851851852"/>
-          <c:w val="0.641700692891841"/>
-          <c:h val="0.715987897346165"/>
+          <c:w val="0.782733544836022"/>
+          <c:h val="0.785350513427624"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -2461,11 +2650,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2097957048"/>
-        <c:axId val="-2067991432"/>
+        <c:axId val="2118453144"/>
+        <c:axId val="2118458456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2097957048"/>
+        <c:axId val="2118453144"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2482,13 +2671,8 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Threshold</a:t>
+                  <a:t>Threshold Change (nm)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Change (nm)</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2499,12 +2683,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2067991432"/>
+        <c:crossAx val="2118458456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2067991432"/>
+        <c:axId val="2118458456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2540,8 +2724,8 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-2097957048"/>
+        <c:tickLblPos val="high"/>
+        <c:crossAx val="2118453144"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2552,18 +2736,28 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75090577907699"/>
-          <c:y val="0.202168270632838"/>
-          <c:w val="0.227355095139701"/>
-          <c:h val="0.553996792067658"/>
+          <c:x val="0.385113332314043"/>
+          <c:y val="0.360670152342075"/>
+          <c:w val="0.495954628851005"/>
+          <c:h val="0.326532027721222"/>
         </c:manualLayout>
       </c:layout>
-      <c:overlay val="0"/>
+      <c:overlay val="1"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
@@ -2573,6 +2767,417 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AFM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.285899198044104</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.219193303442771</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.216400013584305</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.285899198044104</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.219193303442771</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.216400013584305</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.891172676573041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.095248584708238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.148357155345368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Laser Profiler</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.513469312278175</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.404656490245609</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.142506475522161</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.513469312278175</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.404656490245609</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.142506475522161</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.23150683770104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.460317390559146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.62883710799135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Metallization</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.137525251350069</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.478731655691993</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.194620933482092</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.137525251350069</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.478731655691993</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.194620933482092</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.012452111392085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.927572232311186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.92236264134766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2140513096"/>
+        <c:axId val="2115869016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2140513096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load (mN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2115869016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2115869016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="8.5"/>
+          <c:min val="5.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hardness (GPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2140513096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.728890601440777"/>
+          <c:y val="0.438107015719321"/>
+          <c:w val="0.192229330708661"/>
+          <c:h val="0.245325472414937"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2811,11 +3416,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2125310312"/>
-        <c:axId val="2125317272"/>
+        <c:axId val="2118488200"/>
+        <c:axId val="2118493576"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2125310312"/>
+        <c:axId val="2118488200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -2845,12 +3450,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125317272"/>
+        <c:crossAx val="2118493576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2125317272"/>
+        <c:axId val="2118493576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="550.0"/>
@@ -2887,7 +3492,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2125310312"/>
+        <c:crossAx val="2118488200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2995,15 +3600,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>42</xdr:col>
-      <xdr:colOff>177800</xdr:colOff>
+      <xdr:colOff>406400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>84667</xdr:rowOff>
+      <xdr:rowOff>25400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>47</xdr:col>
-      <xdr:colOff>702734</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>48</xdr:col>
+      <xdr:colOff>660400</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>110067</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3026,6 +3631,41 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>160866</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>25400</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6808,7 +7448,7 @@
   <dimension ref="B2:AP18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AO15" sqref="AO15"/>
+      <selection activeCell="AP3" sqref="AP3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -6821,19 +7461,19 @@
   <sheetData>
     <row r="2" spans="2:42">
       <c r="AL2" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="AM2" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AN2" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AO2" s="2" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="AP2" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="3" spans="2:42">
@@ -7503,8 +8143,21 @@
         <f>(X15-X4)/X4*100</f>
         <v>-2.9304181954912694</v>
       </c>
-      <c r="AK16" t="s">
-        <v>65</v>
+      <c r="AM16" s="3">
+        <f>(AM14-AM3)/AM3*100</f>
+        <v>-13.38995350337302</v>
+      </c>
+      <c r="AN16" s="3">
+        <f t="shared" ref="AN16:AP16" si="1">(AN14-AN3)/AN3*100</f>
+        <v>-20.889762926028578</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" si="1"/>
+        <v>-4.7287956001816367</v>
+      </c>
+      <c r="AP16" s="3">
+        <f t="shared" si="1"/>
+        <v>-6.0108847804178396</v>
       </c>
     </row>
     <row r="17" spans="2:24">
@@ -8226,10 +8879,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AH21"/>
+  <dimension ref="A3:AO21"/>
   <sheetViews>
-    <sheetView topLeftCell="D7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12:Y15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8237,16 +8890,16 @@
     <col min="1" max="1" width="10.83203125" style="42"/>
     <col min="4" max="4" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="42"/>
-    <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="42"/>
-    <col min="13" max="13" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="34" width="10.83203125" style="42"/>
+    <col min="6" max="7" width="10.83203125" style="42"/>
+    <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="10.83203125" style="42"/>
+    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="41" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:34">
+    <row r="3" spans="1:41">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -8262,30 +8915,43 @@
       <c r="F3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="41"/>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="J3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="L3" s="41" t="s">
+      <c r="L3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="N3" s="41"/>
+      <c r="O3" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" s="23" customFormat="1">
-      <c r="A4" s="42"/>
+      <c r="P3" s="41" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="41"/>
+      <c r="S3" t="s">
+        <v>62</v>
+      </c>
+      <c r="T3"/>
+      <c r="U3"/>
+    </row>
+    <row r="4" spans="1:41" s="23" customFormat="1">
+      <c r="A4" s="42">
+        <v>0.1</v>
+      </c>
       <c r="B4" s="23">
         <v>245</v>
       </c>
@@ -8299,32 +8965,39 @@
         <v>38.170999999999999</v>
       </c>
       <c r="F4" s="42"/>
-      <c r="G4" s="23">
-        <v>31.445499999999999</v>
-      </c>
+      <c r="G4" s="42"/>
       <c r="H4" s="23">
         <v>31.445499999999999</v>
       </c>
-      <c r="I4" s="24">
-        <f>AVERAGE(G4:H4)</f>
+      <c r="I4" s="23">
         <v>31.445499999999999</v>
       </c>
       <c r="J4" s="24">
-        <f>STDEV(G4:H4)</f>
+        <f>AVERAGE(H4:I4)</f>
+        <v>31.445499999999999</v>
+      </c>
+      <c r="K4" s="24">
+        <f>STDEV(H4:I4)</f>
         <v>0</v>
       </c>
-      <c r="K4" s="23">
+      <c r="L4" s="23">
         <v>32.289499999999997</v>
       </c>
-      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
       <c r="N4" s="42"/>
-      <c r="O4" s="42"/>
+      <c r="O4" s="23">
+        <v>35.9251</v>
+      </c>
       <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
-      <c r="S4" s="42"/>
-      <c r="T4" s="42"/>
-      <c r="U4" s="42"/>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>0.18703</v>
+      </c>
+      <c r="U4"/>
       <c r="V4" s="42"/>
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
@@ -8338,8 +9011,15 @@
       <c r="AF4" s="42"/>
       <c r="AG4" s="42"/>
       <c r="AH4" s="42"/>
-    </row>
-    <row r="5" spans="1:34" s="23" customFormat="1">
+      <c r="AI4" s="42"/>
+      <c r="AJ4" s="42"/>
+      <c r="AK4" s="42"/>
+      <c r="AL4" s="42"/>
+      <c r="AM4" s="42"/>
+      <c r="AN4" s="42"/>
+      <c r="AO4" s="42"/>
+    </row>
+    <row r="5" spans="1:41" s="23" customFormat="1">
       <c r="A5" s="42"/>
       <c r="B5" s="23">
         <v>245</v>
@@ -8351,32 +9031,39 @@
         <v>34.234000000000002</v>
       </c>
       <c r="F5" s="42"/>
-      <c r="G5" s="23">
+      <c r="G5" s="42"/>
+      <c r="H5" s="23">
         <v>30.0503</v>
       </c>
-      <c r="H5" s="23">
+      <c r="I5" s="23">
         <v>30.084599999999998</v>
       </c>
-      <c r="I5" s="24">
-        <f>AVERAGE(G5:H5)</f>
+      <c r="J5" s="24">
+        <f>AVERAGE(H5:I5)</f>
         <v>30.067450000000001</v>
       </c>
-      <c r="J5" s="24">
-        <f>STDEV(G5:H5)</f>
+      <c r="K5" s="24">
+        <f>STDEV(H5:I5)</f>
         <v>2.4253762594697324E-2</v>
       </c>
-      <c r="K5" s="53">
+      <c r="L5" s="53">
         <v>31.642700000000001</v>
       </c>
-      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
       <c r="N5" s="42"/>
-      <c r="O5" s="42"/>
+      <c r="O5" s="53">
+        <v>34.667000000000002</v>
+      </c>
       <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
-      <c r="S5" s="42"/>
-      <c r="T5" s="42"/>
-      <c r="U5" s="42"/>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <v>0.18687999999999999</v>
+      </c>
+      <c r="U5"/>
       <c r="V5" s="42"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
@@ -8390,8 +9077,15 @@
       <c r="AF5" s="42"/>
       <c r="AG5" s="42"/>
       <c r="AH5" s="42"/>
-    </row>
-    <row r="6" spans="1:34" s="23" customFormat="1">
+      <c r="AI5" s="42"/>
+      <c r="AJ5" s="42"/>
+      <c r="AK5" s="42"/>
+      <c r="AL5" s="42"/>
+      <c r="AM5" s="42"/>
+      <c r="AN5" s="42"/>
+      <c r="AO5" s="42"/>
+    </row>
+    <row r="6" spans="1:41" s="23" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="23">
         <v>245</v>
@@ -8403,32 +9097,39 @@
         <v>42.972999999999999</v>
       </c>
       <c r="F6" s="42"/>
-      <c r="G6" s="23">
-        <v>29.550899999999999</v>
-      </c>
+      <c r="G6" s="42"/>
       <c r="H6" s="23">
         <v>29.550899999999999</v>
       </c>
-      <c r="I6" s="24">
-        <f>AVERAGE(G6:H6)</f>
+      <c r="I6" s="23">
         <v>29.550899999999999</v>
       </c>
       <c r="J6" s="24">
-        <f>STDEV(G6:H6)</f>
+        <f>AVERAGE(H6:I6)</f>
+        <v>29.550899999999999</v>
+      </c>
+      <c r="K6" s="24">
+        <f>STDEV(H6:I6)</f>
         <v>0</v>
       </c>
-      <c r="K6" s="53">
+      <c r="L6" s="53">
         <v>30.452500000000001</v>
       </c>
-      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
       <c r="N6" s="42"/>
-      <c r="O6" s="42"/>
+      <c r="O6" s="23">
+        <v>34.352499999999999</v>
+      </c>
       <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
-      <c r="S6" s="42"/>
-      <c r="T6" s="42"/>
-      <c r="U6" s="42"/>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6">
+        <v>0.18692</v>
+      </c>
+      <c r="U6"/>
       <c r="V6" s="42"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
@@ -8442,8 +9143,15 @@
       <c r="AF6" s="42"/>
       <c r="AG6" s="42"/>
       <c r="AH6" s="42"/>
-    </row>
-    <row r="7" spans="1:34" s="23" customFormat="1">
+      <c r="AI6" s="42"/>
+      <c r="AJ6" s="42"/>
+      <c r="AK6" s="42"/>
+      <c r="AL6" s="42"/>
+      <c r="AM6" s="42"/>
+      <c r="AN6" s="42"/>
+      <c r="AO6" s="42"/>
+    </row>
+    <row r="7" spans="1:41" s="23" customFormat="1">
       <c r="A7" s="42"/>
       <c r="B7" s="23">
         <v>245</v>
@@ -8458,32 +9166,40 @@
         <v>36.805</v>
       </c>
       <c r="F7" s="42"/>
-      <c r="G7" s="23">
-        <v>29.8353</v>
-      </c>
+      <c r="G7" s="42"/>
       <c r="H7" s="23">
         <v>29.8353</v>
       </c>
-      <c r="I7" s="24">
-        <f>AVERAGE(G7:H7)</f>
+      <c r="I7" s="23">
         <v>29.8353</v>
       </c>
       <c r="J7" s="24">
-        <f>STDEV(G7:H7)</f>
+        <f>AVERAGE(H7:I7)</f>
+        <v>29.8353</v>
+      </c>
+      <c r="K7" s="24">
+        <f>STDEV(H7:I7)</f>
         <v>0</v>
       </c>
-      <c r="K7" s="53">
+      <c r="L7" s="53">
         <v>29.8047</v>
       </c>
-      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
       <c r="N7" s="42"/>
-      <c r="O7" s="42"/>
+      <c r="O7" s="23">
+        <v>34.806800000000003</v>
+      </c>
       <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-      <c r="S7" s="42"/>
-      <c r="T7" s="42"/>
-      <c r="U7" s="42"/>
+      <c r="S7" t="s">
+        <v>34</v>
+      </c>
+      <c r="T7" s="55">
+        <f>AVERAGE(T4:T6)</f>
+        <v>0.18694333333333332</v>
+      </c>
+      <c r="U7" s="55"/>
       <c r="V7" s="42"/>
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
@@ -8497,8 +9213,15 @@
       <c r="AF7" s="42"/>
       <c r="AG7" s="42"/>
       <c r="AH7" s="42"/>
-    </row>
-    <row r="8" spans="1:34" s="23" customFormat="1">
+      <c r="AI7" s="42"/>
+      <c r="AJ7" s="42"/>
+      <c r="AK7" s="42"/>
+      <c r="AL7" s="42"/>
+      <c r="AM7" s="42"/>
+      <c r="AN7" s="42"/>
+      <c r="AO7" s="42"/>
+    </row>
+    <row r="8" spans="1:41" s="23" customFormat="1">
       <c r="A8" s="42"/>
       <c r="C8" s="25" t="s">
         <v>34</v>
@@ -8511,33 +9234,45 @@
         <f>AVERAGE(E4:E7)</f>
         <v>39.31633333333334</v>
       </c>
-      <c r="F8" s="45">
+      <c r="F8" s="43">
         <f>B4/E8</f>
         <v>6.2315068377010396</v>
       </c>
-      <c r="H8" s="25" t="s">
+      <c r="G8" s="43"/>
+      <c r="I8" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="26">
-        <f>AVERAGE(I4:I7)</f>
+      <c r="J8" s="26">
+        <f>AVERAGE(J4:J7)</f>
         <v>30.224787500000001</v>
       </c>
-      <c r="K8" s="26">
-        <f>AVERAGE(K4:K7)</f>
+      <c r="L8" s="26">
+        <f>AVERAGE(L4:L7)</f>
         <v>31.047349999999998</v>
       </c>
-      <c r="L8" s="45">
-        <f>B4/K8</f>
+      <c r="M8" s="43">
+        <f>B4/L8</f>
         <v>7.8911726765730412</v>
       </c>
-      <c r="N8" s="42"/>
-      <c r="O8" s="42"/>
-      <c r="P8" s="42"/>
-      <c r="Q8" s="42"/>
+      <c r="N8" s="43"/>
+      <c r="O8" s="26">
+        <f>AVERAGE(O4:O7)</f>
+        <v>34.937850000000005</v>
+      </c>
+      <c r="P8" s="45">
+        <f>B4/O8</f>
+        <v>7.0124521113920855</v>
+      </c>
+      <c r="Q8" s="45"/>
       <c r="R8" s="42"/>
-      <c r="S8" s="42"/>
-      <c r="T8" s="42"/>
-      <c r="U8" s="42"/>
+      <c r="S8" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="55">
+        <f>STDEV(T4:T6)</f>
+        <v>7.7674534651544719E-5</v>
+      </c>
+      <c r="U8" s="55"/>
       <c r="V8" s="42"/>
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
@@ -8551,8 +9286,15 @@
       <c r="AF8" s="42"/>
       <c r="AG8" s="42"/>
       <c r="AH8" s="42"/>
-    </row>
-    <row r="9" spans="1:34" s="23" customFormat="1">
+      <c r="AI8" s="42"/>
+      <c r="AJ8" s="42"/>
+      <c r="AK8" s="42"/>
+      <c r="AL8" s="42"/>
+      <c r="AM8" s="42"/>
+      <c r="AN8" s="42"/>
+      <c r="AO8" s="42"/>
+    </row>
+    <row r="9" spans="1:41" s="23" customFormat="1">
       <c r="A9" s="42"/>
       <c r="C9" s="23" t="s">
         <v>10</v>
@@ -8565,23 +9307,45 @@
         <f>STDEV(E4:E7)</f>
         <v>3.239582894962457</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="H9" s="23" t="s">
+      <c r="F9" s="43">
+        <f>F8*SQRT((A4/B4)^2+(E9/E8)^2)</f>
+        <v>0.51346931227817483</v>
+      </c>
+      <c r="G9" s="43">
+        <f>F9/F8*100</f>
+        <v>8.2398900563127135</v>
+      </c>
+      <c r="I9" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I9" s="27">
-        <f>STDEV(I4:I7)</f>
+      <c r="J9" s="27">
+        <f>STDEV(J4:J7)</f>
         <v>0.84077721422403751</v>
       </c>
-      <c r="K9" s="27">
-        <f>STDEV(K4:K7)</f>
+      <c r="L9" s="27">
+        <f>STDEV(L4:L7)</f>
         <v>1.124782021845417</v>
       </c>
-      <c r="L9" s="42"/>
-      <c r="N9" s="42"/>
-      <c r="O9" s="42"/>
-      <c r="P9" s="42"/>
-      <c r="Q9" s="42"/>
+      <c r="M9" s="43">
+        <f>M8*SQRT((A4/B4)^2+(L9/L8)^2)</f>
+        <v>0.28589919804410424</v>
+      </c>
+      <c r="N9" s="43">
+        <f>M9/M8*100</f>
+        <v>3.6230254964875996</v>
+      </c>
+      <c r="O9" s="27">
+        <f>STDEV(O4:O7)</f>
+        <v>0.68503795758580666</v>
+      </c>
+      <c r="P9" s="45">
+        <f>P8*SQRT((A4/B4)^2+(O9/O8)^2)</f>
+        <v>0.13752525135006943</v>
+      </c>
+      <c r="Q9" s="43">
+        <f>P9/P8*100</f>
+        <v>1.9611577970942955</v>
+      </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
@@ -8599,9 +9363,18 @@
       <c r="AF9" s="42"/>
       <c r="AG9" s="42"/>
       <c r="AH9" s="42"/>
-    </row>
-    <row r="10" spans="1:34" s="28" customFormat="1">
-      <c r="A10" s="42"/>
+      <c r="AI9" s="42"/>
+      <c r="AJ9" s="42"/>
+      <c r="AK9" s="42"/>
+      <c r="AL9" s="42"/>
+      <c r="AM9" s="42"/>
+      <c r="AN9" s="42"/>
+      <c r="AO9" s="42"/>
+    </row>
+    <row r="10" spans="1:41" s="28" customFormat="1">
+      <c r="A10" s="42">
+        <v>0.1</v>
+      </c>
       <c r="B10" s="28">
         <v>490</v>
       </c>
@@ -8615,26 +9388,29 @@
         <v>76.784999999999997</v>
       </c>
       <c r="F10" s="45"/>
-      <c r="G10" s="28">
+      <c r="G10" s="45"/>
+      <c r="H10" s="28">
         <v>57.530500000000004</v>
       </c>
-      <c r="H10" s="28">
+      <c r="I10" s="28">
         <v>57.6447</v>
       </c>
-      <c r="I10" s="29">
-        <f>AVERAGE(G10:H10)</f>
+      <c r="J10" s="29">
+        <f>AVERAGE(H10:I10)</f>
         <v>57.587600000000002</v>
       </c>
-      <c r="J10" s="29">
-        <f>STDEV(G10:H10)</f>
+      <c r="K10" s="29">
+        <f>STDEV(H10:I10)</f>
         <v>8.0751594411501426E-2</v>
       </c>
-      <c r="K10" s="51">
+      <c r="L10" s="51">
         <v>59.0229</v>
       </c>
-      <c r="L10" s="42"/>
+      <c r="M10" s="42"/>
       <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="O10" s="28">
+        <v>67.726399999999998</v>
+      </c>
       <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
@@ -8654,8 +9430,15 @@
       <c r="AF10" s="42"/>
       <c r="AG10" s="42"/>
       <c r="AH10" s="42"/>
-    </row>
-    <row r="11" spans="1:34" s="28" customFormat="1">
+      <c r="AI10" s="42"/>
+      <c r="AJ10" s="42"/>
+      <c r="AK10" s="42"/>
+      <c r="AL10" s="42"/>
+      <c r="AM10" s="42"/>
+      <c r="AN10" s="42"/>
+      <c r="AO10" s="42"/>
+    </row>
+    <row r="11" spans="1:41" s="28" customFormat="1">
       <c r="A11" s="42"/>
       <c r="B11" s="28">
         <v>490</v>
@@ -8664,24 +9447,41 @@
         <v>2</v>
       </c>
       <c r="F11" s="45"/>
-      <c r="G11" s="30"/>
+      <c r="G11" s="45"/>
       <c r="H11" s="30"/>
-      <c r="I11" s="31"/>
+      <c r="I11" s="30"/>
       <c r="J11" s="31"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="42"/>
+      <c r="K11" s="31"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="42"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="O11" s="28">
+        <v>77.476500000000001</v>
+      </c>
       <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-      <c r="S11" s="42"/>
-      <c r="T11" s="42"/>
-      <c r="U11" s="42"/>
-      <c r="V11" s="42"/>
-      <c r="W11" s="42"/>
-      <c r="X11" s="42"/>
-      <c r="Y11" s="42"/>
+      <c r="S11" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="T11" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="U11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="V11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="W11" s="42" t="s">
+        <v>66</v>
+      </c>
+      <c r="X11" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y11" s="42" t="s">
+        <v>66</v>
+      </c>
       <c r="Z11" s="42"/>
       <c r="AA11" s="42"/>
       <c r="AB11" s="42"/>
@@ -8691,8 +9491,15 @@
       <c r="AF11" s="42"/>
       <c r="AG11" s="42"/>
       <c r="AH11" s="42"/>
-    </row>
-    <row r="12" spans="1:34" s="28" customFormat="1">
+      <c r="AI11" s="42"/>
+      <c r="AJ11" s="42"/>
+      <c r="AK11" s="42"/>
+      <c r="AL11" s="42"/>
+      <c r="AM11" s="42"/>
+      <c r="AN11" s="42"/>
+      <c r="AO11" s="42"/>
+    </row>
+    <row r="12" spans="1:41" s="28" customFormat="1">
       <c r="A12" s="42"/>
       <c r="B12" s="28">
         <v>490</v>
@@ -8704,36 +9511,59 @@
         <v>70.697999999999993</v>
       </c>
       <c r="F12" s="45"/>
-      <c r="G12" s="28">
+      <c r="G12" s="45"/>
+      <c r="H12" s="28">
         <v>62.307299999999998</v>
       </c>
-      <c r="H12" s="28">
+      <c r="I12" s="28">
         <v>61.901600000000002</v>
       </c>
-      <c r="I12" s="29">
-        <f>AVERAGE(G12:H12)</f>
+      <c r="J12" s="29">
+        <f>AVERAGE(H12:I12)</f>
         <v>62.10445</v>
       </c>
-      <c r="J12" s="29">
-        <f>STDEV(G12:H12)</f>
+      <c r="K12" s="29">
+        <f>STDEV(H12:I12)</f>
         <v>0.28687322112737945</v>
       </c>
-      <c r="K12" s="51">
+      <c r="L12" s="51">
         <v>62.274500000000003</v>
       </c>
-      <c r="L12" s="42"/>
+      <c r="M12" s="42"/>
       <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="O12" s="28">
+        <v>66.608199999999997</v>
+      </c>
       <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="42"/>
-      <c r="T12" s="42"/>
-      <c r="U12" s="42"/>
-      <c r="V12" s="42"/>
-      <c r="W12" s="42"/>
-      <c r="X12" s="42"/>
-      <c r="Y12" s="42"/>
+      <c r="S12" s="42">
+        <v>245.2</v>
+      </c>
+      <c r="T12" s="56">
+        <f>M8</f>
+        <v>7.8911726765730412</v>
+      </c>
+      <c r="U12" s="56">
+        <f>M9</f>
+        <v>0.28589919804410424</v>
+      </c>
+      <c r="V12" s="56">
+        <f>F8</f>
+        <v>6.2315068377010396</v>
+      </c>
+      <c r="W12" s="56">
+        <f>F9</f>
+        <v>0.51346931227817483</v>
+      </c>
+      <c r="X12" s="56">
+        <f>P8</f>
+        <v>7.0124521113920855</v>
+      </c>
+      <c r="Y12" s="56">
+        <f>P9</f>
+        <v>0.13752525135006943</v>
+      </c>
       <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
@@ -8743,8 +9573,15 @@
       <c r="AF12" s="42"/>
       <c r="AG12" s="42"/>
       <c r="AH12" s="42"/>
-    </row>
-    <row r="13" spans="1:34" s="28" customFormat="1">
+      <c r="AI12" s="42"/>
+      <c r="AJ12" s="42"/>
+      <c r="AK12" s="42"/>
+      <c r="AL12" s="42"/>
+      <c r="AM12" s="42"/>
+      <c r="AN12" s="42"/>
+      <c r="AO12" s="42"/>
+    </row>
+    <row r="13" spans="1:41" s="28" customFormat="1">
       <c r="A13" s="42"/>
       <c r="B13" s="28">
         <v>490</v>
@@ -8756,36 +9593,59 @@
         <v>80.06</v>
       </c>
       <c r="F13" s="45"/>
-      <c r="G13" s="28">
-        <v>59.804699999999997</v>
-      </c>
+      <c r="G13" s="45"/>
       <c r="H13" s="28">
         <v>59.804699999999997</v>
       </c>
-      <c r="I13" s="29">
-        <f>AVERAGE(G13:H13)</f>
+      <c r="I13" s="28">
         <v>59.804699999999997</v>
       </c>
       <c r="J13" s="29">
-        <f>STDEV(G13:H13)</f>
+        <f>AVERAGE(H13:I13)</f>
+        <v>59.804699999999997</v>
+      </c>
+      <c r="K13" s="29">
+        <f>STDEV(H13:I13)</f>
         <v>0</v>
       </c>
-      <c r="K13" s="51">
+      <c r="L13" s="51">
         <v>60.290599999999998</v>
       </c>
-      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
       <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="O13" s="28">
+        <v>71.116299999999995</v>
+      </c>
       <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="42"/>
-      <c r="T13" s="42"/>
-      <c r="U13" s="42"/>
-      <c r="V13" s="42"/>
-      <c r="W13" s="42"/>
-      <c r="X13" s="42"/>
-      <c r="Y13" s="42"/>
+      <c r="S13" s="42">
+        <v>490.3</v>
+      </c>
+      <c r="T13" s="56">
+        <f>M14</f>
+        <v>8.0952485847082389</v>
+      </c>
+      <c r="U13" s="56">
+        <f>M15</f>
+        <v>0.2191933034427706</v>
+      </c>
+      <c r="V13" s="56">
+        <f>F14</f>
+        <v>6.4603173905591467</v>
+      </c>
+      <c r="W13" s="56">
+        <f>F15</f>
+        <v>0.40465649024560896</v>
+      </c>
+      <c r="X13" s="56">
+        <f>P14</f>
+        <v>6.9275722323111859</v>
+      </c>
+      <c r="Y13" s="56">
+        <f>P15</f>
+        <v>0.47873165569199316</v>
+      </c>
       <c r="Z13" s="42"/>
       <c r="AA13" s="42"/>
       <c r="AB13" s="42"/>
@@ -8795,8 +9655,15 @@
       <c r="AF13" s="42"/>
       <c r="AG13" s="42"/>
       <c r="AH13" s="42"/>
-    </row>
-    <row r="14" spans="1:34" s="28" customFormat="1">
+      <c r="AI13" s="42"/>
+      <c r="AJ13" s="42"/>
+      <c r="AK13" s="42"/>
+      <c r="AL13" s="42"/>
+      <c r="AM13" s="42"/>
+      <c r="AN13" s="42"/>
+      <c r="AO13" s="42"/>
+    </row>
+    <row r="14" spans="1:41" s="28" customFormat="1">
       <c r="A14" s="42"/>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -8809,37 +9676,64 @@
         <f>AVERAGE(E10:E13)</f>
         <v>75.847666666666669</v>
       </c>
-      <c r="F14" s="45">
+      <c r="F14" s="43">
         <f>B10/E14</f>
         <v>6.4603173905591467</v>
       </c>
-      <c r="H14" s="32" t="s">
+      <c r="G14" s="43"/>
+      <c r="I14" s="32" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="33">
-        <f>AVERAGE(I10:I13)</f>
+      <c r="J14" s="33">
+        <f>AVERAGE(J10:J13)</f>
         <v>59.832249999999995</v>
       </c>
-      <c r="K14" s="33">
-        <f>AVERAGE(K10:K13)</f>
+      <c r="L14" s="33">
+        <f>AVERAGE(L10:L13)</f>
         <v>60.529333333333341</v>
       </c>
-      <c r="L14" s="45">
-        <f>B10/K14</f>
+      <c r="M14" s="43">
+        <f>B10/L14</f>
         <v>8.0952485847082389</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
-      <c r="P14" s="42"/>
-      <c r="Q14" s="42"/>
+      <c r="N14" s="43"/>
+      <c r="O14" s="33">
+        <f>AVERAGE(O10:O13)</f>
+        <v>70.731850000000009</v>
+      </c>
+      <c r="P14" s="43">
+        <f>B10/O14</f>
+        <v>6.9275722323111859</v>
+      </c>
+      <c r="Q14" s="43"/>
       <c r="R14" s="42"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42"/>
-      <c r="U14" s="42"/>
-      <c r="V14" s="42"/>
-      <c r="W14" s="42"/>
-      <c r="X14" s="42"/>
-      <c r="Y14" s="42"/>
+      <c r="S14" s="42">
+        <v>2942</v>
+      </c>
+      <c r="T14" s="56">
+        <f>M20</f>
+        <v>8.1483571553453675</v>
+      </c>
+      <c r="U14" s="56">
+        <f>M21</f>
+        <v>0.21640001358430536</v>
+      </c>
+      <c r="V14" s="56">
+        <f>F20</f>
+        <v>7.62883710799135</v>
+      </c>
+      <c r="W14" s="56">
+        <f>F21</f>
+        <v>0.14250647552216136</v>
+      </c>
+      <c r="X14" s="56">
+        <f>P20</f>
+        <v>7.92236264134766</v>
+      </c>
+      <c r="Y14" s="56">
+        <f>P21</f>
+        <v>0.19462093348209245</v>
+      </c>
       <c r="Z14" s="42"/>
       <c r="AA14" s="42"/>
       <c r="AB14" s="42"/>
@@ -8849,8 +9743,15 @@
       <c r="AF14" s="42"/>
       <c r="AG14" s="42"/>
       <c r="AH14" s="42"/>
-    </row>
-    <row r="15" spans="1:34" s="28" customFormat="1">
+      <c r="AI14" s="42"/>
+      <c r="AJ14" s="42"/>
+      <c r="AK14" s="42"/>
+      <c r="AL14" s="42"/>
+      <c r="AM14" s="42"/>
+      <c r="AN14" s="42"/>
+      <c r="AO14" s="42"/>
+    </row>
+    <row r="15" spans="1:41" s="28" customFormat="1">
       <c r="A15" s="42"/>
       <c r="C15" s="28" t="s">
         <v>10</v>
@@ -8863,23 +9764,45 @@
         <f>STDEV(E10:E13)</f>
         <v>4.7508637460290712</v>
       </c>
-      <c r="F15" s="45"/>
-      <c r="H15" s="28" t="s">
+      <c r="F15" s="43">
+        <f>F14*SQRT((A10/B10)^2+(E15/E14)^2)</f>
+        <v>0.40465649024560896</v>
+      </c>
+      <c r="G15" s="43">
+        <f>F15/F14*100</f>
+        <v>6.2637246095208567</v>
+      </c>
+      <c r="I15" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="34">
-        <f>STDEV(I10:I13)</f>
+      <c r="J15" s="34">
+        <f>STDEV(J10:J13)</f>
         <v>2.2585510249936784</v>
       </c>
-      <c r="K15" s="34">
-        <f>STDEV(K10:K13)</f>
+      <c r="L15" s="34">
+        <f>STDEV(L10:L13)</f>
         <v>1.638893176303245</v>
       </c>
-      <c r="L15" s="42"/>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
-      <c r="P15" s="42"/>
-      <c r="Q15" s="42"/>
+      <c r="M15" s="43">
+        <f>M14*SQRT((A10/B10)^2+(L15/L14)^2)</f>
+        <v>0.2191933034427706</v>
+      </c>
+      <c r="N15" s="43">
+        <f>M15/M14*100</f>
+        <v>2.7076784752085601</v>
+      </c>
+      <c r="O15" s="34">
+        <f>STDEV(O10:O13)</f>
+        <v>4.8879213185838708</v>
+      </c>
+      <c r="P15" s="43">
+        <f>P14*SQRT((A10/B10)^2+(O15/O14)^2)</f>
+        <v>0.47873165569199316</v>
+      </c>
+      <c r="Q15" s="43">
+        <f>P15/P14*100</f>
+        <v>6.9105256450321857</v>
+      </c>
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
@@ -8897,9 +9820,18 @@
       <c r="AF15" s="42"/>
       <c r="AG15" s="42"/>
       <c r="AH15" s="42"/>
-    </row>
-    <row r="16" spans="1:34" s="7" customFormat="1">
-      <c r="A16" s="42"/>
+      <c r="AI15" s="42"/>
+      <c r="AJ15" s="42"/>
+      <c r="AK15" s="42"/>
+      <c r="AL15" s="42"/>
+      <c r="AM15" s="42"/>
+      <c r="AN15" s="42"/>
+      <c r="AO15" s="42"/>
+    </row>
+    <row r="16" spans="1:41" s="7" customFormat="1">
+      <c r="A16" s="42">
+        <v>1</v>
+      </c>
       <c r="B16" s="7">
         <v>2942</v>
       </c>
@@ -8913,35 +9845,44 @@
         <v>390.73500000000001</v>
       </c>
       <c r="F16" s="45"/>
-      <c r="G16" s="7">
+      <c r="G16" s="45"/>
+      <c r="H16" s="7">
         <v>365.06650000000002</v>
       </c>
-      <c r="H16" s="7">
+      <c r="I16" s="7">
         <v>363.6447</v>
       </c>
-      <c r="I16" s="36">
-        <f>AVERAGE(G16:H16)</f>
+      <c r="J16" s="36">
+        <f>AVERAGE(H16:I16)</f>
         <v>364.35559999999998</v>
       </c>
-      <c r="J16" s="36">
-        <f>STDEV(G16:H16)</f>
+      <c r="K16" s="36">
+        <f>STDEV(H16:I16)</f>
         <v>1.0053644214910467</v>
       </c>
-      <c r="K16" s="7">
+      <c r="L16" s="7">
         <v>367.33859999999999</v>
       </c>
-      <c r="L16" s="42"/>
+      <c r="M16" s="42"/>
       <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="O16" s="7">
+        <v>361.34750000000003</v>
+      </c>
       <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
-      <c r="V16" s="42"/>
+      <c r="V16" s="42">
+        <f>(V12-T12)/T12*100</f>
+        <v>-21.03192905408271</v>
+      </c>
       <c r="W16" s="42"/>
-      <c r="X16" s="42"/>
+      <c r="X16" s="42">
+        <f>(X12-T12)/T12*100</f>
+        <v>-11.135487730355488</v>
+      </c>
       <c r="Y16" s="42"/>
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
@@ -8952,8 +9893,15 @@
       <c r="AF16" s="42"/>
       <c r="AG16" s="42"/>
       <c r="AH16" s="42"/>
-    </row>
-    <row r="17" spans="1:34" s="7" customFormat="1">
+      <c r="AI16" s="42"/>
+      <c r="AJ16" s="42"/>
+      <c r="AK16" s="42"/>
+      <c r="AL16" s="42"/>
+      <c r="AM16" s="42"/>
+      <c r="AN16" s="42"/>
+      <c r="AO16" s="42"/>
+    </row>
+    <row r="17" spans="1:41" s="7" customFormat="1">
       <c r="A17" s="42"/>
       <c r="B17" s="7">
         <v>2942</v>
@@ -8962,35 +9910,44 @@
         <v>2</v>
       </c>
       <c r="F17" s="45"/>
-      <c r="G17" s="7">
-        <v>345.38619999999997</v>
-      </c>
+      <c r="G17" s="45"/>
       <c r="H17" s="7">
         <v>345.38619999999997</v>
       </c>
-      <c r="I17" s="36">
-        <f>AVERAGE(G17:H17)</f>
+      <c r="I17" s="7">
         <v>345.38619999999997</v>
       </c>
       <c r="J17" s="36">
-        <f>STDEV(G17:H17)</f>
+        <f>AVERAGE(H17:I17)</f>
+        <v>345.38619999999997</v>
+      </c>
+      <c r="K17" s="36">
+        <f>STDEV(H17:I17)</f>
         <v>0</v>
       </c>
-      <c r="K17" s="54">
+      <c r="L17" s="54">
         <v>347.58150000000001</v>
       </c>
-      <c r="L17" s="42"/>
+      <c r="M17" s="42"/>
       <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
+      <c r="O17" s="7">
+        <v>379.20519999999999</v>
+      </c>
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
-      <c r="V17" s="42"/>
+      <c r="V17" s="42">
+        <f t="shared" ref="V17:V18" si="0">(V13-T13)/T13*100</f>
+        <v>-20.196182699533701</v>
+      </c>
       <c r="W17" s="42"/>
-      <c r="X17" s="42"/>
+      <c r="X17" s="42">
+        <f t="shared" ref="X17:X18" si="1">(X13-T13)/T13*100</f>
+        <v>-14.424218604018781</v>
+      </c>
       <c r="Y17" s="42"/>
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
@@ -9001,8 +9958,15 @@
       <c r="AF17" s="42"/>
       <c r="AG17" s="42"/>
       <c r="AH17" s="42"/>
-    </row>
-    <row r="18" spans="1:34" s="7" customFormat="1">
+      <c r="AI17" s="42"/>
+      <c r="AJ17" s="42"/>
+      <c r="AK17" s="42"/>
+      <c r="AL17" s="42"/>
+      <c r="AM17" s="42"/>
+      <c r="AN17" s="42"/>
+      <c r="AO17" s="42"/>
+    </row>
+    <row r="18" spans="1:41" s="7" customFormat="1">
       <c r="A18" s="42"/>
       <c r="B18" s="7">
         <v>2942</v>
@@ -9017,35 +9981,44 @@
         <v>380.54899999999998</v>
       </c>
       <c r="F18" s="45"/>
-      <c r="G18" s="7">
+      <c r="G18" s="45"/>
+      <c r="H18" s="7">
         <v>357.85079999999999</v>
       </c>
-      <c r="H18" s="7">
+      <c r="I18" s="7">
         <v>354.88420000000002</v>
       </c>
-      <c r="I18" s="36">
-        <f>AVERAGE(G18:H18)</f>
+      <c r="J18" s="36">
+        <f>AVERAGE(H18:I18)</f>
         <v>356.36750000000001</v>
       </c>
-      <c r="J18" s="36">
-        <f>STDEV(G18:H18)</f>
+      <c r="K18" s="36">
+        <f>STDEV(H18:I18)</f>
         <v>2.0977029770679918</v>
       </c>
-      <c r="K18" s="54">
+      <c r="L18" s="54">
         <v>360.84500000000003</v>
       </c>
-      <c r="L18" s="42"/>
+      <c r="M18" s="42"/>
       <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
+      <c r="O18" s="7">
+        <v>373.50889999999998</v>
+      </c>
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
-      <c r="V18" s="42"/>
+      <c r="V18" s="42">
+        <f t="shared" si="0"/>
+        <v>-6.3757643099039845</v>
+      </c>
       <c r="W18" s="42"/>
-      <c r="X18" s="42"/>
+      <c r="X18" s="42">
+        <f t="shared" si="1"/>
+        <v>-2.7734978927556444</v>
+      </c>
       <c r="Y18" s="42"/>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
@@ -9056,8 +10029,15 @@
       <c r="AF18" s="42"/>
       <c r="AG18" s="42"/>
       <c r="AH18" s="42"/>
-    </row>
-    <row r="19" spans="1:34" s="7" customFormat="1">
+      <c r="AI18" s="42"/>
+      <c r="AJ18" s="42"/>
+      <c r="AK18" s="42"/>
+      <c r="AL18" s="42"/>
+      <c r="AM18" s="42"/>
+      <c r="AN18" s="42"/>
+      <c r="AO18" s="42"/>
+    </row>
+    <row r="19" spans="1:41" s="7" customFormat="1">
       <c r="A19" s="42"/>
       <c r="B19" s="7">
         <v>2942</v>
@@ -9066,16 +10046,16 @@
         <v>4</v>
       </c>
       <c r="F19" s="45"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="38"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="37"/>
       <c r="I19" s="38"/>
       <c r="J19" s="38"/>
-      <c r="K19" s="35">
+      <c r="K19" s="38"/>
+      <c r="L19" s="35">
         <v>368.45240000000001</v>
       </c>
-      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
       <c r="N19" s="42"/>
-      <c r="O19" s="42"/>
       <c r="P19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
@@ -9095,8 +10075,15 @@
       <c r="AF19" s="42"/>
       <c r="AG19" s="42"/>
       <c r="AH19" s="42"/>
-    </row>
-    <row r="20" spans="1:34" s="7" customFormat="1">
+      <c r="AI19" s="42"/>
+      <c r="AJ19" s="42"/>
+      <c r="AK19" s="42"/>
+      <c r="AL19" s="42"/>
+      <c r="AM19" s="42"/>
+      <c r="AN19" s="42"/>
+      <c r="AO19" s="42"/>
+    </row>
+    <row r="20" spans="1:41" s="7" customFormat="1">
       <c r="A20" s="42"/>
       <c r="C20" s="39" t="s">
         <v>34</v>
@@ -9113,25 +10100,32 @@
         <f>B16/E20</f>
         <v>7.62883710799135</v>
       </c>
-      <c r="H20" s="39" t="s">
+      <c r="G20" s="45"/>
+      <c r="I20" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="I20" s="40">
-        <f>AVERAGE(I16:I19)</f>
+      <c r="J20" s="40">
+        <f>AVERAGE(J16:J19)</f>
         <v>355.36976666666669</v>
       </c>
-      <c r="K20" s="40">
-        <f>AVERAGE(K16:K19)</f>
+      <c r="L20" s="40">
+        <f>AVERAGE(L16:L19)</f>
         <v>361.05437500000005</v>
       </c>
-      <c r="L20" s="45">
-        <f>B16/K20</f>
+      <c r="M20" s="43">
+        <f>B16/L20</f>
         <v>8.1483571553453675</v>
       </c>
-      <c r="N20" s="42"/>
-      <c r="O20" s="42"/>
-      <c r="P20" s="42"/>
-      <c r="Q20" s="42"/>
+      <c r="N20" s="43"/>
+      <c r="O20" s="40">
+        <f>AVERAGE(O16:O19)</f>
+        <v>371.35386666666665</v>
+      </c>
+      <c r="P20" s="45">
+        <f>B16/O20</f>
+        <v>7.92236264134766</v>
+      </c>
+      <c r="Q20" s="45"/>
       <c r="R20" s="42"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
@@ -9149,8 +10143,15 @@
       <c r="AF20" s="42"/>
       <c r="AG20" s="42"/>
       <c r="AH20" s="42"/>
-    </row>
-    <row r="21" spans="1:34" s="7" customFormat="1">
+      <c r="AI20" s="42"/>
+      <c r="AJ20" s="42"/>
+      <c r="AK20" s="42"/>
+      <c r="AL20" s="42"/>
+      <c r="AM20" s="42"/>
+      <c r="AN20" s="42"/>
+      <c r="AO20" s="42"/>
+    </row>
+    <row r="21" spans="1:41" s="7" customFormat="1">
       <c r="A21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -9163,23 +10164,45 @@
         <f>STDEV(E16:E19)</f>
         <v>7.202589673166198</v>
       </c>
-      <c r="F21" s="43"/>
-      <c r="H21" s="7" t="s">
+      <c r="F21" s="45">
+        <f>F20*SQRT((A16/B16)^2+(E21/E20)^2)</f>
+        <v>0.14250647552216136</v>
+      </c>
+      <c r="G21" s="43">
+        <f>F21/F20*100</f>
+        <v>1.8679973566729215</v>
+      </c>
+      <c r="I21" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="I21" s="19">
-        <f>STDEV(I16:I19)</f>
+      <c r="J21" s="19">
+        <f>STDEV(J16:J19)</f>
         <v>9.5239770024571886</v>
       </c>
-      <c r="K21" s="19">
-        <f>STDEV(K16:K19)</f>
+      <c r="L21" s="19">
+        <f>STDEV(L16:L19)</f>
         <v>9.5879169862819147</v>
       </c>
-      <c r="L21" s="42"/>
-      <c r="N21" s="42"/>
-      <c r="O21" s="42"/>
-      <c r="P21" s="42"/>
-      <c r="Q21" s="42"/>
+      <c r="M21" s="43">
+        <f>M20*SQRT((A16/B16)^2+(L21/L20)^2)</f>
+        <v>0.21640001358430536</v>
+      </c>
+      <c r="N21" s="43">
+        <f>M21/M20*100</f>
+        <v>2.6557502261955435</v>
+      </c>
+      <c r="O21" s="19">
+        <f>STDEV(O16:O19)</f>
+        <v>9.1218138998410279</v>
+      </c>
+      <c r="P21" s="45">
+        <f>P20*SQRT((A16/B16)^2+(O21/O20)^2)</f>
+        <v>0.19462093348209245</v>
+      </c>
+      <c r="Q21" s="43">
+        <f>P21/P20*100</f>
+        <v>2.4566021816060895</v>
+      </c>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
@@ -9197,10 +10220,18 @@
       <c r="AF21" s="42"/>
       <c r="AG21" s="42"/>
       <c r="AH21" s="42"/>
+      <c r="AI21" s="42"/>
+      <c r="AJ21" s="42"/>
+      <c r="AK21" s="42"/>
+      <c r="AL21" s="42"/>
+      <c r="AM21" s="42"/>
+      <c r="AN21" s="42"/>
+      <c r="AO21" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -9214,7 +10245,7 @@
   <dimension ref="B2:R24"/>
   <sheetViews>
     <sheetView topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="R7" sqref="R7:R9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9278,16 +10309,16 @@
         <v>0</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="Q6" s="2" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
       <c r="R6" s="2" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="2:18">

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
   <si>
     <t>Load</t>
   </si>
@@ -239,6 +239,15 @@
   <si>
     <t>User 2 Error</t>
   </si>
+  <si>
+    <t>Software Area</t>
+  </si>
+  <si>
+    <t>Software Vickers</t>
+  </si>
+  <si>
+    <t>Software Avg Diag</t>
+  </si>
 </sst>
 </file>
 
@@ -375,8 +384,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="277">
+  <cellStyleXfs count="307">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -713,7 +752,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="277">
+  <cellStyles count="307">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -852,6 +891,21 @@
     <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -990,6 +1044,21 @@
     <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1027,6 +1096,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1547,6 +1617,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1581,6 +1652,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -1602,6 +1674,7 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2140,6 +2213,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2173,6 +2247,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -2809,13 +2884,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.285899198044104</c:v>
+                    <c:v>0.285881054514705</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.219193303442771</c:v>
+                    <c:v>0.219187077328185</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.216400013584305</c:v>
+                    <c:v>0.216382288623501</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2827,13 +2902,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.285899198044104</c:v>
+                    <c:v>0.285881054514705</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.219193303442771</c:v>
+                    <c:v>0.219187077328185</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.216400013584305</c:v>
+                    <c:v>0.216382288623501</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2900,13 +2975,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.513469312278175</c:v>
+                    <c:v>0.513463012690007</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.404656490245609</c:v>
+                    <c:v>0.404654342414162</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.142506475522161</c:v>
+                    <c:v>0.142482881460747</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2918,13 +2993,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.513469312278175</c:v>
+                    <c:v>0.513463012690007</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.404656490245609</c:v>
+                    <c:v>0.404654342414162</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.142506475522161</c:v>
+                    <c:v>0.142482881460747</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2991,13 +3066,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.137525251350069</c:v>
+                    <c:v>0.137495463288563</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.478731655691993</c:v>
+                    <c:v>0.478729568084866</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.194620933482092</c:v>
+                    <c:v>0.194602302946515</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3009,13 +3084,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.137525251350069</c:v>
+                    <c:v>0.137495463288563</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.478731655691993</c:v>
+                    <c:v>0.478729568084866</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.194620933482092</c:v>
+                    <c:v>0.194602302946515</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3219,7 +3294,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Human Error'!$P$7:$P$9</c:f>
+                <c:f>'Human Error'!$S$7:$S$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3237,7 +3312,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Human Error'!$P$7:$P$9</c:f>
+                <c:f>'Human Error'!$S$7:$S$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3270,7 +3345,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Human Error'!$N$7:$N$9</c:f>
+              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3288,7 +3363,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Human Error'!$O$7:$O$9</c:f>
+              <c:f>'Human Error'!$R$7:$R$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3328,7 +3403,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Human Error'!$R$7:$R$9</c:f>
+                <c:f>'Human Error'!$U$7:$U$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3346,7 +3421,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Human Error'!$R$7:$R$9</c:f>
+                <c:f>'Human Error'!$U$7:$U$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3372,7 +3447,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Human Error'!$N$7:$N$9</c:f>
+              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3390,7 +3465,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
+              <c:f>'Human Error'!$T$7:$T$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3669,13 +3744,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>67733</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>643466</xdr:colOff>
       <xdr:row>25</xdr:row>
       <xdr:rowOff>50799</xdr:rowOff>
@@ -7447,8 +7522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AP18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AJ1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AP3" sqref="AP3"/>
+    <sheetView topLeftCell="AJ1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AP14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -8881,8 +8956,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AO21"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Y12" sqref="Y12:Y15"/>
+    <sheetView topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9308,12 +9383,12 @@
         <v>3.239582894962457</v>
       </c>
       <c r="F9" s="43">
-        <f>F8*SQRT((A4/B4)^2+(E9/E8)^2)</f>
-        <v>0.51346931227817483</v>
+        <f>F8*SQRT((0)^2+(E9/E8)^2)</f>
+        <v>0.51346301269000694</v>
       </c>
       <c r="G9" s="43">
         <f>F9/F8*100</f>
-        <v>8.2398900563127135</v>
+        <v>8.2397889637787252</v>
       </c>
       <c r="I9" s="23" t="s">
         <v>10</v>
@@ -9327,24 +9402,24 @@
         <v>1.124782021845417</v>
       </c>
       <c r="M9" s="43">
-        <f>M8*SQRT((A4/B4)^2+(L9/L8)^2)</f>
-        <v>0.28589919804410424</v>
+        <f>M8*SQRT((0)^2+(L9/L8)^2)</f>
+        <v>0.28588105451470536</v>
       </c>
       <c r="N9" s="43">
         <f>M9/M8*100</f>
-        <v>3.6230254964875996</v>
+        <v>3.6227955746478107</v>
       </c>
       <c r="O9" s="27">
         <f>STDEV(O4:O7)</f>
         <v>0.68503795758580666</v>
       </c>
       <c r="P9" s="45">
-        <f>P8*SQRT((A4/B4)^2+(O9/O8)^2)</f>
-        <v>0.13752525135006943</v>
+        <f>P8*SQRT((0)^2+(O9/O8)^2)</f>
+        <v>0.13749546328856271</v>
       </c>
       <c r="Q9" s="43">
         <f>P9/P8*100</f>
-        <v>1.9611577970942955</v>
+        <v>1.9607330090025761</v>
       </c>
       <c r="R9" s="42"/>
       <c r="S9" s="42"/>
@@ -9546,7 +9621,7 @@
       </c>
       <c r="U12" s="56">
         <f>M9</f>
-        <v>0.28589919804410424</v>
+        <v>0.28588105451470536</v>
       </c>
       <c r="V12" s="56">
         <f>F8</f>
@@ -9554,7 +9629,7 @@
       </c>
       <c r="W12" s="56">
         <f>F9</f>
-        <v>0.51346931227817483</v>
+        <v>0.51346301269000694</v>
       </c>
       <c r="X12" s="56">
         <f>P8</f>
@@ -9562,7 +9637,7 @@
       </c>
       <c r="Y12" s="56">
         <f>P9</f>
-        <v>0.13752525135006943</v>
+        <v>0.13749546328856271</v>
       </c>
       <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
@@ -9628,7 +9703,7 @@
       </c>
       <c r="U13" s="56">
         <f>M15</f>
-        <v>0.2191933034427706</v>
+        <v>0.21918707732818524</v>
       </c>
       <c r="V13" s="56">
         <f>F14</f>
@@ -9636,7 +9711,7 @@
       </c>
       <c r="W13" s="56">
         <f>F15</f>
-        <v>0.40465649024560896</v>
+        <v>0.40465434241416237</v>
       </c>
       <c r="X13" s="56">
         <f>P14</f>
@@ -9644,7 +9719,7 @@
       </c>
       <c r="Y13" s="56">
         <f>P15</f>
-        <v>0.47873165569199316</v>
+        <v>0.47872956808486555</v>
       </c>
       <c r="Z13" s="42"/>
       <c r="AA13" s="42"/>
@@ -9716,7 +9791,7 @@
       </c>
       <c r="U14" s="56">
         <f>M21</f>
-        <v>0.21640001358430536</v>
+        <v>0.21638228862350062</v>
       </c>
       <c r="V14" s="56">
         <f>F20</f>
@@ -9724,7 +9799,7 @@
       </c>
       <c r="W14" s="56">
         <f>F21</f>
-        <v>0.14250647552216136</v>
+        <v>0.1424828814607475</v>
       </c>
       <c r="X14" s="56">
         <f>P20</f>
@@ -9732,7 +9807,7 @@
       </c>
       <c r="Y14" s="56">
         <f>P21</f>
-        <v>0.19462093348209245</v>
+        <v>0.19460230294651493</v>
       </c>
       <c r="Z14" s="42"/>
       <c r="AA14" s="42"/>
@@ -9765,12 +9840,12 @@
         <v>4.7508637460290712</v>
       </c>
       <c r="F15" s="43">
-        <f>F14*SQRT((A10/B10)^2+(E15/E14)^2)</f>
-        <v>0.40465649024560896</v>
+        <f>F14*SQRT((0)^2+(E15/E14)^2)</f>
+        <v>0.40465434241416237</v>
       </c>
       <c r="G15" s="43">
         <f>F15/F14*100</f>
-        <v>6.2637246095208567</v>
+        <v>6.2636913629895066</v>
       </c>
       <c r="I15" s="28" t="s">
         <v>10</v>
@@ -9784,24 +9859,24 @@
         <v>1.638893176303245</v>
       </c>
       <c r="M15" s="43">
-        <f>M14*SQRT((A10/B10)^2+(L15/L14)^2)</f>
-        <v>0.2191933034427706</v>
+        <f>M14*SQRT((0)^2+(L15/L14)^2)</f>
+        <v>0.21918707732818524</v>
       </c>
       <c r="N15" s="43">
         <f>M15/M14*100</f>
-        <v>2.7076784752085601</v>
+        <v>2.7076015644809872</v>
       </c>
       <c r="O15" s="34">
         <f>STDEV(O10:O13)</f>
         <v>4.8879213185838708</v>
       </c>
       <c r="P15" s="43">
-        <f>P14*SQRT((A10/B10)^2+(O15/O14)^2)</f>
-        <v>0.47873165569199316</v>
+        <f>P14*SQRT((0)^2+(O15/O14)^2)</f>
+        <v>0.47872956808486555</v>
       </c>
       <c r="Q15" s="43">
         <f>P15/P14*100</f>
-        <v>6.9105256450321857</v>
+        <v>6.9104955102741839</v>
       </c>
       <c r="R15" s="42"/>
       <c r="S15" s="42"/>
@@ -10165,12 +10240,12 @@
         <v>7.202589673166198</v>
       </c>
       <c r="F21" s="45">
-        <f>F20*SQRT((A16/B16)^2+(E21/E20)^2)</f>
-        <v>0.14250647552216136</v>
+        <f>F20*SQRT((0)^2+(E21/E20)^2)</f>
+        <v>0.1424828814607475</v>
       </c>
       <c r="G21" s="43">
         <f>F21/F20*100</f>
-        <v>1.8679973566729215</v>
+        <v>1.8676880819947512</v>
       </c>
       <c r="I21" s="7" t="s">
         <v>10</v>
@@ -10184,24 +10259,24 @@
         <v>9.5879169862819147</v>
       </c>
       <c r="M21" s="43">
-        <f>M20*SQRT((A16/B16)^2+(L21/L20)^2)</f>
-        <v>0.21640001358430536</v>
+        <f>M20*SQRT((0)^2+(L21/L20)^2)</f>
+        <v>0.21638228862350062</v>
       </c>
       <c r="N21" s="43">
         <f>M21/M20*100</f>
-        <v>2.6557502261955435</v>
+        <v>2.6555326981654535</v>
       </c>
       <c r="O21" s="19">
         <f>STDEV(O16:O19)</f>
         <v>9.1218138998410279</v>
       </c>
       <c r="P21" s="45">
-        <f>P20*SQRT((A16/B16)^2+(O21/O20)^2)</f>
-        <v>0.19462093348209245</v>
+        <f>P20*SQRT((0)^2+(O21/O20)^2)</f>
+        <v>0.19460230294651493</v>
       </c>
       <c r="Q21" s="43">
         <f>P21/P20*100</f>
-        <v>2.4566021816060895</v>
+        <v>2.4563670177235339</v>
       </c>
       <c r="R21" s="42"/>
       <c r="S21" s="42"/>
@@ -10242,36 +10317,37 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R24"/>
+  <dimension ref="B2:U24"/>
   <sheetViews>
-    <sheetView topLeftCell="K5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7:R9"/>
+    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:21">
       <c r="B2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:21">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
-      <c r="N5" t="s">
+    <row r="5" spans="2:21">
+      <c r="Q5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:21">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
@@ -10305,23 +10381,32 @@
       <c r="L6" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="M6" s="2" t="s">
+        <v>71</v>
+      </c>
       <c r="N6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="O6" s="2" t="s">
+      <c r="R6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="P6" s="2" t="s">
+      <c r="S6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:21">
       <c r="B7" s="23">
         <v>2942</v>
       </c>
@@ -10360,27 +10445,38 @@
         <f>1.854*C7/(0.001*(I7+J7)/2)^2</f>
         <v>636.71299034463061</v>
       </c>
-      <c r="N7" s="2">
+      <c r="M7" s="27">
+        <v>457.03120000000001</v>
+      </c>
+      <c r="N7" s="27">
+        <f>SQRT(2*M7)</f>
+        <v>30.233464902323057</v>
+      </c>
+      <c r="O7" s="27">
+        <f>1.854*C7/(0.001*N7)^2</f>
+        <v>608.662752127207</v>
+      </c>
+      <c r="Q7" s="2">
         <v>2942</v>
       </c>
-      <c r="O7" s="3">
+      <c r="R7" s="3">
         <f>H11</f>
         <v>685.35986772799095</v>
       </c>
-      <c r="P7" s="3">
+      <c r="S7" s="3">
         <f>H12</f>
         <v>14.124539009811716</v>
       </c>
-      <c r="Q7" s="3">
+      <c r="T7" s="3">
         <f>L11</f>
         <v>679.16550811036836</v>
       </c>
-      <c r="R7" s="3">
+      <c r="U7" s="3">
         <f>L12</f>
         <v>31.368612913237573</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:21">
       <c r="B8" s="23">
         <v>2942</v>
       </c>
@@ -10419,27 +10515,38 @@
         <f t="shared" ref="L8:L22" si="4">1.854*C8/(0.001*(I8+J8)/2)^2</f>
         <v>679.46183782120875</v>
       </c>
-      <c r="N8" s="2">
+      <c r="M8" s="27">
+        <v>428.82929999999999</v>
+      </c>
+      <c r="N8" s="27">
+        <f t="shared" ref="N8:N10" si="5">SQRT(2*M8)</f>
+        <v>29.285808850021539</v>
+      </c>
+      <c r="O8" s="27">
+        <f t="shared" ref="O8:O10" si="6">1.854*C8/(0.001*N8)^2</f>
+        <v>648.69137440002362</v>
+      </c>
+      <c r="Q8" s="2">
         <v>490.3</v>
       </c>
-      <c r="O8" s="3">
+      <c r="R8" s="3">
         <f>H17</f>
         <v>701.38468653133737</v>
       </c>
-      <c r="P8" s="3">
+      <c r="S8" s="3">
         <f>H18</f>
         <v>13.138088324258353</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="T8" s="3">
         <f>L17</f>
         <v>658.83120095259972</v>
       </c>
-      <c r="R8" s="3">
+      <c r="U8" s="3">
         <f>L18</f>
         <v>23.774465543948377</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:21">
       <c r="B9" s="23">
         <v>2942</v>
       </c>
@@ -10478,27 +10585,38 @@
         <f t="shared" si="4"/>
         <v>688.81789741789123</v>
       </c>
-      <c r="N9" s="2">
+      <c r="M9" s="27">
+        <v>432.81319999999999</v>
+      </c>
+      <c r="N9" s="27">
+        <f t="shared" si="5"/>
+        <v>29.421529531960093</v>
+      </c>
+      <c r="O9" s="27">
+        <f t="shared" si="6"/>
+        <v>642.72038838002186</v>
+      </c>
+      <c r="Q9" s="2">
         <v>245.2</v>
       </c>
-      <c r="O9" s="3">
+      <c r="R9" s="3">
         <f>H23</f>
         <v>646.22411757000259</v>
       </c>
-      <c r="P9" s="3">
+      <c r="S9" s="3">
         <f>H24</f>
         <v>67.306145322027604</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="T9" s="3">
         <f>L23</f>
         <v>635.48491212339718</v>
       </c>
-      <c r="R9" s="3">
+      <c r="U9" s="3">
         <f>L24</f>
         <v>45.427421080392136</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:21">
       <c r="B10" s="23">
         <v>2942</v>
       </c>
@@ -10537,8 +10655,19 @@
         <f t="shared" si="4"/>
         <v>711.66930685774275</v>
       </c>
-    </row>
-    <row r="11" spans="2:18">
+      <c r="M10" s="27">
+        <v>422.36419999999998</v>
+      </c>
+      <c r="N10" s="27">
+        <f t="shared" si="5"/>
+        <v>29.064211670024701</v>
+      </c>
+      <c r="O10" s="27">
+        <f t="shared" si="6"/>
+        <v>658.62084902082142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:21">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="23"/>
@@ -10556,8 +10685,14 @@
         <f>AVERAGE(L7:L10)</f>
         <v>679.16550811036836</v>
       </c>
-    </row>
-    <row r="12" spans="2:18">
+      <c r="M11" s="26"/>
+      <c r="N11" s="26"/>
+      <c r="O11" s="26">
+        <f>AVERAGE(O7:O10)</f>
+        <v>639.67384098201842</v>
+      </c>
+    </row>
+    <row r="12" spans="2:21">
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="23"/>
@@ -10575,8 +10710,14 @@
         <f>STDEV(L7:L10)</f>
         <v>31.368612913237573</v>
       </c>
-    </row>
-    <row r="13" spans="2:18">
+      <c r="M12" s="26"/>
+      <c r="N12" s="26"/>
+      <c r="O12" s="26">
+        <f>STDEV(O7:O10)</f>
+        <v>21.689276194904835</v>
+      </c>
+    </row>
+    <row r="13" spans="2:21">
       <c r="B13" s="28">
         <v>490.3</v>
       </c>
@@ -10615,8 +10756,19 @@
         <f t="shared" si="4"/>
         <v>664.7708991002761</v>
       </c>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="M13" s="34">
+        <v>76.602900000000005</v>
+      </c>
+      <c r="N13" s="34">
+        <f>SQRT(2*M13)</f>
+        <v>12.377633053213366</v>
+      </c>
+      <c r="O13" s="34">
+        <f>1.854*C13/(0.001*N13)^2</f>
+        <v>605.19675103684062</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21">
       <c r="B14" s="28">
         <v>490.3</v>
       </c>
@@ -10655,8 +10807,19 @@
         <f t="shared" si="4"/>
         <v>628.08618198445345</v>
       </c>
-    </row>
-    <row r="15" spans="2:18">
+      <c r="M14" s="34">
+        <v>78.839399999999998</v>
+      </c>
+      <c r="N14" s="34">
+        <f t="shared" ref="N14:N16" si="7">SQRT(2*M14)</f>
+        <v>12.557021939934643</v>
+      </c>
+      <c r="O14" s="34">
+        <f t="shared" ref="O14:O16" si="8">1.854*C14/(0.001*N14)^2</f>
+        <v>588.02865318609736</v>
+      </c>
+    </row>
+    <row r="15" spans="2:21">
       <c r="B15" s="28">
         <v>490.3</v>
       </c>
@@ -10695,8 +10858,19 @@
         <f t="shared" si="4"/>
         <v>685.50774415205433</v>
       </c>
-    </row>
-    <row r="16" spans="2:18">
+      <c r="M15" s="34">
+        <v>76.218500000000006</v>
+      </c>
+      <c r="N15" s="34">
+        <f t="shared" si="7"/>
+        <v>12.346537976291168</v>
+      </c>
+      <c r="O15" s="34">
+        <f t="shared" si="8"/>
+        <v>608.24899729068397</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21">
       <c r="B16" s="28">
         <v>490.3</v>
       </c>
@@ -10735,8 +10909,19 @@
         <f t="shared" si="4"/>
         <v>656.95997857361488</v>
       </c>
-    </row>
-    <row r="17" spans="2:12">
+      <c r="M16" s="34">
+        <v>76.882400000000004</v>
+      </c>
+      <c r="N16" s="34">
+        <f t="shared" si="7"/>
+        <v>12.400193546876597</v>
+      </c>
+      <c r="O16" s="34">
+        <f t="shared" si="8"/>
+        <v>602.99660520483224</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="28"/>
@@ -10754,8 +10939,14 @@
         <f>AVERAGE(L13:L16)</f>
         <v>658.83120095259972</v>
       </c>
-    </row>
-    <row r="18" spans="2:12">
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33">
+        <f>AVERAGE(O13:O16)</f>
+        <v>601.11775167961355</v>
+      </c>
+    </row>
+    <row r="18" spans="2:15">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="28"/>
@@ -10773,8 +10964,14 @@
         <f>STDEV(L13:L16)</f>
         <v>23.774465543948377</v>
       </c>
-    </row>
-    <row r="19" spans="2:12">
+      <c r="M18" s="33"/>
+      <c r="N18" s="33"/>
+      <c r="O18" s="33">
+        <f>STDEV(O13:O16)</f>
+        <v>8.9879083525935854</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15">
       <c r="B19" s="46">
         <v>245.2</v>
       </c>
@@ -10813,8 +11010,11 @@
         <f t="shared" si="4"/>
         <v>604.25764683805585</v>
       </c>
-    </row>
-    <row r="20" spans="2:12">
+      <c r="M19" s="48"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="48"/>
+    </row>
+    <row r="20" spans="2:15">
       <c r="B20" s="46">
         <v>245.2</v>
       </c>
@@ -10853,8 +11053,11 @@
         <f t="shared" si="4"/>
         <v>624.76947676935129</v>
       </c>
-    </row>
-    <row r="21" spans="2:12">
+      <c r="M20" s="48"/>
+      <c r="N20" s="48"/>
+      <c r="O20" s="48"/>
+    </row>
+    <row r="21" spans="2:15">
       <c r="B21" s="46">
         <v>245.2</v>
       </c>
@@ -10893,8 +11096,11 @@
         <f t="shared" si="4"/>
         <v>702.39858518343192</v>
       </c>
-    </row>
-    <row r="22" spans="2:12">
+      <c r="M21" s="48"/>
+      <c r="N21" s="48"/>
+      <c r="O21" s="48"/>
+    </row>
+    <row r="22" spans="2:15">
       <c r="B22" s="46">
         <v>245.2</v>
       </c>
@@ -10933,8 +11139,11 @@
         <f t="shared" si="4"/>
         <v>610.51393970274989</v>
       </c>
-    </row>
-    <row r="23" spans="2:12">
+      <c r="M22" s="48"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="48"/>
+    </row>
+    <row r="23" spans="2:15">
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -10952,8 +11161,11 @@
         <f>AVERAGE(L19:L22)</f>
         <v>635.48491212339718</v>
       </c>
-    </row>
-    <row r="24" spans="2:12">
+      <c r="M23" s="49"/>
+      <c r="N23" s="49"/>
+      <c r="O23" s="49"/>
+    </row>
+    <row r="24" spans="2:15">
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -10971,6 +11183,9 @@
         <f>STDEV(L19:L22)</f>
         <v>45.427421080392136</v>
       </c>
+      <c r="M24" s="49"/>
+      <c r="N24" s="49"/>
+      <c r="O24" s="49"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -10320,7 +10320,7 @@
   <dimension ref="B2:U24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
   <si>
     <t>Load</t>
   </si>
@@ -248,6 +248,12 @@
   <si>
     <t>Software Avg Diag</t>
   </si>
+  <si>
+    <t>Software</t>
+  </si>
+  <si>
+    <t>Software 2 Error</t>
+  </si>
 </sst>
 </file>
 
@@ -384,8 +390,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="307">
+  <cellStyleXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -752,7 +766,7 @@
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="307">
+  <cellStyles count="315">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -906,6 +920,10 @@
     <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1059,6 +1077,10 @@
     <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1096,7 +1118,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1589,11 +1610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116101896"/>
-        <c:axId val="2116099480"/>
+        <c:axId val="2131218680"/>
+        <c:axId val="2131223816"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116101896"/>
+        <c:axId val="2131218680"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1617,19 +1638,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116099480"/>
+        <c:crossAx val="2131223816"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2116099480"/>
+        <c:axId val="2131223816"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1652,14 +1672,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116101896"/>
+        <c:crossAx val="2131218680"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1674,7 +1693,6 @@
         <c:idx val="6"/>
         <c:delete val="1"/>
       </c:legendEntry>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2185,11 +2203,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2116059416"/>
-        <c:axId val="2117963624"/>
+        <c:axId val="2129813288"/>
+        <c:axId val="2129806248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2116059416"/>
+        <c:axId val="2129813288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -2213,19 +2231,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2117963624"/>
+        <c:crossAx val="2129806248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2117963624"/>
+        <c:axId val="2129806248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,14 +2264,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2116059416"/>
+        <c:crossAx val="2129813288"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2725,11 +2741,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118453144"/>
-        <c:axId val="2118458456"/>
+        <c:axId val="2129657960"/>
+        <c:axId val="2129663544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118453144"/>
+        <c:axId val="2129657960"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2751,19 +2767,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118458456"/>
+        <c:crossAx val="2129663544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118458456"/>
+        <c:axId val="2129663544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2800,7 +2815,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="2118453144"/>
+        <c:crossAx val="2129657960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3142,11 +3157,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2140513096"/>
-        <c:axId val="2115869016"/>
+        <c:axId val="2131245320"/>
+        <c:axId val="2131250856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2140513096"/>
+        <c:axId val="2131245320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3168,19 +3183,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2115869016"/>
+        <c:crossAx val="2131250856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2115869016"/>
+        <c:axId val="2131250856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -3204,14 +3218,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2140513096"/>
+        <c:crossAx val="2131245320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3483,6 +3496,104 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Software</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Error'!$W$7:$W$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.49754556434566</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.68586664023025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>58.30658992473003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Error'!$W$7:$W$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>16.49754556434566</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>15.68586664023025</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>58.30658992473003</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Human Error'!$V$7:$V$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>702.2572058454543</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>730.7595945823791</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>658.1684026080351</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -3491,11 +3602,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2118488200"/>
-        <c:axId val="2118493576"/>
+        <c:axId val="2130939112"/>
+        <c:axId val="2130944536"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2118488200"/>
+        <c:axId val="2130939112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -3525,12 +3636,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118493576"/>
+        <c:crossAx val="2130944536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2118493576"/>
+        <c:axId val="2130944536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="550.0"/>
@@ -3567,7 +3678,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2118488200"/>
+        <c:crossAx val="2130939112"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3580,8 +3691,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.690620734908136"/>
           <c:y val="0.421693642461359"/>
-          <c:w val="0.154895320431039"/>
-          <c:h val="0.211137131701966"/>
+          <c:w val="0.194025757892897"/>
+          <c:h val="0.249141732283465"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3752,8 +3863,8 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>643466</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>84666</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10317,10 +10428,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:U24"/>
+  <dimension ref="B2:W24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10332,22 +10443,22 @@
     <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:21">
+    <row r="2" spans="2:23">
       <c r="B2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:21">
+    <row r="3" spans="2:23">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:21">
+    <row r="5" spans="2:23">
       <c r="Q5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="2:21">
+    <row r="6" spans="2:23">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
@@ -10405,8 +10516,14 @@
       <c r="U6" s="2" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="2:21">
+      <c r="V6" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="2:23">
       <c r="B7" s="23">
         <v>2942</v>
       </c>
@@ -10446,15 +10563,15 @@
         <v>636.71299034463061</v>
       </c>
       <c r="M7" s="27">
-        <v>457.03120000000001</v>
+        <v>408.59519999999998</v>
       </c>
       <c r="N7" s="27">
-        <f>SQRT(2*M7)</f>
-        <v>30.233464902323057</v>
+        <f t="shared" ref="N7:N10" si="0">SQRT(2*M7)</f>
+        <v>28.586542288286633</v>
       </c>
       <c r="O7" s="27">
         <f>1.854*C7/(0.001*N7)^2</f>
-        <v>608.662752127207</v>
+        <v>680.81531060570478</v>
       </c>
       <c r="Q7" s="2">
         <v>2942</v>
@@ -10475,13 +10592,21 @@
         <f>L12</f>
         <v>31.368612913237573</v>
       </c>
-    </row>
-    <row r="8" spans="2:21">
+      <c r="V7" s="3">
+        <f>O11</f>
+        <v>702.25720584545434</v>
+      </c>
+      <c r="W7" s="3">
+        <f>O12</f>
+        <v>16.497545564345664</v>
+      </c>
+    </row>
+    <row r="8" spans="2:23">
       <c r="B8" s="23">
         <v>2942</v>
       </c>
       <c r="C8" s="24">
-        <f t="shared" ref="C8:C22" si="0">B8*1.02*10^(-4)</f>
+        <f t="shared" ref="C8:C22" si="1">B8*1.02*10^(-4)</f>
         <v>0.30008400000000002</v>
       </c>
       <c r="D8" s="23">
@@ -10494,11 +10619,11 @@
         <v>28.22</v>
       </c>
       <c r="G8" s="27">
-        <f t="shared" ref="G8:G22" si="1">0.5*(AVERAGE(E8:F8)^2)</f>
+        <f t="shared" ref="G8:G22" si="2">0.5*(AVERAGE(E8:F8)^2)</f>
         <v>406.83781249999998</v>
       </c>
       <c r="H8" s="27">
-        <f t="shared" ref="H8:H22" si="2">1.854*C8/((0.001*(E8+F8)/2)^2)</f>
+        <f t="shared" ref="H8:H22" si="3">1.854*C8/((0.001*(E8+F8)/2)^2)</f>
         <v>683.75617863691093</v>
       </c>
       <c r="I8" s="24">
@@ -10508,23 +10633,23 @@
         <v>28.96</v>
       </c>
       <c r="K8" s="27">
-        <f t="shared" ref="K8:K22" si="3">0.5*(AVERAGE(I8:J8)^2)</f>
+        <f t="shared" ref="K8:K22" si="4">0.5*(AVERAGE(I8:J8)^2)</f>
         <v>409.40911250000005</v>
       </c>
       <c r="L8" s="27">
-        <f t="shared" ref="L8:L22" si="4">1.854*C8/(0.001*(I8+J8)/2)^2</f>
+        <f t="shared" ref="L8:L22" si="5">1.854*C8/(0.001*(I8+J8)/2)^2</f>
         <v>679.46183782120875</v>
       </c>
       <c r="M8" s="27">
-        <v>428.82929999999999</v>
+        <v>388.74560000000002</v>
       </c>
       <c r="N8" s="27">
-        <f t="shared" ref="N8:N10" si="5">SQRT(2*M8)</f>
-        <v>29.285808850021539</v>
+        <f t="shared" si="0"/>
+        <v>27.883529188393638</v>
       </c>
       <c r="O8" s="27">
-        <f t="shared" ref="O8:O10" si="6">1.854*C8/(0.001*N8)^2</f>
-        <v>648.69137440002362</v>
+        <f>1.854*C8/(0.001*N8)^2</f>
+        <v>715.57817760509715</v>
       </c>
       <c r="Q8" s="2">
         <v>490.3</v>
@@ -10545,13 +10670,21 @@
         <f>L18</f>
         <v>23.774465543948377</v>
       </c>
-    </row>
-    <row r="9" spans="2:21">
+      <c r="V8" s="3">
+        <f>O17</f>
+        <v>730.75959458237912</v>
+      </c>
+      <c r="W8" s="3">
+        <f>O18</f>
+        <v>15.685866640230246</v>
+      </c>
+    </row>
+    <row r="9" spans="2:23">
       <c r="B9" s="23">
         <v>2942</v>
       </c>
       <c r="C9" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30008400000000002</v>
       </c>
       <c r="D9" s="23">
@@ -10564,11 +10697,11 @@
         <v>28.07</v>
       </c>
       <c r="G9" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>395.36720000000003</v>
       </c>
       <c r="H9" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>703.59369214239325</v>
       </c>
       <c r="I9" s="24">
@@ -10578,23 +10711,23 @@
         <v>28.96</v>
       </c>
       <c r="K9" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>403.84820000000008</v>
       </c>
       <c r="L9" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>688.81789741789123</v>
       </c>
       <c r="M9" s="27">
-        <v>432.81319999999999</v>
+        <v>398.67039999999997</v>
       </c>
       <c r="N9" s="27">
-        <f t="shared" si="5"/>
-        <v>29.421529531960093</v>
+        <f t="shared" si="0"/>
+        <v>28.237223659559731</v>
       </c>
       <c r="O9" s="27">
-        <f t="shared" si="6"/>
-        <v>642.72038838002186</v>
+        <f t="shared" ref="O8:O10" si="6">1.854*C9/(0.001*N9)^2</f>
+        <v>697.76403766118597</v>
       </c>
       <c r="Q9" s="2">
         <v>245.2</v>
@@ -10615,13 +10748,21 @@
         <f>L24</f>
         <v>45.427421080392136</v>
       </c>
-    </row>
-    <row r="10" spans="2:21">
+      <c r="V9" s="3">
+        <f>O23</f>
+        <v>658.16840260803519</v>
+      </c>
+      <c r="W9" s="3">
+        <f>O24</f>
+        <v>58.306589924730034</v>
+      </c>
+    </row>
+    <row r="10" spans="2:23">
       <c r="B10" s="23">
         <v>2942</v>
       </c>
       <c r="C10" s="24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0.30008400000000002</v>
       </c>
       <c r="D10" s="23">
@@ -10634,11 +10775,11 @@
         <v>28.59</v>
       </c>
       <c r="G10" s="27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>406.125</v>
       </c>
       <c r="H10" s="27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>684.95627700831039</v>
       </c>
       <c r="I10" s="24">
@@ -10648,26 +10789,26 @@
         <v>28.22</v>
       </c>
       <c r="K10" s="27">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>390.88080000000002</v>
       </c>
       <c r="L10" s="27">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>711.66930685774275</v>
       </c>
       <c r="M10" s="27">
-        <v>422.36419999999998</v>
+        <v>389.13</v>
       </c>
       <c r="N10" s="27">
-        <f t="shared" si="5"/>
-        <v>29.064211670024701</v>
+        <f t="shared" si="0"/>
+        <v>27.897311698441481</v>
       </c>
       <c r="O10" s="27">
         <f t="shared" si="6"/>
-        <v>658.62084902082142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:21">
+        <v>714.87129750982979</v>
+      </c>
+    </row>
+    <row r="11" spans="2:23">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="23"/>
@@ -10689,10 +10830,10 @@
       <c r="N11" s="26"/>
       <c r="O11" s="26">
         <f>AVERAGE(O7:O10)</f>
-        <v>639.67384098201842</v>
-      </c>
-    </row>
-    <row r="12" spans="2:21">
+        <v>702.25720584545434</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23">
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="23"/>
@@ -10714,15 +10855,15 @@
       <c r="N12" s="26"/>
       <c r="O12" s="26">
         <f>STDEV(O7:O10)</f>
-        <v>21.689276194904835</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21">
+        <v>16.497545564345664</v>
+      </c>
+    </row>
+    <row r="13" spans="2:23">
       <c r="B13" s="28">
         <v>490.3</v>
       </c>
       <c r="C13" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0010600000000002E-2</v>
       </c>
       <c r="D13" s="28">
@@ -10735,11 +10876,11 @@
         <v>11.65</v>
       </c>
       <c r="G13" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>67.628449999999987</v>
       </c>
       <c r="H13" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>685.50774415205433</v>
       </c>
       <c r="I13" s="29">
@@ -10749,31 +10890,31 @@
         <v>11.86</v>
       </c>
       <c r="K13" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>69.738049999999987</v>
       </c>
       <c r="L13" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>664.7708991002761</v>
       </c>
       <c r="M13" s="34">
-        <v>76.602900000000005</v>
+        <v>62.484499999999997</v>
       </c>
       <c r="N13" s="34">
-        <f>SQRT(2*M13)</f>
-        <v>12.377633053213366</v>
+        <f t="shared" ref="N13:N16" si="7">SQRT(2*M13)</f>
+        <v>11.178953439387785</v>
       </c>
       <c r="O13" s="34">
-        <f>1.854*C13/(0.001*N13)^2</f>
-        <v>605.19675103684062</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21">
+        <f t="shared" ref="O13:O16" si="8">1.854*C13/(0.001*N13)^2</f>
+        <v>741.94122062271458</v>
+      </c>
+    </row>
+    <row r="14" spans="2:23">
       <c r="B14" s="28">
         <v>490.3</v>
       </c>
       <c r="C14" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0010600000000002E-2</v>
       </c>
       <c r="D14" s="28">
@@ -10786,11 +10927,11 @@
         <v>11.34</v>
       </c>
       <c r="G14" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>64.638450000000006</v>
       </c>
       <c r="H14" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>717.21747968894658</v>
       </c>
       <c r="I14" s="29">
@@ -10800,31 +10941,31 @@
         <v>12.3</v>
       </c>
       <c r="K14" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>73.811250000000001</v>
       </c>
       <c r="L14" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>628.08618198445345</v>
       </c>
       <c r="M14" s="34">
-        <v>78.839399999999998</v>
+        <v>65.524799999999999</v>
       </c>
       <c r="N14" s="34">
-        <f t="shared" ref="N14:N16" si="7">SQRT(2*M14)</f>
-        <v>12.557021939934643</v>
+        <f t="shared" si="7"/>
+        <v>11.447689723258575</v>
       </c>
       <c r="O14" s="34">
-        <f t="shared" ref="O14:O16" si="8">1.854*C14/(0.001*N14)^2</f>
-        <v>588.02865318609736</v>
-      </c>
-    </row>
-    <row r="15" spans="2:21">
+        <f t="shared" si="8"/>
+        <v>707.51572229140731</v>
+      </c>
+    </row>
+    <row r="15" spans="2:23">
       <c r="B15" s="28">
         <v>490.3</v>
       </c>
       <c r="C15" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0010600000000002E-2</v>
       </c>
       <c r="D15" s="28">
@@ -10837,11 +10978,11 @@
         <v>11.19</v>
       </c>
       <c r="G15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>65.837812499999998</v>
       </c>
       <c r="H15" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>704.15198257080624</v>
       </c>
       <c r="I15" s="29">
@@ -10851,31 +10992,31 @@
         <v>11.87</v>
       </c>
       <c r="K15" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>67.628449999999987</v>
       </c>
       <c r="L15" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>685.50774415205433</v>
       </c>
       <c r="M15" s="34">
-        <v>76.218500000000006</v>
+        <v>62.938800000000001</v>
       </c>
       <c r="N15" s="34">
         <f t="shared" si="7"/>
-        <v>12.346537976291168</v>
+        <v>11.219518706254739</v>
       </c>
       <c r="O15" s="34">
         <f t="shared" si="8"/>
-        <v>608.24899729068397</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21">
+        <v>736.5857976319852</v>
+      </c>
+    </row>
+    <row r="16" spans="2:23">
       <c r="B16" s="28">
         <v>490.3</v>
       </c>
       <c r="C16" s="29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>5.0010600000000002E-2</v>
       </c>
       <c r="D16" s="28">
@@ -10888,11 +11029,11 @@
         <v>11.37</v>
       </c>
       <c r="G16" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>66.355199999999996</v>
       </c>
       <c r="H16" s="34">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>698.66153971354186</v>
       </c>
       <c r="I16" s="29">
@@ -10902,23 +11043,23 @@
         <v>12.02</v>
       </c>
       <c r="K16" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>70.567199999999985</v>
       </c>
       <c r="L16" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>656.95997857361488</v>
       </c>
       <c r="M16" s="34">
-        <v>76.882400000000004</v>
+        <v>62.903799999999997</v>
       </c>
       <c r="N16" s="34">
         <f t="shared" si="7"/>
-        <v>12.400193546876597</v>
+        <v>11.216398709033127</v>
       </c>
       <c r="O16" s="34">
         <f t="shared" si="8"/>
-        <v>602.99660520483224</v>
+        <v>736.99563778340894</v>
       </c>
     </row>
     <row r="17" spans="2:15">
@@ -10943,7 +11084,7 @@
       <c r="N17" s="33"/>
       <c r="O17" s="33">
         <f>AVERAGE(O13:O16)</f>
-        <v>601.11775167961355</v>
+        <v>730.75959458237912</v>
       </c>
     </row>
     <row r="18" spans="2:15">
@@ -10968,7 +11109,7 @@
       <c r="N18" s="33"/>
       <c r="O18" s="33">
         <f>STDEV(O13:O16)</f>
-        <v>8.9879083525935854</v>
+        <v>15.685866640230246</v>
       </c>
     </row>
     <row r="19" spans="2:15">
@@ -10976,7 +11117,7 @@
         <v>245.2</v>
       </c>
       <c r="C19" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5010399999999999E-2</v>
       </c>
       <c r="D19" s="46">
@@ -10989,11 +11130,11 @@
         <v>8.19</v>
       </c>
       <c r="G19" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>36.89405</v>
       </c>
       <c r="H19" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>628.41137798642319</v>
       </c>
       <c r="I19" s="47">
@@ -11003,23 +11144,31 @@
         <v>8.82</v>
       </c>
       <c r="K19" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>38.3688</v>
       </c>
       <c r="L19" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>604.25764683805585</v>
       </c>
-      <c r="M19" s="48"/>
-      <c r="N19" s="48"/>
-      <c r="O19" s="48"/>
+      <c r="M19" s="48">
+        <v>33.0944</v>
+      </c>
+      <c r="N19" s="48">
+        <f>SQRT(2*M19)</f>
+        <v>8.1356499433050828</v>
+      </c>
+      <c r="O19" s="48">
+        <f>1.854*C19/(0.001*N19)^2</f>
+        <v>700.56084413072892</v>
+      </c>
     </row>
     <row r="20" spans="2:15">
       <c r="B20" s="46">
         <v>245.2</v>
       </c>
       <c r="C20" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5010399999999999E-2</v>
       </c>
       <c r="D20" s="46">
@@ -11032,11 +11181,11 @@
         <v>8.3699999999999992</v>
       </c>
       <c r="G20" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>37.54111249999999</v>
       </c>
       <c r="H20" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>617.58001444416459</v>
       </c>
       <c r="I20" s="47">
@@ -11046,23 +11195,31 @@
         <v>8.8000000000000007</v>
       </c>
       <c r="K20" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.109112500000002</v>
       </c>
       <c r="L20" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>624.76947676935129</v>
       </c>
-      <c r="M20" s="48"/>
-      <c r="N20" s="48"/>
-      <c r="O20" s="48"/>
+      <c r="M20" s="48">
+        <v>34.037999999999997</v>
+      </c>
+      <c r="N20" s="48">
+        <f t="shared" ref="N20:N22" si="9">SQRT(2*M20)</f>
+        <v>8.2508181412512052</v>
+      </c>
+      <c r="O20" s="48">
+        <f t="shared" ref="O20:O22" si="10">1.854*C20/(0.001*N20)^2</f>
+        <v>681.13992596509797</v>
+      </c>
     </row>
     <row r="21" spans="2:15">
       <c r="B21" s="46">
         <v>245.2</v>
       </c>
       <c r="C21" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5010399999999999E-2</v>
       </c>
       <c r="D21" s="46">
@@ -11075,11 +11232,11 @@
         <v>7.71</v>
       </c>
       <c r="G21" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>31.126050000000003</v>
       </c>
       <c r="H21" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>744.86292992525523</v>
       </c>
       <c r="I21" s="47">
@@ -11089,23 +11246,31 @@
         <v>8.2100000000000009</v>
       </c>
       <c r="K21" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>33.0078125</v>
       </c>
       <c r="L21" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>702.39858518343192</v>
       </c>
-      <c r="M21" s="48"/>
-      <c r="N21" s="48"/>
-      <c r="O21" s="48"/>
+      <c r="M21" s="48">
+        <v>34.142800000000001</v>
+      </c>
+      <c r="N21" s="48">
+        <f t="shared" si="9"/>
+        <v>8.263510150051248</v>
+      </c>
+      <c r="O21" s="48">
+        <f t="shared" si="10"/>
+        <v>679.04919338777142</v>
+      </c>
     </row>
     <row r="22" spans="2:15">
       <c r="B22" s="46">
         <v>245.2</v>
       </c>
       <c r="C22" s="47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2.5010399999999999E-2</v>
       </c>
       <c r="D22" s="46">
@@ -11118,11 +11283,11 @@
         <v>8.5500000000000007</v>
       </c>
       <c r="G22" s="48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>39.028612500000008</v>
       </c>
       <c r="H22" s="48">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>594.04214792416712</v>
       </c>
       <c r="I22" s="47">
@@ -11132,16 +11297,24 @@
         <v>8.83</v>
       </c>
       <c r="K22" s="48">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>37.975612499999997</v>
       </c>
       <c r="L22" s="48">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>610.51393970274989</v>
       </c>
-      <c r="M22" s="48"/>
-      <c r="N22" s="48"/>
-      <c r="O22" s="48"/>
+      <c r="M22" s="48">
+        <v>40.537999999999997</v>
+      </c>
+      <c r="N22" s="48">
+        <f t="shared" si="9"/>
+        <v>9.004221232288776</v>
+      </c>
+      <c r="O22" s="48">
+        <f t="shared" si="10"/>
+        <v>571.923646948542</v>
+      </c>
     </row>
     <row r="23" spans="2:15">
       <c r="B23" s="46"/>
@@ -11163,7 +11336,10 @@
       </c>
       <c r="M23" s="49"/>
       <c r="N23" s="49"/>
-      <c r="O23" s="49"/>
+      <c r="O23" s="49">
+        <f>AVERAGE(O19:O22)</f>
+        <v>658.16840260803519</v>
+      </c>
     </row>
     <row r="24" spans="2:15">
       <c r="B24" s="46"/>
@@ -11185,7 +11361,10 @@
       </c>
       <c r="M24" s="49"/>
       <c r="N24" s="49"/>
-      <c r="O24" s="49"/>
+      <c r="O24" s="49">
+        <f>STDEV(O19:O22)</f>
+        <v>58.306589924730034</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
   <si>
     <t>Load</t>
   </si>
@@ -254,6 +254,30 @@
   <si>
     <t>Software 2 Error</t>
   </si>
+  <si>
+    <t>Jackie Glass 1</t>
+  </si>
+  <si>
+    <t>Jackie Glass 2</t>
+  </si>
+  <si>
+    <t>Nicole Glass 1</t>
+  </si>
+  <si>
+    <t>Nicole Glass 2</t>
+  </si>
+  <si>
+    <t>Nicole calibrated these once</t>
+  </si>
+  <si>
+    <t>FOR GLASS</t>
+  </si>
+  <si>
+    <t>Jackie Meyer</t>
+  </si>
+  <si>
+    <t>Nicole Meyer</t>
+  </si>
 </sst>
 </file>
 
@@ -390,7 +414,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="315">
+  <cellStyleXfs count="361">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -706,8 +730,54 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -765,8 +835,11 @@
     <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="315">
+  <cellStyles count="361">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -924,6 +997,29 @@
     <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1081,6 +1177,29 @@
     <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1610,11 +1729,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131218680"/>
-        <c:axId val="2131223816"/>
+        <c:axId val="2086565976"/>
+        <c:axId val="2086571496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131218680"/>
+        <c:axId val="2086565976"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1644,12 +1763,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131223816"/>
+        <c:crossAx val="2086571496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131223816"/>
+        <c:axId val="2086571496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1678,7 +1797,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131218680"/>
+        <c:crossAx val="2086565976"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2203,11 +2322,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129813288"/>
-        <c:axId val="2129806248"/>
+        <c:axId val="2085965544"/>
+        <c:axId val="2085959832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129813288"/>
+        <c:axId val="2085965544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -2237,12 +2356,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129806248"/>
+        <c:crossAx val="2085959832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129806248"/>
+        <c:axId val="2085959832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2270,7 +2389,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129813288"/>
+        <c:crossAx val="2085965544"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2741,11 +2860,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2129657960"/>
-        <c:axId val="2129663544"/>
+        <c:axId val="2085923528"/>
+        <c:axId val="2085917944"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2129657960"/>
+        <c:axId val="2085923528"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2773,12 +2892,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2129663544"/>
+        <c:crossAx val="2085917944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2129663544"/>
+        <c:axId val="2085917944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2815,7 +2934,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="2129657960"/>
+        <c:crossAx val="2085923528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3157,11 +3276,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2131245320"/>
-        <c:axId val="2131250856"/>
+        <c:axId val="2085885928"/>
+        <c:axId val="2085880456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2131245320"/>
+        <c:axId val="2085885928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3183,18 +3302,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131250856"/>
+        <c:crossAx val="2085880456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2131250856"/>
+        <c:axId val="2085880456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -3218,13 +3338,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2131245320"/>
+        <c:crossAx val="2085885928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3307,7 +3428,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Human Error'!$S$7:$S$9</c:f>
+                <c:f>'Human Error'!$AB$7:$AB$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3325,7 +3446,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Human Error'!$S$7:$S$9</c:f>
+                <c:f>'Human Error'!$AB$7:$AB$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3358,7 +3479,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
+              <c:f>'Human Error'!$Z$7:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3376,7 +3497,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Human Error'!$R$7:$R$9</c:f>
+              <c:f>'Human Error'!$AA$7:$AA$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3416,7 +3537,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Human Error'!$U$7:$U$9</c:f>
+                <c:f>'Human Error'!$AD$7:$AD$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3434,7 +3555,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Human Error'!$U$7:$U$9</c:f>
+                <c:f>'Human Error'!$AD$7:$AD$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3460,7 +3581,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
+              <c:f>'Human Error'!$Z$7:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3478,7 +3599,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Human Error'!$T$7:$T$9</c:f>
+              <c:f>'Human Error'!$AC$7:$AC$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3514,7 +3635,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'Human Error'!$W$7:$W$9</c:f>
+                <c:f>'Human Error'!$AF$7:$AF$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3532,7 +3653,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'Human Error'!$W$7:$W$9</c:f>
+                <c:f>'Human Error'!$AF$7:$AF$9</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3558,7 +3679,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'Human Error'!$Q$7:$Q$9</c:f>
+              <c:f>'Human Error'!$Z$7:$Z$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3576,7 +3697,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Human Error'!$V$7:$V$9</c:f>
+              <c:f>'Human Error'!$AE$7:$AE$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3602,11 +3723,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2130939112"/>
-        <c:axId val="2130944536"/>
+        <c:axId val="2085811768"/>
+        <c:axId val="2085806248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2130939112"/>
+        <c:axId val="2085811768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -3636,12 +3757,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130944536"/>
+        <c:crossAx val="2085806248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2130944536"/>
+        <c:axId val="2085806248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="550.0"/>
@@ -3678,7 +3799,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2130939112"/>
+        <c:crossAx val="2085811768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3693,6 +3814,605 @@
           <c:y val="0.421693642461359"/>
           <c:w val="0.194025757892897"/>
           <c:h val="0.249141732283465"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="1"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="1400"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="118"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="18"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>User 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Error'!$AK$7:$AK$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.147940416522152</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0677010933129324</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.291814817829604</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Error'!$AK$7:$AK$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.147940416522152</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.0677010933129324</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.291814817829604</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Human Error'!$AI$7:$AI$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Human Error'!$AJ$7:$AJ$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.25944312599576</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.479987882012724</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.429744337126648</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>User 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Error'!$AM$7:$AM$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0711168713881597</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.127710839649722</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.109401357751937</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Error'!$AM$7:$AM$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.0711168713881597</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.127710839649722</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.109401357751937</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Human Error'!$AI$7:$AI$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Human Error'!$AL$7:$AL$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.158177240209328</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.184662052675598</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.28799880454695</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>AFM</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.285881054514705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.219187077328185</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.216382288623501</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.285881054514705</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.219187077328185</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.216382288623501</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.891172676573041</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.095248584708238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.148357155345368</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Laser Profiler</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.513463012690007</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.404654342414162</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.142482881460747</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.513463012690007</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.404654342414162</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.142482881460747</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>6.23150683770104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.460317390559146</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.62883710799135</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Metallization</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.137495463288563</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.478729568084866</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.194602302946515</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.137495463288563</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.478729568084866</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.194602302946515</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>245.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+              <c:numCache>
+                <c:formatCode>0.000</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7.012452111392085</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.927572232311186</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.92236264134766</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2136177528"/>
+        <c:axId val="2136182568"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2136177528"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Load (mN)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2136182568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2136182568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="4.5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Hardness (GPa)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0.0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="2136177528"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.435422350936142"/>
+          <c:y val="0.299048556430446"/>
+          <c:w val="0.256751541030574"/>
+          <c:h val="0.415236220472441"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -3855,13 +4575,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>67733</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>169333</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>30</xdr:col>
       <xdr:colOff>643466</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>84666</xdr:rowOff>
@@ -3878,6 +4598,38 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>584200</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>160867</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>169333</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -9067,7 +9819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AO21"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView topLeftCell="T2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
@@ -10428,10 +11180,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:W24"/>
+  <dimension ref="B2:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C5" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" topLeftCell="AE9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10439,26 +11191,38 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="13" max="15" width="12.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" style="42" customWidth="1"/>
+    <col min="17" max="24" width="12.6640625" customWidth="1"/>
+    <col min="28" max="28" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23">
+    <row r="2" spans="2:41">
       <c r="B2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="2:23">
+    <row r="3" spans="2:41">
       <c r="B3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="2:23">
+    <row r="5" spans="2:41">
       <c r="Q5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Z5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="2:23">
+      <c r="AI5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="2:41">
       <c r="B6" s="2" t="s">
         <v>54</v>
       </c>
@@ -10501,29 +11265,71 @@
       <c r="O6" s="2" t="s">
         <v>72</v>
       </c>
+      <c r="P6" s="41"/>
       <c r="Q6" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="R6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="S6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="U6" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="V6" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="R6" s="2" t="s">
+      <c r="AA6" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="AB6" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="AC6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U6" s="2" t="s">
+      <c r="AD6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="V6" s="2" t="s">
+      <c r="AE6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="W6" s="2" t="s">
+      <c r="AF6" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="7" spans="2:23">
+      <c r="AI6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="AK6" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+    </row>
+    <row r="7" spans="2:41">
       <c r="B7" s="23">
         <v>2942</v>
       </c>
@@ -10573,35 +11379,83 @@
         <f>1.854*C7/(0.001*N7)^2</f>
         <v>680.81531060570478</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="P7" s="43"/>
+      <c r="Q7" s="24">
+        <v>34.08</v>
+      </c>
+      <c r="R7" s="24">
+        <v>33.39</v>
+      </c>
+      <c r="S7" s="27">
+        <f>1.854*C7/(0.001*1/2*(R7+Q7))^2</f>
+        <v>488.86747155645094</v>
+      </c>
+      <c r="T7" s="27">
+        <f>B7/(1/2*AVERAGE(Q7:R7)^2)</f>
+        <v>5.1702463307364139</v>
+      </c>
+      <c r="U7" s="24">
+        <v>33.79</v>
+      </c>
+      <c r="V7" s="24">
+        <v>34.049999999999997</v>
+      </c>
+      <c r="W7" s="27">
+        <f>1.854*C7/(0.001*1/2*(V7+U7))^2</f>
+        <v>483.54943791162327</v>
+      </c>
+      <c r="X7" s="27">
+        <f>B7/(1/2*AVERAGE(U7:V7)^2)</f>
+        <v>5.1140029814880732</v>
+      </c>
+      <c r="Z7" s="2">
         <v>2942</v>
       </c>
-      <c r="R7" s="3">
+      <c r="AA7" s="3">
         <f>H11</f>
         <v>685.35986772799095</v>
       </c>
-      <c r="S7" s="3">
+      <c r="AB7" s="3">
         <f>H12</f>
         <v>14.124539009811716</v>
       </c>
-      <c r="T7" s="3">
+      <c r="AC7" s="3">
         <f>L11</f>
         <v>679.16550811036836</v>
       </c>
-      <c r="U7" s="3">
+      <c r="AD7" s="3">
         <f>L12</f>
         <v>31.368612913237573</v>
       </c>
-      <c r="V7" s="3">
+      <c r="AE7" s="3">
         <f>O11</f>
         <v>702.25720584545434</v>
       </c>
-      <c r="W7" s="3">
+      <c r="AF7" s="3">
         <f>O12</f>
         <v>16.497545564345664</v>
       </c>
-    </row>
-    <row r="8" spans="2:23">
+      <c r="AI7" s="2">
+        <v>2942</v>
+      </c>
+      <c r="AJ7" s="3">
+        <f>T11</f>
+        <v>5.2594431259957606</v>
+      </c>
+      <c r="AK7" s="3">
+        <f>T12</f>
+        <v>0.14794041652215228</v>
+      </c>
+      <c r="AL7" s="3">
+        <f>X11</f>
+        <v>5.1581772402093282</v>
+      </c>
+      <c r="AM7" s="3">
+        <f>X12</f>
+        <v>7.1116871388159725E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:41">
       <c r="B8" s="23">
         <v>2942</v>
       </c>
@@ -10651,35 +11505,83 @@
         <f>1.854*C8/(0.001*N8)^2</f>
         <v>715.57817760509715</v>
       </c>
-      <c r="Q8" s="2">
+      <c r="P8" s="43"/>
+      <c r="Q8" s="24">
+        <v>33.46</v>
+      </c>
+      <c r="R8" s="24">
+        <v>33.72</v>
+      </c>
+      <c r="S8" s="27">
+        <f t="shared" ref="S8:S10" si="6">1.854*C8/(0.001*1/2*(R8+Q8))^2</f>
+        <v>493.0972293335364</v>
+      </c>
+      <c r="T8" s="27">
+        <f t="shared" ref="T8:T10" si="7">B8/(1/2*AVERAGE(Q8:R8)^2)</f>
+        <v>5.2149801101332178</v>
+      </c>
+      <c r="U8" s="24">
+        <v>32.78</v>
+      </c>
+      <c r="V8" s="24">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="W8" s="27">
+        <f t="shared" ref="W8:W10" si="8">1.854*C8/(0.001*1/2*(V8+U8))^2</f>
+        <v>494.56850176490741</v>
+      </c>
+      <c r="X8" s="27">
+        <f t="shared" ref="X8:X10" si="9">B8/(1/2*AVERAGE(U8:V8)^2)</f>
+        <v>5.2305402390687581</v>
+      </c>
+      <c r="Z8" s="2">
         <v>490.3</v>
       </c>
-      <c r="R8" s="3">
+      <c r="AA8" s="3">
         <f>H17</f>
         <v>701.38468653133737</v>
       </c>
-      <c r="S8" s="3">
+      <c r="AB8" s="3">
         <f>H18</f>
         <v>13.138088324258353</v>
       </c>
-      <c r="T8" s="3">
+      <c r="AC8" s="3">
         <f>L17</f>
         <v>658.83120095259972</v>
       </c>
-      <c r="U8" s="3">
+      <c r="AD8" s="3">
         <f>L18</f>
         <v>23.774465543948377</v>
       </c>
-      <c r="V8" s="3">
+      <c r="AE8" s="3">
         <f>O17</f>
         <v>730.75959458237912</v>
       </c>
-      <c r="W8" s="3">
+      <c r="AF8" s="3">
         <f>O18</f>
         <v>15.685866640230246</v>
       </c>
-    </row>
-    <row r="9" spans="2:23">
+      <c r="AI8" s="2">
+        <v>490.3</v>
+      </c>
+      <c r="AJ8" s="3">
+        <f>T17</f>
+        <v>5.4799878820127246</v>
+      </c>
+      <c r="AK8" s="3">
+        <f>T18</f>
+        <v>6.7701093312932406E-2</v>
+      </c>
+      <c r="AL8" s="3">
+        <f>X17</f>
+        <v>5.1846620526755975</v>
+      </c>
+      <c r="AM8" s="3">
+        <f>X18</f>
+        <v>0.12771083964972155</v>
+      </c>
+    </row>
+    <row r="9" spans="2:41">
       <c r="B9" s="23">
         <v>2942</v>
       </c>
@@ -10726,38 +11628,86 @@
         <v>28.237223659559731</v>
       </c>
       <c r="O9" s="27">
-        <f t="shared" ref="O8:O10" si="6">1.854*C9/(0.001*N9)^2</f>
+        <f t="shared" ref="O9:O10" si="10">1.854*C9/(0.001*N9)^2</f>
         <v>697.76403766118597</v>
       </c>
-      <c r="Q9" s="2">
+      <c r="P9" s="43"/>
+      <c r="Q9" s="24">
+        <v>33.31</v>
+      </c>
+      <c r="R9" s="24">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="S9" s="27">
+        <f t="shared" si="6"/>
+        <v>518.08341191960449</v>
+      </c>
+      <c r="T9" s="27">
+        <f t="shared" si="7"/>
+        <v>5.4792331569220165</v>
+      </c>
+      <c r="U9" s="24">
+        <v>33.130000000000003</v>
+      </c>
+      <c r="V9" s="24">
+        <v>34.11</v>
+      </c>
+      <c r="W9" s="27">
+        <f t="shared" si="8"/>
+        <v>492.21761500707237</v>
+      </c>
+      <c r="X9" s="27">
+        <f t="shared" si="9"/>
+        <v>5.2056773378923404</v>
+      </c>
+      <c r="Z9" s="2">
         <v>245.2</v>
       </c>
-      <c r="R9" s="3">
+      <c r="AA9" s="3">
         <f>H23</f>
         <v>646.22411757000259</v>
       </c>
-      <c r="S9" s="3">
+      <c r="AB9" s="3">
         <f>H24</f>
         <v>67.306145322027604</v>
       </c>
-      <c r="T9" s="3">
+      <c r="AC9" s="3">
         <f>L23</f>
         <v>635.48491212339718</v>
       </c>
-      <c r="U9" s="3">
+      <c r="AD9" s="3">
         <f>L24</f>
         <v>45.427421080392136</v>
       </c>
-      <c r="V9" s="3">
+      <c r="AE9" s="3">
         <f>O23</f>
         <v>658.16840260803519</v>
       </c>
-      <c r="W9" s="3">
+      <c r="AF9" s="3">
         <f>O24</f>
         <v>58.306589924730034</v>
       </c>
-    </row>
-    <row r="10" spans="2:23">
+      <c r="AI9" s="2">
+        <v>245.2</v>
+      </c>
+      <c r="AJ9" s="3">
+        <f>T23</f>
+        <v>5.4297443371266478</v>
+      </c>
+      <c r="AK9" s="3">
+        <f>T24</f>
+        <v>0.29181481782960378</v>
+      </c>
+      <c r="AL9" s="3">
+        <f>X23</f>
+        <v>5.2879988045469499</v>
+      </c>
+      <c r="AM9" s="3">
+        <f>X24</f>
+        <v>0.109401357751937</v>
+      </c>
+    </row>
+    <row r="10" spans="2:41">
       <c r="B10" s="23">
         <v>2942</v>
       </c>
@@ -10804,11 +11754,40 @@
         <v>27.897311698441481</v>
       </c>
       <c r="O10" s="27">
+        <f t="shared" si="10"/>
+        <v>714.87129750982979</v>
+      </c>
+      <c r="P10" s="43"/>
+      <c r="Q10" s="24">
+        <v>33.9</v>
+      </c>
+      <c r="R10" s="24">
+        <v>33.549999999999997</v>
+      </c>
+      <c r="S10" s="27">
         <f t="shared" si="6"/>
-        <v>714.87129750982979</v>
-      </c>
-    </row>
-    <row r="11" spans="2:23">
+        <v>489.15742853202096</v>
+      </c>
+      <c r="T10" s="27">
+        <f t="shared" si="7"/>
+        <v>5.1733129061913932</v>
+      </c>
+      <c r="U10" s="24">
+        <v>34.32</v>
+      </c>
+      <c r="V10" s="24">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="W10" s="27">
+        <f t="shared" si="8"/>
+        <v>480.56960839940825</v>
+      </c>
+      <c r="X10" s="27">
+        <f t="shared" si="9"/>
+        <v>5.0824884023881394</v>
+      </c>
+    </row>
+    <row r="11" spans="2:41">
       <c r="B11" s="23"/>
       <c r="C11" s="24"/>
       <c r="D11" s="23"/>
@@ -10832,8 +11811,29 @@
         <f>AVERAGE(O7:O10)</f>
         <v>702.25720584545434</v>
       </c>
-    </row>
-    <row r="12" spans="2:23">
+      <c r="P11" s="21"/>
+      <c r="Q11" s="57"/>
+      <c r="R11" s="57"/>
+      <c r="S11" s="26">
+        <f>AVERAGE(S7:S10)</f>
+        <v>497.30138533540321</v>
+      </c>
+      <c r="T11" s="26">
+        <f>AVERAGE(T7:T10)</f>
+        <v>5.2594431259957606</v>
+      </c>
+      <c r="U11" s="57"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="26">
+        <f>AVERAGE(W7:W10)</f>
+        <v>487.72629077075283</v>
+      </c>
+      <c r="X11" s="26">
+        <f>AVERAGE(X7:X10)</f>
+        <v>5.1581772402093282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:41">
       <c r="B12" s="23"/>
       <c r="C12" s="24"/>
       <c r="D12" s="23"/>
@@ -10857,8 +11857,29 @@
         <f>STDEV(O7:O10)</f>
         <v>16.497545564345664</v>
       </c>
-    </row>
-    <row r="13" spans="2:23">
+      <c r="P12" s="21"/>
+      <c r="Q12" s="57"/>
+      <c r="R12" s="57"/>
+      <c r="S12" s="26">
+        <f>STDEV(S7:S10)</f>
+        <v>13.988358143835638</v>
+      </c>
+      <c r="T12" s="26">
+        <f>STDEV(T7:T10)</f>
+        <v>0.14794041652215228</v>
+      </c>
+      <c r="U12" s="57"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="26">
+        <f>STDEV(W7:W10)</f>
+        <v>6.7243846572360333</v>
+      </c>
+      <c r="X12" s="26">
+        <f>STDEV(X7:X10)</f>
+        <v>7.1116871388159725E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:41">
       <c r="B13" s="28">
         <v>490.3</v>
       </c>
@@ -10901,15 +11922,44 @@
         <v>62.484499999999997</v>
       </c>
       <c r="N13" s="34">
-        <f t="shared" ref="N13:N16" si="7">SQRT(2*M13)</f>
+        <f t="shared" ref="N13:N16" si="11">SQRT(2*M13)</f>
         <v>11.178953439387785</v>
       </c>
       <c r="O13" s="34">
-        <f t="shared" ref="O13:O16" si="8">1.854*C13/(0.001*N13)^2</f>
+        <f t="shared" ref="O13:O16" si="12">1.854*C13/(0.001*N13)^2</f>
         <v>741.94122062271458</v>
       </c>
-    </row>
-    <row r="14" spans="2:23">
+      <c r="P13" s="43"/>
+      <c r="Q13" s="29">
+        <v>13.53</v>
+      </c>
+      <c r="R13" s="29">
+        <v>13.18</v>
+      </c>
+      <c r="S13" s="34">
+        <f>1.854*C13/(0.001*1/2*(R13+Q13))^2</f>
+        <v>519.85713630924431</v>
+      </c>
+      <c r="T13" s="34">
+        <f>B13/(1/2*AVERAGE(Q13:R13)^2)</f>
+        <v>5.4979920078393762</v>
+      </c>
+      <c r="U13" s="29">
+        <v>13.83</v>
+      </c>
+      <c r="V13" s="29">
+        <v>14.15</v>
+      </c>
+      <c r="W13" s="34">
+        <f>1.854*C13/(0.001*1/2*(V13+U13))^2</f>
+        <v>473.73597499694716</v>
+      </c>
+      <c r="X13" s="34">
+        <f>B13/(1/2*AVERAGE(U13:V13)^2)</f>
+        <v>5.0102161198568771</v>
+      </c>
+    </row>
+    <row r="14" spans="2:41">
       <c r="B14" s="28">
         <v>490.3</v>
       </c>
@@ -10952,15 +12002,44 @@
         <v>65.524799999999999</v>
       </c>
       <c r="N14" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11.447689723258575</v>
       </c>
       <c r="O14" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>707.51572229140731</v>
       </c>
-    </row>
-    <row r="15" spans="2:23">
+      <c r="P14" s="43"/>
+      <c r="Q14" s="29">
+        <v>13.34</v>
+      </c>
+      <c r="R14" s="29">
+        <v>13.66</v>
+      </c>
+      <c r="S14" s="34">
+        <f t="shared" ref="S14:S16" si="13">1.854*C14/(0.001*1/2*(R14+Q14))^2</f>
+        <v>508.7498074074075</v>
+      </c>
+      <c r="T14" s="34">
+        <f t="shared" ref="T14:T16" si="14">B14/(1/2*AVERAGE(Q14:R14)^2)</f>
+        <v>5.3805212620027438</v>
+      </c>
+      <c r="U14" s="29">
+        <v>13.23</v>
+      </c>
+      <c r="V14" s="29">
+        <v>14.21</v>
+      </c>
+      <c r="W14" s="34">
+        <f t="shared" ref="W14:W16" si="15">1.854*C14/(0.001*1/2*(V14+U14))^2</f>
+        <v>492.5650260520701</v>
+      </c>
+      <c r="X14" s="34">
+        <f t="shared" ref="X14:X16" si="16">B14/(1/2*AVERAGE(U14:V14)^2)</f>
+        <v>5.2093515456994961</v>
+      </c>
+    </row>
+    <row r="15" spans="2:41">
       <c r="B15" s="28">
         <v>490.3</v>
       </c>
@@ -11003,15 +12082,44 @@
         <v>62.938800000000001</v>
       </c>
       <c r="N15" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11.219518706254739</v>
       </c>
       <c r="O15" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>736.5857976319852</v>
       </c>
-    </row>
-    <row r="16" spans="2:23">
+      <c r="P15" s="43"/>
+      <c r="Q15" s="29">
+        <v>13.86</v>
+      </c>
+      <c r="R15" s="29">
+        <v>12.77</v>
+      </c>
+      <c r="S15" s="34">
+        <f t="shared" si="13"/>
+        <v>522.98526546100027</v>
+      </c>
+      <c r="T15" s="34">
+        <f t="shared" si="14"/>
+        <v>5.5310749990587418</v>
+      </c>
+      <c r="U15" s="29">
+        <v>13</v>
+      </c>
+      <c r="V15" s="29">
+        <v>14.16</v>
+      </c>
+      <c r="W15" s="34">
+        <f t="shared" si="15"/>
+        <v>502.7733563826211</v>
+      </c>
+      <c r="X15" s="34">
+        <f t="shared" si="16"/>
+        <v>5.3173145121583545</v>
+      </c>
+    </row>
+    <row r="16" spans="2:41">
       <c r="B16" s="28">
         <v>490.3</v>
       </c>
@@ -11054,15 +12162,44 @@
         <v>62.903799999999997</v>
       </c>
       <c r="N16" s="34">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>11.216398709033127</v>
       </c>
       <c r="O16" s="34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="12"/>
         <v>736.99563778340894</v>
       </c>
-    </row>
-    <row r="17" spans="2:15">
+      <c r="P16" s="43"/>
+      <c r="Q16" s="29">
+        <v>13.36</v>
+      </c>
+      <c r="R16" s="29">
+        <v>13.32</v>
+      </c>
+      <c r="S16" s="34">
+        <f t="shared" si="13"/>
+        <v>521.02688760567253</v>
+      </c>
+      <c r="T16" s="34">
+        <f t="shared" si="14"/>
+        <v>5.5103632591500356</v>
+      </c>
+      <c r="U16" s="29">
+        <v>13.69</v>
+      </c>
+      <c r="V16" s="29">
+        <v>13.77</v>
+      </c>
+      <c r="W16" s="34">
+        <f t="shared" si="15"/>
+        <v>491.84778548311539</v>
+      </c>
+      <c r="X16" s="34">
+        <f t="shared" si="16"/>
+        <v>5.2017660329876634</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24">
       <c r="B17" s="28"/>
       <c r="C17" s="29"/>
       <c r="D17" s="28"/>
@@ -11086,8 +12223,29 @@
         <f>AVERAGE(O13:O16)</f>
         <v>730.75959458237912</v>
       </c>
-    </row>
-    <row r="18" spans="2:15">
+      <c r="P17" s="21"/>
+      <c r="Q17" s="58"/>
+      <c r="R17" s="58"/>
+      <c r="S17" s="33">
+        <f>AVERAGE(S13:S16)</f>
+        <v>518.15477419583112</v>
+      </c>
+      <c r="T17" s="33">
+        <f>AVERAGE(T13:T16)</f>
+        <v>5.4799878820127246</v>
+      </c>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="33">
+        <f>AVERAGE(W13:W16)</f>
+        <v>490.23053572868844</v>
+      </c>
+      <c r="X17" s="33">
+        <f>AVERAGE(X13:X16)</f>
+        <v>5.1846620526755975</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24">
       <c r="B18" s="28"/>
       <c r="C18" s="29"/>
       <c r="D18" s="28"/>
@@ -11111,8 +12269,29 @@
         <f>STDEV(O13:O16)</f>
         <v>15.685866640230246</v>
       </c>
-    </row>
-    <row r="19" spans="2:15">
+      <c r="P18" s="21"/>
+      <c r="Q18" s="58"/>
+      <c r="R18" s="58"/>
+      <c r="S18" s="33">
+        <f>STDEV(S13:S16)</f>
+        <v>6.4014091771109838</v>
+      </c>
+      <c r="T18" s="33">
+        <f>STDEV(T13:T16)</f>
+        <v>6.7701093312932406E-2</v>
+      </c>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="33">
+        <f>STDEV(W13:W16)</f>
+        <v>12.075570732239775</v>
+      </c>
+      <c r="X18" s="33">
+        <f>STDEV(X13:X16)</f>
+        <v>0.12771083964972155</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24">
       <c r="B19" s="46">
         <v>245.2</v>
       </c>
@@ -11162,8 +12341,37 @@
         <f>1.854*C19/(0.001*N19)^2</f>
         <v>700.56084413072892</v>
       </c>
-    </row>
-    <row r="20" spans="2:15">
+      <c r="P19" s="43"/>
+      <c r="Q19" s="47">
+        <v>9.44</v>
+      </c>
+      <c r="R19" s="47">
+        <v>9.34</v>
+      </c>
+      <c r="S19" s="48">
+        <f>1.854*C19/(0.001*1/2*(R19+Q19))^2</f>
+        <v>525.89517092141386</v>
+      </c>
+      <c r="T19" s="48">
+        <f>B19/(1/2*AVERAGE(Q19:R19)^2)</f>
+        <v>5.5618500636822743</v>
+      </c>
+      <c r="U19" s="47">
+        <v>9.7200000000000006</v>
+      </c>
+      <c r="V19" s="47">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="W19" s="48">
+        <f>1.854*C19/(0.001*1/2*(V19+U19))^2</f>
+        <v>504.18875240436631</v>
+      </c>
+      <c r="X19" s="48">
+        <f>B19/(1/2*AVERAGE(U19:V19)^2)</f>
+        <v>5.332283694019992</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24">
       <c r="B20" s="46">
         <v>245.2</v>
       </c>
@@ -11206,15 +12414,44 @@
         <v>34.037999999999997</v>
       </c>
       <c r="N20" s="48">
-        <f t="shared" ref="N20:N22" si="9">SQRT(2*M20)</f>
+        <f t="shared" ref="N20:N22" si="17">SQRT(2*M20)</f>
         <v>8.2508181412512052</v>
       </c>
       <c r="O20" s="48">
-        <f t="shared" ref="O20:O22" si="10">1.854*C20/(0.001*N20)^2</f>
+        <f t="shared" ref="O20:O22" si="18">1.854*C20/(0.001*N20)^2</f>
         <v>681.13992596509797</v>
       </c>
-    </row>
-    <row r="21" spans="2:15">
+      <c r="P20" s="43"/>
+      <c r="Q20" s="47">
+        <v>10.119999999999999</v>
+      </c>
+      <c r="R20" s="47">
+        <v>9.4600000000000009</v>
+      </c>
+      <c r="S20" s="48">
+        <f t="shared" ref="S20:S22" si="19">1.854*C20/(0.001*1/2*(R20+Q20))^2</f>
+        <v>483.79901944929316</v>
+      </c>
+      <c r="T20" s="48">
+        <f t="shared" ref="T20:T22" si="20">B20/(1/2*AVERAGE(Q20:R20)^2)</f>
+        <v>5.116642547637257</v>
+      </c>
+      <c r="U20" s="47">
+        <v>9.67</v>
+      </c>
+      <c r="V20" s="47">
+        <v>9.89</v>
+      </c>
+      <c r="W20" s="48">
+        <f t="shared" ref="W20:W22" si="21">1.854*C20/(0.001*1/2*(V20+U20))^2</f>
+        <v>484.78888930708717</v>
+      </c>
+      <c r="X20" s="48">
+        <f t="shared" ref="X20:X22" si="22">B20/(1/2*AVERAGE(U20:V20)^2)</f>
+        <v>5.1271113787580331</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24">
       <c r="B21" s="46">
         <v>245.2</v>
       </c>
@@ -11257,15 +12494,44 @@
         <v>34.142800000000001</v>
       </c>
       <c r="N21" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>8.263510150051248</v>
       </c>
       <c r="O21" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>679.04919338777142</v>
       </c>
-    </row>
-    <row r="22" spans="2:15">
+      <c r="P21" s="43"/>
+      <c r="Q21" s="47">
+        <v>9.65</v>
+      </c>
+      <c r="R21" s="47">
+        <v>9.64</v>
+      </c>
+      <c r="S21" s="48">
+        <f t="shared" si="19"/>
+        <v>498.45493881954013</v>
+      </c>
+      <c r="T21" s="48">
+        <f t="shared" si="20"/>
+        <v>5.2716430697753669</v>
+      </c>
+      <c r="U21" s="47">
+        <v>9.42</v>
+      </c>
+      <c r="V21" s="47">
+        <v>9.69</v>
+      </c>
+      <c r="W21" s="48">
+        <f t="shared" si="21"/>
+        <v>507.88920789907564</v>
+      </c>
+      <c r="X21" s="48">
+        <f t="shared" si="22"/>
+        <v>5.3714195898542165</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24">
       <c r="B22" s="46">
         <v>245.2</v>
       </c>
@@ -11308,15 +12574,44 @@
         <v>40.537999999999997</v>
       </c>
       <c r="N22" s="48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="17"/>
         <v>9.004221232288776</v>
       </c>
       <c r="O22" s="48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="18"/>
         <v>571.923646948542</v>
       </c>
-    </row>
-    <row r="23" spans="2:15">
+      <c r="P22" s="43"/>
+      <c r="Q22" s="47">
+        <v>9.7899999999999991</v>
+      </c>
+      <c r="R22" s="47">
+        <v>8.65</v>
+      </c>
+      <c r="S22" s="48">
+        <f t="shared" si="19"/>
+        <v>545.46705502044517</v>
+      </c>
+      <c r="T22" s="48">
+        <f t="shared" si="20"/>
+        <v>5.7688416674116922</v>
+      </c>
+      <c r="U22" s="47">
+        <v>9.2799999999999994</v>
+      </c>
+      <c r="V22" s="47">
+        <v>9.92</v>
+      </c>
+      <c r="W22" s="48">
+        <f t="shared" si="21"/>
+        <v>503.13890625000005</v>
+      </c>
+      <c r="X22" s="48">
+        <f t="shared" si="22"/>
+        <v>5.3211805555555554</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24">
       <c r="B23" s="46"/>
       <c r="C23" s="46"/>
       <c r="D23" s="46"/>
@@ -11340,8 +12635,29 @@
         <f>AVERAGE(O19:O22)</f>
         <v>658.16840260803519</v>
       </c>
-    </row>
-    <row r="24" spans="2:15">
+      <c r="P23" s="21"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="49">
+        <f>AVERAGE(S19:S22)</f>
+        <v>513.40404605267304</v>
+      </c>
+      <c r="T23" s="49">
+        <f>AVERAGE(T19:T22)</f>
+        <v>5.4297443371266478</v>
+      </c>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="49">
+        <f>AVERAGE(W19:W22)</f>
+        <v>500.00143896513231</v>
+      </c>
+      <c r="X23" s="49">
+        <f>AVERAGE(X19:X22)</f>
+        <v>5.2879988045469499</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24">
       <c r="B24" s="46"/>
       <c r="C24" s="46"/>
       <c r="D24" s="46"/>
@@ -11364,6 +12680,27 @@
       <c r="O24" s="49">
         <f>STDEV(O19:O22)</f>
         <v>58.306589924730034</v>
+      </c>
+      <c r="P24" s="21"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="49">
+        <f>STDEV(S19:S22)</f>
+        <v>27.592258285060378</v>
+      </c>
+      <c r="T24" s="49">
+        <f>STDEV(T19:T22)</f>
+        <v>0.29181481782960378</v>
+      </c>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="49">
+        <f>STDEV(W19:W22)</f>
+        <v>10.344335980876615</v>
+      </c>
+      <c r="X24" s="49">
+        <f>STDEV(X19:X22)</f>
+        <v>0.109401357751937</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
   <si>
     <t>Load</t>
   </si>
@@ -278,6 +278,9 @@
   <si>
     <t>Nicole Meyer</t>
   </si>
+  <si>
+    <t>Redone AFM #2</t>
+  </si>
 </sst>
 </file>
 
@@ -414,8 +417,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="361">
+  <cellStyleXfs count="367">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -839,7 +848,7 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="361">
+  <cellStyles count="367">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1020,6 +1029,9 @@
     <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1200,6 +1212,9 @@
     <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1729,11 +1744,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2086565976"/>
-        <c:axId val="2086571496"/>
+        <c:axId val="2095187304"/>
+        <c:axId val="2095508328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2086565976"/>
+        <c:axId val="2095187304"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1763,12 +1778,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086571496"/>
+        <c:crossAx val="2095508328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086571496"/>
+        <c:axId val="2095508328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1797,7 +1812,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086565976"/>
+        <c:crossAx val="2095187304"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2322,11 +2337,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085965544"/>
-        <c:axId val="2085959832"/>
+        <c:axId val="2073522232"/>
+        <c:axId val="2073527976"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085965544"/>
+        <c:axId val="2073522232"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -2356,12 +2371,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085959832"/>
+        <c:crossAx val="2073527976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085959832"/>
+        <c:axId val="2073527976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2389,7 +2404,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085965544"/>
+        <c:crossAx val="2073522232"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2860,11 +2875,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085923528"/>
-        <c:axId val="2085917944"/>
+        <c:axId val="2073564568"/>
+        <c:axId val="2073570120"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085923528"/>
+        <c:axId val="2073564568"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2892,12 +2907,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085917944"/>
+        <c:crossAx val="2073570120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085917944"/>
+        <c:axId val="2073570120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2934,7 +2949,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="2085923528"/>
+        <c:crossAx val="2073564568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3013,36 +3028,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.285881054514705</c:v>
+                    <c:v>0.190615277685978</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.219187077328185</c:v>
+                    <c:v>0.0993701228864828</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.216382288623501</c:v>
+                    <c:v>0.323393822595078</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.285881054514705</c:v>
+                    <c:v>0.190615277685978</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.219187077328185</c:v>
+                    <c:v>0.0993701228864828</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.216382288623501</c:v>
+                    <c:v>0.323393822595078</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3050,7 +3065,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3068,18 +3083,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.891172676573041</c:v>
+                  <c:v>7.428502557906315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.095248584708238</c:v>
+                  <c:v>7.4087065910273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.148357155345368</c:v>
+                  <c:v>7.082632497980324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3104,7 +3119,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3122,7 +3137,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3141,7 +3156,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3159,7 +3174,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+              <c:f>'LP, AFM'!$W$12:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3195,7 +3210,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3213,7 +3228,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3232,7 +3247,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3250,7 +3265,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+              <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3276,11 +3291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085885928"/>
-        <c:axId val="2085880456"/>
+        <c:axId val="2097077992"/>
+        <c:axId val="2097084248"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085885928"/>
+        <c:axId val="2097077992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3309,12 +3324,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085880456"/>
+        <c:crossAx val="2097084248"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085880456"/>
+        <c:axId val="2097084248"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -3345,7 +3360,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085885928"/>
+        <c:crossAx val="2097077992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3723,11 +3738,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2085811768"/>
-        <c:axId val="2085806248"/>
+        <c:axId val="2097133912"/>
+        <c:axId val="2073601208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2085811768"/>
+        <c:axId val="2097133912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -3757,12 +3772,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085806248"/>
+        <c:crossAx val="2073601208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2085806248"/>
+        <c:axId val="2073601208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="550.0"/>
@@ -3799,7 +3814,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2085811768"/>
+        <c:crossAx val="2097133912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4067,36 +4082,36 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.285881054514705</c:v>
+                    <c:v>0.190615277685978</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.219187077328185</c:v>
+                    <c:v>0.0993701228864828</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.216382288623501</c:v>
+                    <c:v>0.323393822595078</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.285881054514705</c:v>
+                    <c:v>0.190615277685978</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.219187077328185</c:v>
+                    <c:v>0.0993701228864828</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.216382288623501</c:v>
+                    <c:v>0.323393822595078</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4104,7 +4119,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4122,18 +4137,18 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.891172676573041</c:v>
+                  <c:v>7.428502557906315</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.095248584708238</c:v>
+                  <c:v>7.4087065910273</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.148357155345368</c:v>
+                  <c:v>7.082632497980324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4158,7 +4173,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4176,7 +4191,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4195,7 +4210,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4213,7 +4228,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+              <c:f>'LP, AFM'!$W$12:$W$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4249,7 +4264,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4267,7 +4282,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4286,7 +4301,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$S$12:$S$14</c:f>
+              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4304,7 +4319,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+              <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4330,11 +4345,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2136177528"/>
-        <c:axId val="2136182568"/>
+        <c:axId val="2073630616"/>
+        <c:axId val="2086817560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2136177528"/>
+        <c:axId val="2073630616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4363,12 +4378,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136182568"/>
+        <c:crossAx val="2086817560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2136182568"/>
+        <c:axId val="2086817560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -4398,7 +4413,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2136177528"/>
+        <c:crossAx val="2073630616"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4540,13 +4555,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>25</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>160866</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>42332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
@@ -9817,10 +9832,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AO21"/>
+  <dimension ref="A3:AP21"/>
   <sheetViews>
-    <sheetView topLeftCell="T2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9832,12 +9847,13 @@
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.33203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="10.83203125" style="42"/>
-    <col min="15" max="15" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="41" width="10.83203125" style="42"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="14" max="15" width="10.83203125" style="42"/>
+    <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="42" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:41">
+    <row r="3" spans="1:42">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -9869,24 +9885,27 @@
       <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="M3" s="41" t="s">
+      <c r="M3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="N3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="N3" s="41"/>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="41"/>
+      <c r="P3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="P3" s="41" t="s">
+      <c r="Q3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="Q3" s="41"/>
-      <c r="S3" t="s">
+      <c r="R3" s="41"/>
+      <c r="T3" t="s">
         <v>62</v>
       </c>
-      <c r="T3"/>
       <c r="U3"/>
-    </row>
-    <row r="4" spans="1:41" s="23" customFormat="1">
+      <c r="V3"/>
+    </row>
+    <row r="4" spans="1:42" s="23" customFormat="1">
       <c r="A4" s="42">
         <v>0.1</v>
       </c>
@@ -9921,22 +9940,24 @@
       <c r="L4" s="23">
         <v>32.289499999999997</v>
       </c>
-      <c r="M4" s="42"/>
+      <c r="M4" s="53">
+        <v>34.197000000000003</v>
+      </c>
       <c r="N4" s="42"/>
-      <c r="O4" s="23">
+      <c r="O4" s="42"/>
+      <c r="P4" s="23">
         <v>35.9251</v>
       </c>
-      <c r="P4" s="42"/>
       <c r="Q4" s="42"/>
       <c r="R4" s="42"/>
-      <c r="S4">
+      <c r="S4" s="42"/>
+      <c r="T4">
         <v>1</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>0.18703</v>
       </c>
-      <c r="U4"/>
-      <c r="V4" s="42"/>
+      <c r="V4"/>
       <c r="W4" s="42"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
@@ -9956,8 +9977,9 @@
       <c r="AM4" s="42"/>
       <c r="AN4" s="42"/>
       <c r="AO4" s="42"/>
-    </row>
-    <row r="5" spans="1:41" s="23" customFormat="1">
+      <c r="AP4" s="42"/>
+    </row>
+    <row r="5" spans="1:42" s="23" customFormat="1">
       <c r="A5" s="42"/>
       <c r="B5" s="23">
         <v>245</v>
@@ -9987,22 +10009,24 @@
       <c r="L5" s="53">
         <v>31.642700000000001</v>
       </c>
-      <c r="M5" s="42"/>
+      <c r="M5" s="53">
+        <v>32.245399999999997</v>
+      </c>
       <c r="N5" s="42"/>
-      <c r="O5" s="53">
+      <c r="O5" s="42"/>
+      <c r="P5" s="53">
         <v>34.667000000000002</v>
       </c>
-      <c r="P5" s="42"/>
       <c r="Q5" s="42"/>
       <c r="R5" s="42"/>
-      <c r="S5">
+      <c r="S5" s="42"/>
+      <c r="T5">
         <v>2</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>0.18687999999999999</v>
       </c>
-      <c r="U5"/>
-      <c r="V5" s="42"/>
+      <c r="V5"/>
       <c r="W5" s="42"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="42"/>
@@ -10022,8 +10046,9 @@
       <c r="AM5" s="42"/>
       <c r="AN5" s="42"/>
       <c r="AO5" s="42"/>
-    </row>
-    <row r="6" spans="1:41" s="23" customFormat="1">
+      <c r="AP5" s="42"/>
+    </row>
+    <row r="6" spans="1:42" s="23" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="23">
         <v>245</v>
@@ -10053,22 +10078,24 @@
       <c r="L6" s="53">
         <v>30.452500000000001</v>
       </c>
-      <c r="M6" s="42"/>
+      <c r="M6" s="53">
+        <v>32.6584</v>
+      </c>
       <c r="N6" s="42"/>
-      <c r="O6" s="23">
+      <c r="O6" s="42"/>
+      <c r="P6" s="23">
         <v>34.352499999999999</v>
       </c>
-      <c r="P6" s="42"/>
       <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
-      <c r="S6">
+      <c r="S6" s="42"/>
+      <c r="T6">
         <v>3</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>0.18692</v>
       </c>
-      <c r="U6"/>
-      <c r="V6" s="42"/>
+      <c r="V6"/>
       <c r="W6" s="42"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="42"/>
@@ -10088,8 +10115,9 @@
       <c r="AM6" s="42"/>
       <c r="AN6" s="42"/>
       <c r="AO6" s="42"/>
-    </row>
-    <row r="7" spans="1:41" s="23" customFormat="1">
+      <c r="AP6" s="42"/>
+    </row>
+    <row r="7" spans="1:42" s="23" customFormat="1">
       <c r="A7" s="42"/>
       <c r="B7" s="23">
         <v>245</v>
@@ -10122,23 +10150,25 @@
       <c r="L7" s="53">
         <v>29.8047</v>
       </c>
-      <c r="M7" s="42"/>
+      <c r="M7" s="53">
+        <v>32.823500000000003</v>
+      </c>
       <c r="N7" s="42"/>
-      <c r="O7" s="23">
+      <c r="O7" s="42"/>
+      <c r="P7" s="23">
         <v>34.806800000000003</v>
       </c>
-      <c r="P7" s="42"/>
       <c r="Q7" s="42"/>
       <c r="R7" s="42"/>
-      <c r="S7" t="s">
+      <c r="S7" s="42"/>
+      <c r="T7" t="s">
         <v>34</v>
       </c>
-      <c r="T7" s="55">
-        <f>AVERAGE(T4:T6)</f>
+      <c r="U7" s="55">
+        <f>AVERAGE(U4:U6)</f>
         <v>0.18694333333333332</v>
       </c>
-      <c r="U7" s="55"/>
-      <c r="V7" s="42"/>
+      <c r="V7" s="55"/>
       <c r="W7" s="42"/>
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
@@ -10158,8 +10188,9 @@
       <c r="AM7" s="42"/>
       <c r="AN7" s="42"/>
       <c r="AO7" s="42"/>
-    </row>
-    <row r="8" spans="1:41" s="23" customFormat="1">
+      <c r="AP7" s="42"/>
+    </row>
+    <row r="8" spans="1:42" s="23" customFormat="1">
       <c r="A8" s="42"/>
       <c r="C8" s="25" t="s">
         <v>34</v>
@@ -10188,30 +10219,33 @@
         <f>AVERAGE(L4:L7)</f>
         <v>31.047349999999998</v>
       </c>
-      <c r="M8" s="43">
-        <f>B4/L8</f>
-        <v>7.8911726765730412</v>
-      </c>
-      <c r="N8" s="43"/>
-      <c r="O8" s="26">
-        <f>AVERAGE(O4:O7)</f>
+      <c r="M8" s="26">
+        <f>AVERAGE(M4:M7)</f>
+        <v>32.981074999999997</v>
+      </c>
+      <c r="N8" s="43">
+        <f>B4/M8</f>
+        <v>7.4285025579063149</v>
+      </c>
+      <c r="O8" s="43"/>
+      <c r="P8" s="26">
+        <f>AVERAGE(P4:P7)</f>
         <v>34.937850000000005</v>
       </c>
-      <c r="P8" s="45">
-        <f>B4/O8</f>
+      <c r="Q8" s="45">
+        <f>B4/P8</f>
         <v>7.0124521113920855</v>
       </c>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="42"/>
-      <c r="S8" t="s">
+      <c r="R8" s="45"/>
+      <c r="S8" s="42"/>
+      <c r="T8" t="s">
         <v>10</v>
       </c>
-      <c r="T8" s="55">
-        <f>STDEV(T4:T6)</f>
+      <c r="U8" s="55">
+        <f>STDEV(U4:U6)</f>
         <v>7.7674534651544719E-5</v>
       </c>
-      <c r="U8" s="55"/>
-      <c r="V8" s="42"/>
+      <c r="V8" s="55"/>
       <c r="W8" s="42"/>
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
@@ -10231,8 +10265,9 @@
       <c r="AM8" s="42"/>
       <c r="AN8" s="42"/>
       <c r="AO8" s="42"/>
-    </row>
-    <row r="9" spans="1:41" s="23" customFormat="1">
+      <c r="AP8" s="42"/>
+    </row>
+    <row r="9" spans="1:42" s="23" customFormat="1">
       <c r="A9" s="42"/>
       <c r="C9" s="23" t="s">
         <v>10</v>
@@ -10264,27 +10299,30 @@
         <f>STDEV(L4:L7)</f>
         <v>1.124782021845417</v>
       </c>
-      <c r="M9" s="43">
-        <f>M8*SQRT((0)^2+(L9/L8)^2)</f>
-        <v>0.28588105451470536</v>
+      <c r="M9" s="27">
+        <f>STDEV(M4:M7)</f>
+        <v>0.84629394962192084</v>
       </c>
       <c r="N9" s="43">
-        <f>M9/M8*100</f>
-        <v>3.6227955746478107</v>
-      </c>
-      <c r="O9" s="27">
-        <f>STDEV(O4:O7)</f>
+        <f>N8*SQRT((0)^2+(M9/M8)^2)</f>
+        <v>0.19061527768597833</v>
+      </c>
+      <c r="O9" s="43">
+        <f>N9/N8*100</f>
+        <v>2.5659986814314601</v>
+      </c>
+      <c r="P9" s="27">
+        <f>STDEV(P4:P7)</f>
         <v>0.68503795758580666</v>
       </c>
-      <c r="P9" s="45">
-        <f>P8*SQRT((0)^2+(O9/O8)^2)</f>
+      <c r="Q9" s="45">
+        <f>Q8*SQRT((0)^2+(P9/P8)^2)</f>
         <v>0.13749546328856271</v>
       </c>
-      <c r="Q9" s="43">
-        <f>P9/P8*100</f>
+      <c r="R9" s="43">
+        <f>Q9/Q8*100</f>
         <v>1.9607330090025761</v>
       </c>
-      <c r="R9" s="42"/>
       <c r="S9" s="42"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
@@ -10308,8 +10346,9 @@
       <c r="AM9" s="42"/>
       <c r="AN9" s="42"/>
       <c r="AO9" s="42"/>
-    </row>
-    <row r="10" spans="1:41" s="28" customFormat="1">
+      <c r="AP9" s="42"/>
+    </row>
+    <row r="10" spans="1:42" s="28" customFormat="1">
       <c r="A10" s="42">
         <v>0.1</v>
       </c>
@@ -10344,12 +10383,14 @@
       <c r="L10" s="51">
         <v>59.0229</v>
       </c>
-      <c r="M10" s="42"/>
+      <c r="M10" s="51">
+        <v>65.555499999999995</v>
+      </c>
       <c r="N10" s="42"/>
-      <c r="O10" s="28">
+      <c r="O10" s="42"/>
+      <c r="P10" s="28">
         <v>67.726399999999998</v>
       </c>
-      <c r="P10" s="42"/>
       <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
@@ -10375,8 +10416,9 @@
       <c r="AM10" s="42"/>
       <c r="AN10" s="42"/>
       <c r="AO10" s="42"/>
-    </row>
-    <row r="11" spans="1:41" s="28" customFormat="1">
+      <c r="AP10" s="42"/>
+    </row>
+    <row r="11" spans="1:42" s="28" customFormat="1">
       <c r="A11" s="42"/>
       <c r="B11" s="28">
         <v>490</v>
@@ -10391,36 +10433,36 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
       <c r="L11" s="52"/>
-      <c r="M11" s="42"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="42"/>
-      <c r="O11" s="28">
+      <c r="O11" s="42"/>
+      <c r="P11" s="28">
         <v>77.476500000000001</v>
       </c>
-      <c r="P11" s="42"/>
       <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
-      <c r="S11" s="42" t="s">
+      <c r="S11" s="42"/>
+      <c r="T11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="U11" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="U11" s="42" t="s">
+      <c r="V11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="V11" s="42" t="s">
+      <c r="W11" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="X11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="X11" s="42" t="s">
+      <c r="Y11" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="Y11" s="42" t="s">
+      <c r="Z11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="Z11" s="42"/>
       <c r="AA11" s="42"/>
       <c r="AB11" s="42"/>
       <c r="AC11" s="42"/>
@@ -10436,8 +10478,9 @@
       <c r="AM11" s="42"/>
       <c r="AN11" s="42"/>
       <c r="AO11" s="42"/>
-    </row>
-    <row r="12" spans="1:41" s="28" customFormat="1">
+      <c r="AP11" s="42"/>
+    </row>
+    <row r="12" spans="1:42" s="28" customFormat="1">
       <c r="A12" s="42"/>
       <c r="B12" s="28">
         <v>490</v>
@@ -10467,42 +10510,44 @@
       <c r="L12" s="51">
         <v>62.274500000000003</v>
       </c>
-      <c r="M12" s="42"/>
+      <c r="M12" s="51">
+        <v>67.159300000000002</v>
+      </c>
       <c r="N12" s="42"/>
-      <c r="O12" s="28">
+      <c r="O12" s="42"/>
+      <c r="P12" s="28">
         <v>66.608199999999997</v>
       </c>
-      <c r="P12" s="42"/>
       <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
-      <c r="S12" s="42">
+      <c r="S12" s="42"/>
+      <c r="T12" s="42">
         <v>245.2</v>
       </c>
-      <c r="T12" s="56">
-        <f>M8</f>
-        <v>7.8911726765730412</v>
-      </c>
       <c r="U12" s="56">
-        <f>M9</f>
-        <v>0.28588105451470536</v>
+        <f>N8</f>
+        <v>7.4285025579063149</v>
       </c>
       <c r="V12" s="56">
+        <f>N9</f>
+        <v>0.19061527768597833</v>
+      </c>
+      <c r="W12" s="56">
         <f>F8</f>
         <v>6.2315068377010396</v>
       </c>
-      <c r="W12" s="56">
+      <c r="X12" s="56">
         <f>F9</f>
         <v>0.51346301269000694</v>
       </c>
-      <c r="X12" s="56">
-        <f>P8</f>
+      <c r="Y12" s="56">
+        <f>Q8</f>
         <v>7.0124521113920855</v>
       </c>
-      <c r="Y12" s="56">
-        <f>P9</f>
+      <c r="Z12" s="56">
+        <f>Q9</f>
         <v>0.13749546328856271</v>
       </c>
-      <c r="Z12" s="42"/>
       <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
       <c r="AC12" s="42"/>
@@ -10518,8 +10563,9 @@
       <c r="AM12" s="42"/>
       <c r="AN12" s="42"/>
       <c r="AO12" s="42"/>
-    </row>
-    <row r="13" spans="1:41" s="28" customFormat="1">
+      <c r="AP12" s="42"/>
+    </row>
+    <row r="13" spans="1:42" s="28" customFormat="1">
       <c r="A13" s="42"/>
       <c r="B13" s="28">
         <v>490</v>
@@ -10549,42 +10595,44 @@
       <c r="L13" s="51">
         <v>60.290599999999998</v>
       </c>
-      <c r="M13" s="42"/>
+      <c r="M13" s="51">
+        <v>65.700400000000002</v>
+      </c>
       <c r="N13" s="42"/>
-      <c r="O13" s="28">
+      <c r="O13" s="42"/>
+      <c r="P13" s="28">
         <v>71.116299999999995</v>
       </c>
-      <c r="P13" s="42"/>
       <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
-      <c r="S13" s="42">
+      <c r="S13" s="42"/>
+      <c r="T13" s="42">
         <v>490.3</v>
       </c>
-      <c r="T13" s="56">
-        <f>M14</f>
-        <v>8.0952485847082389</v>
-      </c>
       <c r="U13" s="56">
-        <f>M15</f>
-        <v>0.21918707732818524</v>
+        <f>N14</f>
+        <v>7.4087065910272996</v>
       </c>
       <c r="V13" s="56">
+        <f>N15</f>
+        <v>9.9370122886482809E-2</v>
+      </c>
+      <c r="W13" s="56">
         <f>F14</f>
         <v>6.4603173905591467</v>
       </c>
-      <c r="W13" s="56">
+      <c r="X13" s="56">
         <f>F15</f>
         <v>0.40465434241416237</v>
       </c>
-      <c r="X13" s="56">
-        <f>P14</f>
+      <c r="Y13" s="56">
+        <f>Q14</f>
         <v>6.9275722323111859</v>
       </c>
-      <c r="Y13" s="56">
-        <f>P15</f>
+      <c r="Z13" s="56">
+        <f>Q15</f>
         <v>0.47872956808486555</v>
       </c>
-      <c r="Z13" s="42"/>
       <c r="AA13" s="42"/>
       <c r="AB13" s="42"/>
       <c r="AC13" s="42"/>
@@ -10600,8 +10648,9 @@
       <c r="AM13" s="42"/>
       <c r="AN13" s="42"/>
       <c r="AO13" s="42"/>
-    </row>
-    <row r="14" spans="1:41" s="28" customFormat="1">
+      <c r="AP13" s="42"/>
+    </row>
+    <row r="14" spans="1:42" s="28" customFormat="1">
       <c r="A14" s="42"/>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -10630,49 +10679,52 @@
         <f>AVERAGE(L10:L13)</f>
         <v>60.529333333333341</v>
       </c>
-      <c r="M14" s="43">
-        <f>B10/L14</f>
-        <v>8.0952485847082389</v>
-      </c>
-      <c r="N14" s="43"/>
-      <c r="O14" s="33">
-        <f>AVERAGE(O10:O13)</f>
+      <c r="M14" s="33">
+        <f>AVERAGE(M10:M13)</f>
+        <v>66.138400000000004</v>
+      </c>
+      <c r="N14" s="43">
+        <f>B10/M14</f>
+        <v>7.4087065910272996</v>
+      </c>
+      <c r="O14" s="43"/>
+      <c r="P14" s="33">
+        <f>AVERAGE(P10:P13)</f>
         <v>70.731850000000009</v>
       </c>
-      <c r="P14" s="43">
-        <f>B10/O14</f>
+      <c r="Q14" s="43">
+        <f>B10/P14</f>
         <v>6.9275722323111859</v>
       </c>
-      <c r="Q14" s="43"/>
-      <c r="R14" s="42"/>
-      <c r="S14" s="42">
+      <c r="R14" s="43"/>
+      <c r="S14" s="42"/>
+      <c r="T14" s="42">
         <v>2942</v>
       </c>
-      <c r="T14" s="56">
-        <f>M20</f>
-        <v>8.1483571553453675</v>
-      </c>
       <c r="U14" s="56">
-        <f>M21</f>
-        <v>0.21638228862350062</v>
+        <f>N20</f>
+        <v>7.0826324979803248</v>
       </c>
       <c r="V14" s="56">
+        <f>N21</f>
+        <v>0.32339382259507826</v>
+      </c>
+      <c r="W14" s="56">
         <f>F20</f>
         <v>7.62883710799135</v>
       </c>
-      <c r="W14" s="56">
+      <c r="X14" s="56">
         <f>F21</f>
         <v>0.1424828814607475</v>
       </c>
-      <c r="X14" s="56">
-        <f>P20</f>
+      <c r="Y14" s="56">
+        <f>Q20</f>
         <v>7.92236264134766</v>
       </c>
-      <c r="Y14" s="56">
-        <f>P21</f>
+      <c r="Z14" s="56">
+        <f>Q21</f>
         <v>0.19460230294651493</v>
       </c>
-      <c r="Z14" s="42"/>
       <c r="AA14" s="42"/>
       <c r="AB14" s="42"/>
       <c r="AC14" s="42"/>
@@ -10688,8 +10740,9 @@
       <c r="AM14" s="42"/>
       <c r="AN14" s="42"/>
       <c r="AO14" s="42"/>
-    </row>
-    <row r="15" spans="1:41" s="28" customFormat="1">
+      <c r="AP14" s="42"/>
+    </row>
+    <row r="15" spans="1:42" s="28" customFormat="1">
       <c r="A15" s="42"/>
       <c r="C15" s="28" t="s">
         <v>10</v>
@@ -10721,27 +10774,30 @@
         <f>STDEV(L10:L13)</f>
         <v>1.638893176303245</v>
       </c>
-      <c r="M15" s="43">
-        <f>M14*SQRT((0)^2+(L15/L14)^2)</f>
-        <v>0.21918707732818524</v>
+      <c r="M15" s="34">
+        <f>STDEV(M10:M13)</f>
+        <v>0.88708883997038535</v>
       </c>
       <c r="N15" s="43">
-        <f>M15/M14*100</f>
-        <v>2.7076015644809872</v>
-      </c>
-      <c r="O15" s="34">
-        <f>STDEV(O10:O13)</f>
+        <f>N14*SQRT((0)^2+(M15/M14)^2)</f>
+        <v>9.9370122886482809E-2</v>
+      </c>
+      <c r="O15" s="43">
+        <f>N15/N14*100</f>
+        <v>1.341261415411297</v>
+      </c>
+      <c r="P15" s="34">
+        <f>STDEV(P10:P13)</f>
         <v>4.8879213185838708</v>
       </c>
-      <c r="P15" s="43">
-        <f>P14*SQRT((0)^2+(O15/O14)^2)</f>
+      <c r="Q15" s="43">
+        <f>Q14*SQRT((0)^2+(P15/P14)^2)</f>
         <v>0.47872956808486555</v>
       </c>
-      <c r="Q15" s="43">
-        <f>P15/P14*100</f>
+      <c r="R15" s="43">
+        <f>Q15/Q14*100</f>
         <v>6.9104955102741839</v>
       </c>
-      <c r="R15" s="42"/>
       <c r="S15" s="42"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
@@ -10765,8 +10821,9 @@
       <c r="AM15" s="42"/>
       <c r="AN15" s="42"/>
       <c r="AO15" s="42"/>
-    </row>
-    <row r="16" spans="1:41" s="7" customFormat="1">
+      <c r="AP15" s="42"/>
+    </row>
+    <row r="16" spans="1:42" s="7" customFormat="1">
       <c r="A16" s="42">
         <v>1</v>
       </c>
@@ -10801,27 +10858,29 @@
       <c r="L16" s="7">
         <v>367.33859999999999</v>
       </c>
-      <c r="M16" s="42"/>
+      <c r="M16" s="7">
+        <v>417.25529999999998</v>
+      </c>
       <c r="N16" s="42"/>
-      <c r="O16" s="7">
+      <c r="O16" s="42"/>
+      <c r="P16" s="7">
         <v>361.34750000000003</v>
       </c>
-      <c r="P16" s="42"/>
       <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
-      <c r="V16" s="42">
-        <f>(V12-T12)/T12*100</f>
-        <v>-21.03192905408271</v>
-      </c>
-      <c r="W16" s="42"/>
-      <c r="X16" s="42">
-        <f>(X12-T12)/T12*100</f>
-        <v>-11.135487730355488</v>
-      </c>
-      <c r="Y16" s="42"/>
+      <c r="V16" s="42"/>
+      <c r="W16" s="42">
+        <f>(W12-U12)/U12*100</f>
+        <v>-16.113553315415999</v>
+      </c>
+      <c r="X16" s="42"/>
+      <c r="Y16" s="42">
+        <f>(Y12-U12)/U12*100</f>
+        <v>-5.6007310123548111</v>
+      </c>
       <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
@@ -10838,8 +10897,9 @@
       <c r="AM16" s="42"/>
       <c r="AN16" s="42"/>
       <c r="AO16" s="42"/>
-    </row>
-    <row r="17" spans="1:41" s="7" customFormat="1">
+      <c r="AP16" s="42"/>
+    </row>
+    <row r="17" spans="1:42" s="7" customFormat="1">
       <c r="A17" s="42"/>
       <c r="B17" s="7">
         <v>2942</v>
@@ -10866,27 +10926,29 @@
       <c r="L17" s="54">
         <v>347.58150000000001</v>
       </c>
-      <c r="M17" s="42"/>
+      <c r="M17" s="54">
+        <v>388.35489999999999</v>
+      </c>
       <c r="N17" s="42"/>
-      <c r="O17" s="7">
+      <c r="O17" s="42"/>
+      <c r="P17" s="7">
         <v>379.20519999999999</v>
       </c>
-      <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
-      <c r="V17" s="42">
-        <f t="shared" ref="V17:V18" si="0">(V13-T13)/T13*100</f>
-        <v>-20.196182699533701</v>
-      </c>
-      <c r="W17" s="42"/>
-      <c r="X17" s="42">
-        <f t="shared" ref="X17:X18" si="1">(X13-T13)/T13*100</f>
-        <v>-14.424218604018781</v>
-      </c>
-      <c r="Y17" s="42"/>
+      <c r="V17" s="42"/>
+      <c r="W17" s="42">
+        <f t="shared" ref="W17:W18" si="0">(W13-U13)/U13*100</f>
+        <v>-12.801009040049568</v>
+      </c>
+      <c r="X17" s="42"/>
+      <c r="Y17" s="42">
+        <f t="shared" ref="Y17:Y18" si="1">(Y13-U13)/U13*100</f>
+        <v>-6.4941748307162888</v>
+      </c>
       <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
@@ -10903,8 +10965,9 @@
       <c r="AM17" s="42"/>
       <c r="AN17" s="42"/>
       <c r="AO17" s="42"/>
-    </row>
-    <row r="18" spans="1:41" s="7" customFormat="1">
+      <c r="AP17" s="42"/>
+    </row>
+    <row r="18" spans="1:42" s="7" customFormat="1">
       <c r="A18" s="42"/>
       <c r="B18" s="7">
         <v>2942</v>
@@ -10937,27 +11000,29 @@
       <c r="L18" s="54">
         <v>360.84500000000003</v>
       </c>
-      <c r="M18" s="42"/>
+      <c r="M18" s="54">
+        <v>424.16370000000001</v>
+      </c>
       <c r="N18" s="42"/>
-      <c r="O18" s="7">
+      <c r="O18" s="42"/>
+      <c r="P18" s="7">
         <v>373.50889999999998</v>
       </c>
-      <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
-      <c r="V18" s="42">
+      <c r="V18" s="42"/>
+      <c r="W18" s="42">
         <f t="shared" si="0"/>
-        <v>-6.3757643099039845</v>
-      </c>
-      <c r="W18" s="42"/>
-      <c r="X18" s="42">
+        <v>7.7118869314026988</v>
+      </c>
+      <c r="X18" s="42"/>
+      <c r="Y18" s="42">
         <f t="shared" si="1"/>
-        <v>-2.7734978927556444</v>
-      </c>
-      <c r="Y18" s="42"/>
+        <v>11.856186857171986</v>
+      </c>
       <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
@@ -10974,8 +11039,9 @@
       <c r="AM18" s="42"/>
       <c r="AN18" s="42"/>
       <c r="AO18" s="42"/>
-    </row>
-    <row r="19" spans="1:41" s="7" customFormat="1">
+      <c r="AP18" s="42"/>
+    </row>
+    <row r="19" spans="1:42" s="7" customFormat="1">
       <c r="A19" s="42"/>
       <c r="B19" s="7">
         <v>2942</v>
@@ -10992,9 +11058,11 @@
       <c r="L19" s="35">
         <v>368.45240000000001</v>
       </c>
-      <c r="M19" s="42"/>
+      <c r="M19" s="35">
+        <v>431.7552</v>
+      </c>
       <c r="N19" s="42"/>
-      <c r="P19" s="42"/>
+      <c r="O19" s="42"/>
       <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
       <c r="S19" s="42"/>
@@ -11020,8 +11088,9 @@
       <c r="AM19" s="42"/>
       <c r="AN19" s="42"/>
       <c r="AO19" s="42"/>
-    </row>
-    <row r="20" spans="1:41" s="7" customFormat="1">
+      <c r="AP19" s="42"/>
+    </row>
+    <row r="20" spans="1:42" s="7" customFormat="1">
       <c r="A20" s="42"/>
       <c r="C20" s="39" t="s">
         <v>34</v>
@@ -11050,21 +11119,24 @@
         <f>AVERAGE(L16:L19)</f>
         <v>361.05437500000005</v>
       </c>
-      <c r="M20" s="43">
-        <f>B16/L20</f>
-        <v>8.1483571553453675</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="40">
-        <f>AVERAGE(O16:O19)</f>
+      <c r="M20" s="40">
+        <f>AVERAGE(M16:M19)</f>
+        <v>415.38227499999999</v>
+      </c>
+      <c r="N20" s="43">
+        <f>B16/M20</f>
+        <v>7.0826324979803248</v>
+      </c>
+      <c r="O20" s="43"/>
+      <c r="P20" s="40">
+        <f>AVERAGE(P16:P19)</f>
         <v>371.35386666666665</v>
       </c>
-      <c r="P20" s="45">
-        <f>B16/O20</f>
+      <c r="Q20" s="45">
+        <f>B16/P20</f>
         <v>7.92236264134766</v>
       </c>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="42"/>
+      <c r="R20" s="45"/>
       <c r="S20" s="42"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
@@ -11088,8 +11160,9 @@
       <c r="AM20" s="42"/>
       <c r="AN20" s="42"/>
       <c r="AO20" s="42"/>
-    </row>
-    <row r="21" spans="1:41" s="7" customFormat="1">
+      <c r="AP20" s="42"/>
+    </row>
+    <row r="21" spans="1:42" s="7" customFormat="1">
       <c r="A21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -11121,27 +11194,30 @@
         <f>STDEV(L16:L19)</f>
         <v>9.5879169862819147</v>
       </c>
-      <c r="M21" s="43">
-        <f>M20*SQRT((0)^2+(L21/L20)^2)</f>
-        <v>0.21638228862350062</v>
+      <c r="M21" s="19">
+        <f>STDEV(M16:M19)</f>
+        <v>18.966402928402115</v>
       </c>
       <c r="N21" s="43">
-        <f>M21/M20*100</f>
-        <v>2.6555326981654535</v>
-      </c>
-      <c r="O21" s="19">
-        <f>STDEV(O16:O19)</f>
+        <f>N20*SQRT((0)^2+(M21/M20)^2)</f>
+        <v>0.32339382259507826</v>
+      </c>
+      <c r="O21" s="43">
+        <f>N21/N20*100</f>
+        <v>4.566011616264106</v>
+      </c>
+      <c r="P21" s="19">
+        <f>STDEV(P16:P19)</f>
         <v>9.1218138998410279</v>
       </c>
-      <c r="P21" s="45">
-        <f>P20*SQRT((0)^2+(O21/O20)^2)</f>
+      <c r="Q21" s="45">
+        <f>Q20*SQRT((0)^2+(P21/P20)^2)</f>
         <v>0.19460230294651493</v>
       </c>
-      <c r="Q21" s="43">
-        <f>P21/P20*100</f>
+      <c r="R21" s="43">
+        <f>Q21/Q20*100</f>
         <v>2.4563670177235339</v>
       </c>
-      <c r="R21" s="42"/>
       <c r="S21" s="42"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
@@ -11165,6 +11241,7 @@
       <c r="AM21" s="42"/>
       <c r="AN21" s="42"/>
       <c r="AO21" s="42"/>
+      <c r="AP21" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -11182,7 +11259,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AE9" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="AP20" sqref="AP20"/>
     </sheetView>
   </sheetViews>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
   <si>
     <t>Load</t>
   </si>
@@ -281,6 +281,15 @@
   <si>
     <t>Redone AFM #2</t>
   </si>
+  <si>
+    <t>0.4 threshold</t>
+  </si>
+  <si>
+    <t>0.55 threshold</t>
+  </si>
+  <si>
+    <t>Metallization #2</t>
+  </si>
 </sst>
 </file>
 
@@ -417,8 +426,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="367">
+  <cellStyleXfs count="381">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -848,7 +871,7 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="367">
+  <cellStyles count="381">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1032,6 +1055,13 @@
     <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1215,6 +1245,13 @@
     <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1744,11 +1781,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2095187304"/>
-        <c:axId val="2095508328"/>
+        <c:axId val="2141637000"/>
+        <c:axId val="2141642568"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2095187304"/>
+        <c:axId val="2141637000"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1778,12 +1815,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095508328"/>
+        <c:crossAx val="2141642568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2095508328"/>
+        <c:axId val="2141642568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1812,7 +1849,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2095187304"/>
+        <c:crossAx val="2141637000"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2337,11 +2374,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073522232"/>
-        <c:axId val="2073527976"/>
+        <c:axId val="2139651352"/>
+        <c:axId val="2139657064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073522232"/>
+        <c:axId val="2139651352"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -2371,12 +2408,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073527976"/>
+        <c:crossAx val="2139657064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073527976"/>
+        <c:axId val="2139657064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2404,7 +2441,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073522232"/>
+        <c:crossAx val="2139651352"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2875,11 +2912,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073564568"/>
-        <c:axId val="2073570120"/>
+        <c:axId val="2141657544"/>
+        <c:axId val="2141668056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073564568"/>
+        <c:axId val="2141657544"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -2907,12 +2944,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073570120"/>
+        <c:crossAx val="2141668056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073570120"/>
+        <c:axId val="2141668056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2949,7 +2986,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="2073564568"/>
+        <c:crossAx val="2141657544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3028,7 +3065,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3046,7 +3083,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3065,7 +3102,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3083,7 +3120,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+              <c:f>'LP, AFM'!$V$12:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3119,7 +3156,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3137,7 +3174,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3156,7 +3193,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3174,7 +3211,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+              <c:f>'LP, AFM'!$X$12:$X$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3210,7 +3247,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
+                <c:f>'LP, AFM'!$AA$12:$AA$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3228,7 +3265,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
+                <c:f>'LP, AFM'!$AA$12:$AA$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -3247,7 +3284,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3265,7 +3302,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+              <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -3291,11 +3328,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097077992"/>
-        <c:axId val="2097084248"/>
+        <c:axId val="2141739272"/>
+        <c:axId val="2141744760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097077992"/>
+        <c:axId val="2141739272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3324,12 +3361,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097084248"/>
+        <c:crossAx val="2141744760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2097084248"/>
+        <c:axId val="2141744760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -3360,7 +3397,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097077992"/>
+        <c:crossAx val="2141739272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3738,11 +3775,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2097133912"/>
-        <c:axId val="2073601208"/>
+        <c:axId val="2141758264"/>
+        <c:axId val="2141763960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2097133912"/>
+        <c:axId val="2141758264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -3765,19 +3802,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073601208"/>
+        <c:crossAx val="2141763960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2073601208"/>
+        <c:axId val="2141763960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="550.0"/>
@@ -3814,7 +3850,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2097133912"/>
+        <c:crossAx val="2141758264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4082,7 +4118,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4100,7 +4136,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$V$12:$V$14</c:f>
+                <c:f>'LP, AFM'!$W$12:$W$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4119,7 +4155,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4137,7 +4173,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
+              <c:f>'LP, AFM'!$V$12:$V$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4173,7 +4209,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4191,7 +4227,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$X$12:$X$14</c:f>
+                <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4210,7 +4246,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4228,7 +4264,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$W$12:$W$14</c:f>
+              <c:f>'LP, AFM'!$X$12:$X$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4264,7 +4300,7 @@
             <c:noEndCap val="0"/>
             <c:plus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
+                <c:f>'LP, AFM'!$AA$12:$AA$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4282,7 +4318,7 @@
             </c:plus>
             <c:minus>
               <c:numRef>
-                <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
+                <c:f>'LP, AFM'!$AA$12:$AA$14</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
@@ -4301,7 +4337,7 @@
           </c:errBars>
           <c:xVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$T$12:$T$14</c:f>
+              <c:f>'LP, AFM'!$U$12:$U$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4319,7 +4355,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'LP, AFM'!$Y$12:$Y$14</c:f>
+              <c:f>'LP, AFM'!$Z$12:$Z$14</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -4345,11 +4381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2073630616"/>
-        <c:axId val="2086817560"/>
+        <c:axId val="2139934552"/>
+        <c:axId val="2139939960"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2073630616"/>
+        <c:axId val="2139934552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4371,19 +4407,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2086817560"/>
+        <c:crossAx val="2139939960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2086817560"/>
+        <c:axId val="2139939960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -4406,14 +4441,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2073630616"/>
+        <c:crossAx val="2139934552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4555,13 +4589,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>27</xdr:col>
       <xdr:colOff>160866</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>42332</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>25400</xdr:colOff>
       <xdr:row>23</xdr:row>
       <xdr:rowOff>16933</xdr:rowOff>
@@ -9832,10 +9866,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:AP21"/>
+  <dimension ref="A2:AQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -9850,10 +9884,19 @@
     <col min="13" max="13" width="16.33203125" customWidth="1"/>
     <col min="14" max="15" width="10.83203125" style="42"/>
     <col min="16" max="16" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="42" width="10.83203125" style="42"/>
+    <col min="17" max="17" width="16.6640625" customWidth="1"/>
+    <col min="18" max="43" width="10.83203125" style="42"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:42">
+    <row r="2" spans="1:43">
+      <c r="P2" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
@@ -9895,17 +9938,20 @@
       <c r="P3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="Q3" s="41" t="s">
+      <c r="Q3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="R3" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="R3" s="41"/>
-      <c r="T3" t="s">
+      <c r="S3" s="41"/>
+      <c r="U3" t="s">
         <v>62</v>
       </c>
-      <c r="U3"/>
       <c r="V3"/>
-    </row>
-    <row r="4" spans="1:42" s="23" customFormat="1">
+      <c r="W3"/>
+    </row>
+    <row r="4" spans="1:43" s="23" customFormat="1">
       <c r="A4" s="42">
         <v>0.1</v>
       </c>
@@ -9948,17 +9994,19 @@
       <c r="P4" s="23">
         <v>35.9251</v>
       </c>
-      <c r="Q4" s="42"/>
+      <c r="Q4" s="23">
+        <v>32.744900000000001</v>
+      </c>
       <c r="R4" s="42"/>
       <c r="S4" s="42"/>
-      <c r="T4">
+      <c r="T4" s="42"/>
+      <c r="U4">
         <v>1</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>0.18703</v>
       </c>
-      <c r="V4"/>
-      <c r="W4" s="42"/>
+      <c r="W4"/>
       <c r="X4" s="42"/>
       <c r="Y4" s="42"/>
       <c r="Z4" s="42"/>
@@ -9978,8 +10026,9 @@
       <c r="AN4" s="42"/>
       <c r="AO4" s="42"/>
       <c r="AP4" s="42"/>
-    </row>
-    <row r="5" spans="1:42" s="23" customFormat="1">
+      <c r="AQ4" s="42"/>
+    </row>
+    <row r="5" spans="1:43" s="23" customFormat="1">
       <c r="A5" s="42"/>
       <c r="B5" s="23">
         <v>245</v>
@@ -10017,17 +10066,19 @@
       <c r="P5" s="53">
         <v>34.667000000000002</v>
       </c>
-      <c r="Q5" s="42"/>
+      <c r="Q5" s="53">
+        <v>33.024500000000003</v>
+      </c>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
-      <c r="T5">
+      <c r="T5" s="42"/>
+      <c r="U5">
         <v>2</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>0.18687999999999999</v>
       </c>
-      <c r="V5"/>
-      <c r="W5" s="42"/>
+      <c r="W5"/>
       <c r="X5" s="42"/>
       <c r="Y5" s="42"/>
       <c r="Z5" s="42"/>
@@ -10047,8 +10098,9 @@
       <c r="AN5" s="42"/>
       <c r="AO5" s="42"/>
       <c r="AP5" s="42"/>
-    </row>
-    <row r="6" spans="1:42" s="23" customFormat="1">
+      <c r="AQ5" s="42"/>
+    </row>
+    <row r="6" spans="1:43" s="23" customFormat="1">
       <c r="A6" s="42"/>
       <c r="B6" s="23">
         <v>245</v>
@@ -10086,17 +10138,16 @@
       <c r="P6" s="23">
         <v>34.352499999999999</v>
       </c>
-      <c r="Q6" s="42"/>
       <c r="R6" s="42"/>
       <c r="S6" s="42"/>
-      <c r="T6">
+      <c r="T6" s="42"/>
+      <c r="U6">
         <v>3</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>0.18692</v>
       </c>
-      <c r="V6"/>
-      <c r="W6" s="42"/>
+      <c r="W6"/>
       <c r="X6" s="42"/>
       <c r="Y6" s="42"/>
       <c r="Z6" s="42"/>
@@ -10116,8 +10167,9 @@
       <c r="AN6" s="42"/>
       <c r="AO6" s="42"/>
       <c r="AP6" s="42"/>
-    </row>
-    <row r="7" spans="1:42" s="23" customFormat="1">
+      <c r="AQ6" s="42"/>
+    </row>
+    <row r="7" spans="1:43" s="23" customFormat="1">
       <c r="A7" s="42"/>
       <c r="B7" s="23">
         <v>245</v>
@@ -10158,18 +10210,20 @@
       <c r="P7" s="23">
         <v>34.806800000000003</v>
       </c>
-      <c r="Q7" s="42"/>
+      <c r="Q7" s="23">
+        <v>32.465400000000002</v>
+      </c>
       <c r="R7" s="42"/>
       <c r="S7" s="42"/>
-      <c r="T7" t="s">
+      <c r="T7" s="42"/>
+      <c r="U7" t="s">
         <v>34</v>
       </c>
-      <c r="U7" s="55">
-        <f>AVERAGE(U4:U6)</f>
+      <c r="V7" s="55">
+        <f>AVERAGE(V4:V6)</f>
         <v>0.18694333333333332</v>
       </c>
-      <c r="V7" s="55"/>
-      <c r="W7" s="42"/>
+      <c r="W7" s="55"/>
       <c r="X7" s="42"/>
       <c r="Y7" s="42"/>
       <c r="Z7" s="42"/>
@@ -10189,8 +10243,9 @@
       <c r="AN7" s="42"/>
       <c r="AO7" s="42"/>
       <c r="AP7" s="42"/>
-    </row>
-    <row r="8" spans="1:42" s="23" customFormat="1">
+      <c r="AQ7" s="42"/>
+    </row>
+    <row r="8" spans="1:43" s="23" customFormat="1">
       <c r="A8" s="42"/>
       <c r="C8" s="25" t="s">
         <v>34</v>
@@ -10232,21 +10287,24 @@
         <f>AVERAGE(P4:P7)</f>
         <v>34.937850000000005</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="26">
+        <f>AVERAGE(Q4:Q7)</f>
+        <v>32.744933333333336</v>
+      </c>
+      <c r="R8" s="45">
         <f>B4/P8</f>
         <v>7.0124521113920855</v>
       </c>
-      <c r="R8" s="45"/>
-      <c r="S8" s="42"/>
-      <c r="T8" t="s">
+      <c r="S8" s="45"/>
+      <c r="T8" s="42"/>
+      <c r="U8" t="s">
         <v>10</v>
       </c>
-      <c r="U8" s="55">
-        <f>STDEV(U4:U6)</f>
+      <c r="V8" s="55">
+        <f>STDEV(V4:V6)</f>
         <v>7.7674534651544719E-5</v>
       </c>
-      <c r="V8" s="55"/>
-      <c r="W8" s="42"/>
+      <c r="W8" s="55"/>
       <c r="X8" s="42"/>
       <c r="Y8" s="42"/>
       <c r="Z8" s="42"/>
@@ -10266,8 +10324,9 @@
       <c r="AN8" s="42"/>
       <c r="AO8" s="42"/>
       <c r="AP8" s="42"/>
-    </row>
-    <row r="9" spans="1:42" s="23" customFormat="1">
+      <c r="AQ8" s="42"/>
+    </row>
+    <row r="9" spans="1:43" s="23" customFormat="1">
       <c r="A9" s="42"/>
       <c r="C9" s="23" t="s">
         <v>10</v>
@@ -10315,15 +10374,18 @@
         <f>STDEV(P4:P7)</f>
         <v>0.68503795758580666</v>
       </c>
-      <c r="Q9" s="45">
-        <f>Q8*SQRT((0)^2+(P9/P8)^2)</f>
+      <c r="Q9" s="27">
+        <f>STDEV(Q4:Q7)</f>
+        <v>0.27955000149049108</v>
+      </c>
+      <c r="R9" s="45">
+        <f>R8*SQRT((0)^2+(P9/P8)^2)</f>
         <v>0.13749546328856271</v>
       </c>
-      <c r="R9" s="43">
-        <f>Q9/Q8*100</f>
+      <c r="S9" s="43">
+        <f>R9/R8*100</f>
         <v>1.9607330090025761</v>
       </c>
-      <c r="S9" s="42"/>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
       <c r="V9" s="42"/>
@@ -10347,8 +10409,9 @@
       <c r="AN9" s="42"/>
       <c r="AO9" s="42"/>
       <c r="AP9" s="42"/>
-    </row>
-    <row r="10" spans="1:42" s="28" customFormat="1">
+      <c r="AQ9" s="42"/>
+    </row>
+    <row r="10" spans="1:43" s="28" customFormat="1">
       <c r="A10" s="42">
         <v>0.1</v>
       </c>
@@ -10391,7 +10454,6 @@
       <c r="P10" s="28">
         <v>67.726399999999998</v>
       </c>
-      <c r="Q10" s="42"/>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
       <c r="T10" s="42"/>
@@ -10417,8 +10479,9 @@
       <c r="AN10" s="42"/>
       <c r="AO10" s="42"/>
       <c r="AP10" s="42"/>
-    </row>
-    <row r="11" spans="1:42" s="28" customFormat="1">
+      <c r="AQ10" s="42"/>
+    </row>
+    <row r="11" spans="1:43" s="28" customFormat="1">
       <c r="A11" s="42"/>
       <c r="B11" s="28">
         <v>490</v>
@@ -10439,31 +10502,30 @@
       <c r="P11" s="28">
         <v>77.476500000000001</v>
       </c>
-      <c r="Q11" s="42"/>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="42"/>
+      <c r="U11" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="U11" s="42" t="s">
+      <c r="V11" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="V11" s="42" t="s">
+      <c r="W11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="W11" s="42" t="s">
+      <c r="X11" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="X11" s="42" t="s">
+      <c r="Y11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="Y11" s="42" t="s">
+      <c r="Z11" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="Z11" s="42" t="s">
+      <c r="AA11" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="AA11" s="42"/>
       <c r="AB11" s="42"/>
       <c r="AC11" s="42"/>
       <c r="AD11" s="42"/>
@@ -10479,8 +10541,9 @@
       <c r="AN11" s="42"/>
       <c r="AO11" s="42"/>
       <c r="AP11" s="42"/>
-    </row>
-    <row r="12" spans="1:42" s="28" customFormat="1">
+      <c r="AQ11" s="42"/>
+    </row>
+    <row r="12" spans="1:43" s="28" customFormat="1">
       <c r="A12" s="42"/>
       <c r="B12" s="28">
         <v>490</v>
@@ -10518,37 +10581,36 @@
       <c r="P12" s="28">
         <v>66.608199999999997</v>
       </c>
-      <c r="Q12" s="42"/>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
-      <c r="T12" s="42">
+      <c r="T12" s="42"/>
+      <c r="U12" s="42">
         <v>245.2</v>
       </c>
-      <c r="U12" s="56">
+      <c r="V12" s="56">
         <f>N8</f>
         <v>7.4285025579063149</v>
       </c>
-      <c r="V12" s="56">
+      <c r="W12" s="56">
         <f>N9</f>
         <v>0.19061527768597833</v>
       </c>
-      <c r="W12" s="56">
+      <c r="X12" s="56">
         <f>F8</f>
         <v>6.2315068377010396</v>
       </c>
-      <c r="X12" s="56">
+      <c r="Y12" s="56">
         <f>F9</f>
         <v>0.51346301269000694</v>
       </c>
-      <c r="Y12" s="56">
-        <f>Q8</f>
+      <c r="Z12" s="56">
+        <f>R8</f>
         <v>7.0124521113920855</v>
       </c>
-      <c r="Z12" s="56">
-        <f>Q9</f>
+      <c r="AA12" s="56">
+        <f>R9</f>
         <v>0.13749546328856271</v>
       </c>
-      <c r="AA12" s="42"/>
       <c r="AB12" s="42"/>
       <c r="AC12" s="42"/>
       <c r="AD12" s="42"/>
@@ -10564,8 +10626,9 @@
       <c r="AN12" s="42"/>
       <c r="AO12" s="42"/>
       <c r="AP12" s="42"/>
-    </row>
-    <row r="13" spans="1:42" s="28" customFormat="1">
+      <c r="AQ12" s="42"/>
+    </row>
+    <row r="13" spans="1:43" s="28" customFormat="1">
       <c r="A13" s="42"/>
       <c r="B13" s="28">
         <v>490</v>
@@ -10603,37 +10666,36 @@
       <c r="P13" s="28">
         <v>71.116299999999995</v>
       </c>
-      <c r="Q13" s="42"/>
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
-      <c r="T13" s="42">
+      <c r="T13" s="42"/>
+      <c r="U13" s="42">
         <v>490.3</v>
       </c>
-      <c r="U13" s="56">
+      <c r="V13" s="56">
         <f>N14</f>
         <v>7.4087065910272996</v>
       </c>
-      <c r="V13" s="56">
+      <c r="W13" s="56">
         <f>N15</f>
         <v>9.9370122886482809E-2</v>
       </c>
-      <c r="W13" s="56">
+      <c r="X13" s="56">
         <f>F14</f>
         <v>6.4603173905591467</v>
       </c>
-      <c r="X13" s="56">
+      <c r="Y13" s="56">
         <f>F15</f>
         <v>0.40465434241416237</v>
       </c>
-      <c r="Y13" s="56">
-        <f>Q14</f>
+      <c r="Z13" s="56">
+        <f>R14</f>
         <v>6.9275722323111859</v>
       </c>
-      <c r="Z13" s="56">
-        <f>Q15</f>
+      <c r="AA13" s="56">
+        <f>R15</f>
         <v>0.47872956808486555</v>
       </c>
-      <c r="AA13" s="42"/>
       <c r="AB13" s="42"/>
       <c r="AC13" s="42"/>
       <c r="AD13" s="42"/>
@@ -10649,8 +10711,9 @@
       <c r="AN13" s="42"/>
       <c r="AO13" s="42"/>
       <c r="AP13" s="42"/>
-    </row>
-    <row r="14" spans="1:42" s="28" customFormat="1">
+      <c r="AQ13" s="42"/>
+    </row>
+    <row r="14" spans="1:43" s="28" customFormat="1">
       <c r="A14" s="42"/>
       <c r="C14" s="32" t="s">
         <v>34</v>
@@ -10692,40 +10755,43 @@
         <f>AVERAGE(P10:P13)</f>
         <v>70.731850000000009</v>
       </c>
-      <c r="Q14" s="43">
+      <c r="Q14" s="33" t="e">
+        <f>AVERAGE(Q10:Q13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R14" s="43">
         <f>B10/P14</f>
         <v>6.9275722323111859</v>
       </c>
-      <c r="R14" s="43"/>
-      <c r="S14" s="42"/>
-      <c r="T14" s="42">
+      <c r="S14" s="43"/>
+      <c r="T14" s="42"/>
+      <c r="U14" s="42">
         <v>2942</v>
       </c>
-      <c r="U14" s="56">
+      <c r="V14" s="56">
         <f>N20</f>
         <v>7.0826324979803248</v>
       </c>
-      <c r="V14" s="56">
+      <c r="W14" s="56">
         <f>N21</f>
         <v>0.32339382259507826</v>
       </c>
-      <c r="W14" s="56">
+      <c r="X14" s="56">
         <f>F20</f>
         <v>7.62883710799135</v>
       </c>
-      <c r="X14" s="56">
+      <c r="Y14" s="56">
         <f>F21</f>
         <v>0.1424828814607475</v>
       </c>
-      <c r="Y14" s="56">
-        <f>Q20</f>
+      <c r="Z14" s="56">
+        <f>R20</f>
         <v>7.92236264134766</v>
       </c>
-      <c r="Z14" s="56">
-        <f>Q21</f>
+      <c r="AA14" s="56">
+        <f>R21</f>
         <v>0.19460230294651493</v>
       </c>
-      <c r="AA14" s="42"/>
       <c r="AB14" s="42"/>
       <c r="AC14" s="42"/>
       <c r="AD14" s="42"/>
@@ -10741,8 +10807,9 @@
       <c r="AN14" s="42"/>
       <c r="AO14" s="42"/>
       <c r="AP14" s="42"/>
-    </row>
-    <row r="15" spans="1:42" s="28" customFormat="1">
+      <c r="AQ14" s="42"/>
+    </row>
+    <row r="15" spans="1:43" s="28" customFormat="1">
       <c r="A15" s="42"/>
       <c r="C15" s="28" t="s">
         <v>10</v>
@@ -10790,15 +10857,18 @@
         <f>STDEV(P10:P13)</f>
         <v>4.8879213185838708</v>
       </c>
-      <c r="Q15" s="43">
-        <f>Q14*SQRT((0)^2+(P15/P14)^2)</f>
+      <c r="Q15" s="34" t="e">
+        <f>STDEV(Q10:Q13)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R15" s="43">
+        <f>R14*SQRT((0)^2+(P15/P14)^2)</f>
         <v>0.47872956808486555</v>
       </c>
-      <c r="R15" s="43">
-        <f>Q15/Q14*100</f>
+      <c r="S15" s="43">
+        <f>R15/R14*100</f>
         <v>6.9104955102741839</v>
       </c>
-      <c r="S15" s="42"/>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
       <c r="V15" s="42"/>
@@ -10822,8 +10892,9 @@
       <c r="AN15" s="42"/>
       <c r="AO15" s="42"/>
       <c r="AP15" s="42"/>
-    </row>
-    <row r="16" spans="1:42" s="7" customFormat="1">
+      <c r="AQ15" s="42"/>
+    </row>
+    <row r="16" spans="1:43" s="7" customFormat="1">
       <c r="A16" s="42">
         <v>1</v>
       </c>
@@ -10866,22 +10937,21 @@
       <c r="P16" s="7">
         <v>361.34750000000003</v>
       </c>
-      <c r="Q16" s="42"/>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
       <c r="U16" s="42"/>
       <c r="V16" s="42"/>
-      <c r="W16" s="42">
-        <f>(W12-U12)/U12*100</f>
+      <c r="W16" s="42"/>
+      <c r="X16" s="42">
+        <f>(X12-V12)/V12*100</f>
         <v>-16.113553315415999</v>
       </c>
-      <c r="X16" s="42"/>
-      <c r="Y16" s="42">
-        <f>(Y12-U12)/U12*100</f>
+      <c r="Y16" s="42"/>
+      <c r="Z16" s="42">
+        <f>(Z12-V12)/V12*100</f>
         <v>-5.6007310123548111</v>
       </c>
-      <c r="Z16" s="42"/>
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
       <c r="AC16" s="42"/>
@@ -10898,8 +10968,9 @@
       <c r="AN16" s="42"/>
       <c r="AO16" s="42"/>
       <c r="AP16" s="42"/>
-    </row>
-    <row r="17" spans="1:42" s="7" customFormat="1">
+      <c r="AQ16" s="42"/>
+    </row>
+    <row r="17" spans="1:43" s="7" customFormat="1">
       <c r="A17" s="42"/>
       <c r="B17" s="7">
         <v>2942</v>
@@ -10934,22 +11005,21 @@
       <c r="P17" s="7">
         <v>379.20519999999999</v>
       </c>
-      <c r="Q17" s="42"/>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
       <c r="U17" s="42"/>
       <c r="V17" s="42"/>
-      <c r="W17" s="42">
-        <f t="shared" ref="W17:W18" si="0">(W13-U13)/U13*100</f>
+      <c r="W17" s="42"/>
+      <c r="X17" s="42">
+        <f t="shared" ref="X17:X18" si="0">(X13-V13)/V13*100</f>
         <v>-12.801009040049568</v>
       </c>
-      <c r="X17" s="42"/>
-      <c r="Y17" s="42">
-        <f t="shared" ref="Y17:Y18" si="1">(Y13-U13)/U13*100</f>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="42">
+        <f t="shared" ref="Z17:Z18" si="1">(Z13-V13)/V13*100</f>
         <v>-6.4941748307162888</v>
       </c>
-      <c r="Z17" s="42"/>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
       <c r="AC17" s="42"/>
@@ -10966,8 +11036,9 @@
       <c r="AN17" s="42"/>
       <c r="AO17" s="42"/>
       <c r="AP17" s="42"/>
-    </row>
-    <row r="18" spans="1:42" s="7" customFormat="1">
+      <c r="AQ17" s="42"/>
+    </row>
+    <row r="18" spans="1:43" s="7" customFormat="1">
       <c r="A18" s="42"/>
       <c r="B18" s="7">
         <v>2942</v>
@@ -11008,22 +11079,21 @@
       <c r="P18" s="7">
         <v>373.50889999999998</v>
       </c>
-      <c r="Q18" s="42"/>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
       <c r="T18" s="42"/>
       <c r="U18" s="42"/>
       <c r="V18" s="42"/>
-      <c r="W18" s="42">
+      <c r="W18" s="42"/>
+      <c r="X18" s="42">
         <f t="shared" si="0"/>
         <v>7.7118869314026988</v>
       </c>
-      <c r="X18" s="42"/>
-      <c r="Y18" s="42">
+      <c r="Y18" s="42"/>
+      <c r="Z18" s="42">
         <f t="shared" si="1"/>
         <v>11.856186857171986</v>
       </c>
-      <c r="Z18" s="42"/>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
       <c r="AC18" s="42"/>
@@ -11040,8 +11110,9 @@
       <c r="AN18" s="42"/>
       <c r="AO18" s="42"/>
       <c r="AP18" s="42"/>
-    </row>
-    <row r="19" spans="1:42" s="7" customFormat="1">
+      <c r="AQ18" s="42"/>
+    </row>
+    <row r="19" spans="1:43" s="7" customFormat="1">
       <c r="A19" s="42"/>
       <c r="B19" s="7">
         <v>2942</v>
@@ -11063,7 +11134,6 @@
       </c>
       <c r="N19" s="42"/>
       <c r="O19" s="42"/>
-      <c r="Q19" s="42"/>
       <c r="R19" s="42"/>
       <c r="S19" s="42"/>
       <c r="T19" s="42"/>
@@ -11089,8 +11159,9 @@
       <c r="AN19" s="42"/>
       <c r="AO19" s="42"/>
       <c r="AP19" s="42"/>
-    </row>
-    <row r="20" spans="1:42" s="7" customFormat="1">
+      <c r="AQ19" s="42"/>
+    </row>
+    <row r="20" spans="1:43" s="7" customFormat="1">
       <c r="A20" s="42"/>
       <c r="C20" s="39" t="s">
         <v>34</v>
@@ -11132,12 +11203,15 @@
         <f>AVERAGE(P16:P19)</f>
         <v>371.35386666666665</v>
       </c>
-      <c r="Q20" s="45">
+      <c r="Q20" s="40" t="e">
+        <f>AVERAGE(Q16:Q19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R20" s="45">
         <f>B16/P20</f>
         <v>7.92236264134766</v>
       </c>
-      <c r="R20" s="45"/>
-      <c r="S20" s="42"/>
+      <c r="S20" s="45"/>
       <c r="T20" s="42"/>
       <c r="U20" s="42"/>
       <c r="V20" s="42"/>
@@ -11161,8 +11235,9 @@
       <c r="AN20" s="42"/>
       <c r="AO20" s="42"/>
       <c r="AP20" s="42"/>
-    </row>
-    <row r="21" spans="1:42" s="7" customFormat="1">
+      <c r="AQ20" s="42"/>
+    </row>
+    <row r="21" spans="1:43" s="7" customFormat="1">
       <c r="A21" s="42"/>
       <c r="C21" s="7" t="s">
         <v>10</v>
@@ -11210,15 +11285,18 @@
         <f>STDEV(P16:P19)</f>
         <v>9.1218138998410279</v>
       </c>
-      <c r="Q21" s="45">
-        <f>Q20*SQRT((0)^2+(P21/P20)^2)</f>
+      <c r="Q21" s="19" t="e">
+        <f>STDEV(Q16:Q19)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R21" s="45">
+        <f>R20*SQRT((0)^2+(P21/P20)^2)</f>
         <v>0.19460230294651493</v>
       </c>
-      <c r="R21" s="43">
-        <f>Q21/Q20*100</f>
+      <c r="S21" s="43">
+        <f>R21/R20*100</f>
         <v>2.4563670177235339</v>
       </c>
-      <c r="S21" s="42"/>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
       <c r="V21" s="42"/>
@@ -11242,6 +11320,7 @@
       <c r="AN21" s="42"/>
       <c r="AO21" s="42"/>
       <c r="AP21" s="42"/>
+      <c r="AQ21" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -14,6 +14,7 @@
     <sheet name="Before and After Gold 200nm" sheetId="7" r:id="rId5"/>
     <sheet name="LP, AFM" sheetId="8" r:id="rId6"/>
     <sheet name="Human Error" sheetId="9" r:id="rId7"/>
+    <sheet name="Diagonals" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
   <si>
     <t>Load</t>
   </si>
@@ -290,6 +291,36 @@
   <si>
     <t>Metallization #2</t>
   </si>
+  <si>
+    <t>Diagonal Area</t>
+  </si>
+  <si>
+    <t>Some variability</t>
+  </si>
+  <si>
+    <t>2942, #4</t>
+  </si>
+  <si>
+    <t>Try 1</t>
+  </si>
+  <si>
+    <t>Try 2</t>
+  </si>
+  <si>
+    <t>Try 3</t>
+  </si>
+  <si>
+    <t>Try 4</t>
+  </si>
+  <si>
+    <t>Stdev</t>
+  </si>
+  <si>
+    <t>AFM Square error</t>
+  </si>
+  <si>
+    <t>AFM Diagonals</t>
+  </si>
 </sst>
 </file>
 
@@ -426,8 +457,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="381">
+  <cellStyleXfs count="401">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -871,7 +922,7 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="381">
+  <cellStyles count="401">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1062,6 +1113,16 @@
     <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1252,6 +1313,16 @@
     <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3252,13 +3323,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.137495463288563</c:v>
+                    <c:v>0.0638759485097753</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.478729568084866</c:v>
+                    <c:v>0.331837187948994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.194602302946515</c:v>
+                    <c:v>0.0307747817868176</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3270,13 +3341,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.137495463288563</c:v>
+                    <c:v>0.0638759485097753</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.478729568084866</c:v>
+                    <c:v>0.331837187948994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.194602302946515</c:v>
+                    <c:v>0.0307747817868176</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3307,13 +3378,13 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.012452111392085</c:v>
+                  <c:v>7.482073562525703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.927572232311186</c:v>
+                  <c:v>7.48506995867172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.92236264134766</c:v>
+                  <c:v>7.94804217325192</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3802,6 +3873,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4305,13 +4377,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.137495463288563</c:v>
+                    <c:v>0.0638759485097753</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.478729568084866</c:v>
+                    <c:v>0.331837187948994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.194602302946515</c:v>
+                    <c:v>0.0307747817868176</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4323,13 +4395,13 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.137495463288563</c:v>
+                    <c:v>0.0638759485097753</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.478729568084866</c:v>
+                    <c:v>0.331837187948994</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.194602302946515</c:v>
+                    <c:v>0.0307747817868176</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4360,13 +4432,111 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>7.012452111392085</c:v>
+                  <c:v>7.482073562525703</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.927572232311186</c:v>
+                  <c:v>7.48506995867172</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>7.92236264134766</c:v>
+                  <c:v>7.94804217325192</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>AFM Diagonals</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="47625">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:errBars>
+            <c:errDir val="y"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:f>'Human Error'!$AO$7:$AO$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.163079760201961</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.219580170643891</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.162238688179391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:f>'Human Error'!$AO$7:$AO$9</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.163079760201961</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.219580170643891</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.162238688179391</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+          </c:errBars>
+          <c:errBars>
+            <c:errDir val="x"/>
+            <c:errBarType val="both"/>
+            <c:errValType val="fixedVal"/>
+            <c:noEndCap val="0"/>
+            <c:val val="1.0"/>
+          </c:errBars>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Human Error'!$AI$7:$AI$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2942.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>490.3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>245.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Human Error'!$AN$7:$AN$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.478426600349524</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.525461676007874</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.516232898862501</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4407,6 +4577,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
@@ -4441,6 +4612,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
@@ -4458,10 +4630,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.435422350936142"/>
-          <c:y val="0.299048556430446"/>
-          <c:w val="0.256751541030574"/>
-          <c:h val="0.415236220472441"/>
+          <c:x val="0.422922327346915"/>
+          <c:y val="0.232381889763779"/>
+          <c:w val="0.270748478493795"/>
+          <c:h val="0.498283464566929"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="1"/>
@@ -9868,8 +10040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView topLeftCell="T1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10292,8 +10464,8 @@
         <v>32.744933333333336</v>
       </c>
       <c r="R8" s="45">
-        <f>B4/P8</f>
-        <v>7.0124521113920855</v>
+        <f>B4/Q8</f>
+        <v>7.4820735625257031</v>
       </c>
       <c r="S8" s="45"/>
       <c r="T8" s="42"/>
@@ -10379,12 +10551,12 @@
         <v>0.27955000149049108</v>
       </c>
       <c r="R9" s="45">
-        <f>R8*SQRT((0)^2+(P9/P8)^2)</f>
-        <v>0.13749546328856271</v>
+        <f>R8*SQRT((0)^2+(Q9/Q8)^2)</f>
+        <v>6.3875948509775266E-2</v>
       </c>
       <c r="S9" s="43">
         <f>R9/R8*100</f>
-        <v>1.9607330090025761</v>
+        <v>0.8537198675738874</v>
       </c>
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
@@ -10453,6 +10625,9 @@
       <c r="O10" s="42"/>
       <c r="P10" s="28">
         <v>67.726399999999998</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>62.938800000000001</v>
       </c>
       <c r="R10" s="42"/>
       <c r="S10" s="42"/>
@@ -10502,6 +10677,9 @@
       <c r="P11" s="28">
         <v>77.476500000000001</v>
       </c>
+      <c r="Q11" s="28">
+        <v>67.726399999999998</v>
+      </c>
       <c r="R11" s="42"/>
       <c r="S11" s="42"/>
       <c r="T11" s="42"/>
@@ -10581,6 +10759,9 @@
       <c r="P12" s="28">
         <v>66.608199999999997</v>
       </c>
+      <c r="Q12" s="28">
+        <v>62.973700000000001</v>
+      </c>
       <c r="R12" s="42"/>
       <c r="S12" s="42"/>
       <c r="T12" s="42"/>
@@ -10605,11 +10786,11 @@
       </c>
       <c r="Z12" s="56">
         <f>R8</f>
-        <v>7.0124521113920855</v>
+        <v>7.4820735625257031</v>
       </c>
       <c r="AA12" s="56">
         <f>R9</f>
-        <v>0.13749546328856271</v>
+        <v>6.3875948509775266E-2</v>
       </c>
       <c r="AB12" s="42"/>
       <c r="AC12" s="42"/>
@@ -10666,6 +10847,9 @@
       <c r="P13" s="28">
         <v>71.116299999999995</v>
       </c>
+      <c r="Q13" s="28">
+        <v>68.215699999999998</v>
+      </c>
       <c r="R13" s="42"/>
       <c r="S13" s="42"/>
       <c r="T13" s="42"/>
@@ -10690,11 +10874,11 @@
       </c>
       <c r="Z13" s="56">
         <f>R14</f>
-        <v>6.9275722323111859</v>
+        <v>7.4850699586717209</v>
       </c>
       <c r="AA13" s="56">
         <f>R15</f>
-        <v>0.47872956808486555</v>
+        <v>0.33183718794899358</v>
       </c>
       <c r="AB13" s="42"/>
       <c r="AC13" s="42"/>
@@ -10755,13 +10939,13 @@
         <f>AVERAGE(P10:P13)</f>
         <v>70.731850000000009</v>
       </c>
-      <c r="Q14" s="33" t="e">
+      <c r="Q14" s="33">
         <f>AVERAGE(Q10:Q13)</f>
-        <v>#DIV/0!</v>
+        <v>65.463650000000001</v>
       </c>
       <c r="R14" s="43">
-        <f>B10/P14</f>
-        <v>6.9275722323111859</v>
+        <f>B10/Q14</f>
+        <v>7.4850699586717209</v>
       </c>
       <c r="S14" s="43"/>
       <c r="T14" s="42"/>
@@ -10786,11 +10970,11 @@
       </c>
       <c r="Z14" s="56">
         <f>R20</f>
-        <v>7.92236264134766</v>
+        <v>7.9480421732519204</v>
       </c>
       <c r="AA14" s="56">
         <f>R21</f>
-        <v>0.19460230294651493</v>
+        <v>3.0774781786817626E-2</v>
       </c>
       <c r="AB14" s="42"/>
       <c r="AC14" s="42"/>
@@ -10857,17 +11041,17 @@
         <f>STDEV(P10:P13)</f>
         <v>4.8879213185838708</v>
       </c>
-      <c r="Q15" s="34" t="e">
+      <c r="Q15" s="34">
         <f>STDEV(Q10:Q13)</f>
-        <v>#DIV/0!</v>
+        <v>2.9022138268340356</v>
       </c>
       <c r="R15" s="43">
-        <f>R14*SQRT((0)^2+(P15/P14)^2)</f>
-        <v>0.47872956808486555</v>
+        <f>R14*SQRT((0)^2+(Q15/Q14)^2)</f>
+        <v>0.33183718794899358</v>
       </c>
       <c r="S15" s="43">
         <f>R15/R14*100</f>
-        <v>6.9104955102741839</v>
+        <v>4.4333211283422722</v>
       </c>
       <c r="T15" s="42"/>
       <c r="U15" s="42"/>
@@ -10937,6 +11121,9 @@
       <c r="P16" s="7">
         <v>361.34750000000003</v>
       </c>
+      <c r="Q16" s="7">
+        <v>371.16750000000002</v>
+      </c>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
@@ -10950,7 +11137,7 @@
       <c r="Y16" s="42"/>
       <c r="Z16" s="42">
         <f>(Z12-V12)/V12*100</f>
-        <v>-5.6007310123548111</v>
+        <v>0.72115482497036332</v>
       </c>
       <c r="AA16" s="42"/>
       <c r="AB16" s="42"/>
@@ -11005,6 +11192,9 @@
       <c r="P17" s="7">
         <v>379.20519999999999</v>
       </c>
+      <c r="Q17" s="7">
+        <v>369.14060000000001</v>
+      </c>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
       <c r="T17" s="42"/>
@@ -11018,7 +11208,7 @@
       <c r="Y17" s="42"/>
       <c r="Z17" s="42">
         <f t="shared" ref="Z17:Z18" si="1">(Z13-V13)/V13*100</f>
-        <v>-6.4941748307162888</v>
+        <v>1.0307246846150602</v>
       </c>
       <c r="AA17" s="42"/>
       <c r="AB17" s="42"/>
@@ -11092,7 +11282,7 @@
       <c r="Y18" s="42"/>
       <c r="Z18" s="42">
         <f t="shared" si="1"/>
-        <v>11.856186857171986</v>
+        <v>12.218757298481529</v>
       </c>
       <c r="AA18" s="42"/>
       <c r="AB18" s="42"/>
@@ -11203,13 +11393,13 @@
         <f>AVERAGE(P16:P19)</f>
         <v>371.35386666666665</v>
       </c>
-      <c r="Q20" s="40" t="e">
+      <c r="Q20" s="40">
         <f>AVERAGE(Q16:Q19)</f>
-        <v>#DIV/0!</v>
+        <v>370.15404999999998</v>
       </c>
       <c r="R20" s="45">
-        <f>B16/P20</f>
-        <v>7.92236264134766</v>
+        <f>B16/Q20</f>
+        <v>7.9480421732519204</v>
       </c>
       <c r="S20" s="45"/>
       <c r="T20" s="42"/>
@@ -11285,17 +11475,17 @@
         <f>STDEV(P16:P19)</f>
         <v>9.1218138998410279</v>
       </c>
-      <c r="Q21" s="19" t="e">
+      <c r="Q21" s="19">
         <f>STDEV(Q16:Q19)</f>
-        <v>#DIV/0!</v>
+        <v>1.4332347347870218</v>
       </c>
       <c r="R21" s="45">
-        <f>R20*SQRT((0)^2+(P21/P20)^2)</f>
-        <v>0.19460230294651493</v>
+        <f>R20*SQRT((0)^2+(Q21/Q20)^2)</f>
+        <v>3.0774781786817626E-2</v>
       </c>
       <c r="S21" s="43">
         <f>R21/R20*100</f>
-        <v>2.4563670177235339</v>
+        <v>0.3871995280848668</v>
       </c>
       <c r="T21" s="42"/>
       <c r="U21" s="42"/>
@@ -11338,8 +11528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO24"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AP20" sqref="AP20"/>
+    <sheetView tabSelected="1" topLeftCell="AG7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11355,6 +11545,7 @@
     <col min="37" max="37" width="11.1640625" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="6.5" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:41">
@@ -11482,8 +11673,12 @@
       <c r="AM6" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="AN6" s="2"/>
-      <c r="AO6" s="2"/>
+      <c r="AN6" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="2:41">
       <c r="B7" s="23">
@@ -11610,6 +11805,14 @@
         <f>X12</f>
         <v>7.1116871388159725E-2</v>
       </c>
+      <c r="AN7" s="3">
+        <f>Diagonals!J22</f>
+        <v>5.4784266003495246</v>
+      </c>
+      <c r="AO7" s="3">
+        <f>Diagonals!J23</f>
+        <v>0.16307976020196088</v>
+      </c>
     </row>
     <row r="8" spans="2:41">
       <c r="B8" s="23">
@@ -11736,6 +11939,14 @@
         <f>X18</f>
         <v>0.12771083964972155</v>
       </c>
+      <c r="AN8" s="3">
+        <f>Diagonals!J16</f>
+        <v>5.5254616760078736</v>
+      </c>
+      <c r="AO8" s="3">
+        <f>Diagonals!J17</f>
+        <v>0.21958017064389102</v>
+      </c>
     </row>
     <row r="9" spans="2:41">
       <c r="B9" s="23">
@@ -11861,6 +12072,14 @@
       <c r="AM9" s="3">
         <f>X24</f>
         <v>0.109401357751937</v>
+      </c>
+      <c r="AN9" s="3">
+        <f>Diagonals!J10</f>
+        <v>5.5162328988625013</v>
+      </c>
+      <c r="AO9" s="3">
+        <f>Diagonals!J11</f>
+        <v>0.16223868817939138</v>
       </c>
     </row>
     <row r="10" spans="2:41">
@@ -12869,4 +13088,298 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B4:J23"/>
+  <sheetViews>
+    <sheetView topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="2:10">
+      <c r="B4" t="s">
+        <v>89</v>
+      </c>
+      <c r="G4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10">
+      <c r="B5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10">
+      <c r="B6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C6" s="50">
+        <v>550.92100000000005</v>
+      </c>
+      <c r="G6">
+        <v>245.2</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>45.0364</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10">
+      <c r="B7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="50">
+        <v>551.08040000000005</v>
+      </c>
+      <c r="G7">
+        <v>245.2</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>42.942700000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10">
+      <c r="B8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="50">
+        <v>550.83600000000001</v>
+      </c>
+      <c r="G8">
+        <v>245.2</v>
+      </c>
+      <c r="H8">
+        <v>3</v>
+      </c>
+      <c r="I8">
+        <v>45.9328</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="C9" s="50">
+        <v>550.93010000000004</v>
+      </c>
+      <c r="G9">
+        <v>245.2</v>
+      </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>43.890599999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="3">
+        <f>AVERAGE(C6:C9)</f>
+        <v>550.94187499999998</v>
+      </c>
+      <c r="H10" t="s">
+        <v>34</v>
+      </c>
+      <c r="I10" s="3">
+        <f>AVERAGE(I6:I9)</f>
+        <v>44.450625000000002</v>
+      </c>
+      <c r="J10" s="43">
+        <f>G6/I10</f>
+        <v>5.5162328988625013</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="3">
+        <f>STDEV(C6:C9)</f>
+        <v>0.10160890298920557</v>
+      </c>
+      <c r="H11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="3">
+        <f>STDEV(I6:I9)</f>
+        <v>1.3073434753346185</v>
+      </c>
+      <c r="J11" s="43">
+        <f>J10*SQRT((0)^2+(I11/I10)^2)</f>
+        <v>0.16223868817939138</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="G12">
+        <v>490.3</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>85.480800000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="G13">
+        <v>490.3</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="G14">
+        <v>490.3</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>92.481499999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="G15">
+        <v>490.3</v>
+      </c>
+      <c r="H15">
+        <v>4</v>
+      </c>
+      <c r="I15">
+        <v>88.241699999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="H16" t="s">
+        <v>34</v>
+      </c>
+      <c r="I16" s="3">
+        <f>AVERAGE(I12:I15)</f>
+        <v>88.734666666666669</v>
+      </c>
+      <c r="J16" s="43">
+        <f>G12/I16</f>
+        <v>5.5254616760078736</v>
+      </c>
+    </row>
+    <row r="17" spans="7:10">
+      <c r="H17" t="s">
+        <v>95</v>
+      </c>
+      <c r="I17" s="3">
+        <f>STDEV(I12:I15)</f>
+        <v>3.5262887322698515</v>
+      </c>
+      <c r="J17" s="43">
+        <f>J16*SQRT((0)^2+(I17/I16)^2)</f>
+        <v>0.21958017064389102</v>
+      </c>
+    </row>
+    <row r="18" spans="7:10">
+      <c r="G18">
+        <v>2942</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>543.50530000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="7:10">
+      <c r="G19">
+        <v>2942</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>514.1105</v>
+      </c>
+    </row>
+    <row r="20" spans="7:10">
+      <c r="G20">
+        <v>2942</v>
+      </c>
+      <c r="H20">
+        <v>3</v>
+      </c>
+      <c r="I20">
+        <v>539.51610000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="7:10">
+      <c r="G21">
+        <v>2942</v>
+      </c>
+      <c r="H21">
+        <v>4</v>
+      </c>
+      <c r="I21" s="50">
+        <v>550.93010000000004</v>
+      </c>
+    </row>
+    <row r="22" spans="7:10">
+      <c r="H22" t="s">
+        <v>34</v>
+      </c>
+      <c r="I22" s="3">
+        <f>AVERAGE(I18:I21)</f>
+        <v>537.01549999999997</v>
+      </c>
+      <c r="J22" s="43">
+        <f>G18/I22</f>
+        <v>5.4784266003495246</v>
+      </c>
+    </row>
+    <row r="23" spans="7:10">
+      <c r="H23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I23" s="3">
+        <f>STDEV(I18:I21)</f>
+        <v>15.985677157589139</v>
+      </c>
+      <c r="J23" s="43">
+        <f>J22*SQRT((0)^2+(I23/I22)^2)</f>
+        <v>0.16307976020196088</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27240" windowHeight="14820" tabRatio="500" firstSheet="3" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Different Planes" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
   <si>
     <t>Load</t>
   </si>
@@ -321,6 +321,24 @@
   <si>
     <t>AFM Diagonals</t>
   </si>
+  <si>
+    <t>CLSM, 245.2 mN</t>
+  </si>
+  <si>
+    <t>AFM, 245.2 mN</t>
+  </si>
+  <si>
+    <t>CLSM, 2942 mN</t>
+  </si>
+  <si>
+    <t>AFM, 2942 mN</t>
+  </si>
+  <si>
+    <t>CLSM</t>
+  </si>
+  <si>
+    <t>LP Diagonals</t>
+  </si>
 </sst>
 </file>
 
@@ -457,8 +475,74 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="401">
+  <cellStyleXfs count="467">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -922,7 +1006,7 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="401">
+  <cellStyles count="467">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1123,6 +1207,39 @@
     <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1323,6 +1440,39 @@
     <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1852,11 +2002,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141637000"/>
-        <c:axId val="2141642568"/>
+        <c:axId val="2108398040"/>
+        <c:axId val="2108400856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141637000"/>
+        <c:axId val="2108398040"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -1886,12 +2036,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141642568"/>
+        <c:crossAx val="2108400856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141642568"/>
+        <c:axId val="2108400856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1920,7 +2070,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141637000"/>
+        <c:crossAx val="2108398040"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2445,11 +2595,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139651352"/>
-        <c:axId val="2139657064"/>
+        <c:axId val="2108296456"/>
+        <c:axId val="2108271336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139651352"/>
+        <c:axId val="2108296456"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="-0.001"/>
@@ -2479,12 +2629,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139657064"/>
+        <c:crossAx val="2108271336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139657064"/>
+        <c:axId val="2108271336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2512,7 +2662,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139651352"/>
+        <c:crossAx val="2108296456"/>
         <c:crosses val="max"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2636,7 +2786,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cutoff Area Changes'!$AN$3:$AN$14</c:f>
+              <c:f>'Cutoff Area Changes'!$AO$3:$AO$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2832,7 +2982,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cutoff Area Changes'!$AP$3:$AP$14</c:f>
+              <c:f>'Cutoff Area Changes'!$AS$3:$AS$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2930,7 +3080,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Cutoff Area Changes'!$AO$3:$AO$14</c:f>
+              <c:f>'Cutoff Area Changes'!$AQ$3:$AQ$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -2983,11 +3133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141657544"/>
-        <c:axId val="2141668056"/>
+        <c:axId val="2108286392"/>
+        <c:axId val="2108292088"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141657544"/>
+        <c:axId val="2108286392"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -3015,12 +3165,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141668056"/>
+        <c:crossAx val="2108292088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141668056"/>
+        <c:axId val="2108292088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -3057,7 +3207,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="high"/>
-        <c:crossAx val="2141657544"/>
+        <c:crossAx val="2108286392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3399,11 +3549,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141739272"/>
-        <c:axId val="2141744760"/>
+        <c:axId val="2108240584"/>
+        <c:axId val="2108246072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141739272"/>
+        <c:axId val="2108240584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3432,12 +3582,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141744760"/>
+        <c:crossAx val="2108246072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141744760"/>
+        <c:axId val="2108246072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="8.5"/>
@@ -3468,7 +3618,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141739272"/>
+        <c:crossAx val="2108240584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3846,11 +3996,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2141758264"/>
-        <c:axId val="2141763960"/>
+        <c:axId val="-2132984312"/>
+        <c:axId val="-2133009016"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2141758264"/>
+        <c:axId val="-2132984312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="3000.0"/>
@@ -3873,19 +4023,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141763960"/>
+        <c:crossAx val="-2133009016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2141763960"/>
+        <c:axId val="-2133009016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="550.0"/>
@@ -3922,7 +4071,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2141758264"/>
+        <c:crossAx val="-2132984312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4527,7 +4676,7 @@
             <c:numRef>
               <c:f>'Human Error'!$AN$7:$AN$9</c:f>
               <c:numCache>
-                <c:formatCode>0.0</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
                   <c:v>5.478426600349524</c:v>
@@ -4551,11 +4700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2139934552"/>
-        <c:axId val="2139939960"/>
+        <c:axId val="-2133794184"/>
+        <c:axId val="-2133330072"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2139934552"/>
+        <c:axId val="-2133794184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4577,19 +4726,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139939960"/>
+        <c:crossAx val="-2133330072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="2139939960"/>
+        <c:axId val="-2133330072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="4.5"/>
@@ -4612,14 +4760,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="2139934552"/>
+        <c:crossAx val="-2133794184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4726,16 +4873,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
+      <xdr:col>47</xdr:col>
+      <xdr:colOff>245533</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>660400</xdr:colOff>
+      <xdr:col>53</xdr:col>
+      <xdr:colOff>499533</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>110067</xdr:rowOff>
+      <xdr:rowOff>42334</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -8604,21 +8751,25 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:AP18"/>
+  <dimension ref="B2:AT18"/>
   <sheetViews>
-    <sheetView topLeftCell="AJ1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AP14"/>
+    <sheetView topLeftCell="AL1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AR16" sqref="AR16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="39" max="39" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="41" max="41" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="42" max="42" width="13" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:42">
+    <row r="2" spans="2:46">
       <c r="AL2" t="s">
         <v>60</v>
       </c>
@@ -8626,16 +8777,28 @@
         <v>56</v>
       </c>
       <c r="AN2" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AO2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AP2" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AR2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="AS2" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="3" spans="2:42">
+      <c r="AT2" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3" spans="2:46">
       <c r="C3" s="2">
         <v>490.3</v>
       </c>
@@ -8676,17 +8839,33 @@
       <c r="AM3">
         <v>37.207000000000001</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="6">
+        <f>245.2/AM3</f>
+        <v>6.5901577660117718</v>
+      </c>
+      <c r="AO3">
         <v>32.289499999999997</v>
       </c>
-      <c r="AO3" s="1">
+      <c r="AP3" s="6">
+        <f>245.2/AO3</f>
+        <v>7.5937998420539188</v>
+      </c>
+      <c r="AQ3" s="1">
         <v>396.38</v>
       </c>
-      <c r="AP3">
+      <c r="AR3" s="6">
+        <f>2942/AQ3</f>
+        <v>7.4221706443311977</v>
+      </c>
+      <c r="AS3">
         <v>367.33859999999999</v>
       </c>
-    </row>
-    <row r="4" spans="2:42">
+      <c r="AT3" s="6">
+        <f>2942/AS3</f>
+        <v>8.008959581160271</v>
+      </c>
+    </row>
+    <row r="4" spans="2:46">
       <c r="B4" s="2">
         <v>0</v>
       </c>
@@ -8721,17 +8900,33 @@
       <c r="AM4">
         <v>36.945999999999998</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="6">
+        <f t="shared" ref="AN4:AN14" si="1">245.2/AM4</f>
+        <v>6.6367130406539276</v>
+      </c>
+      <c r="AO4">
         <v>32.082900000000002</v>
       </c>
-      <c r="AO4">
+      <c r="AP4" s="6">
+        <f t="shared" ref="AP4:AP14" si="2">245.2/AO4</f>
+        <v>7.6427006286838148</v>
+      </c>
+      <c r="AQ4">
         <v>395.91800000000001</v>
       </c>
-      <c r="AP4">
+      <c r="AR4" s="6">
+        <f t="shared" ref="AR4:AR14" si="3">2942/AQ4</f>
+        <v>7.4308316368540961</v>
+      </c>
+      <c r="AS4">
         <v>365.61770000000001</v>
       </c>
-    </row>
-    <row r="5" spans="2:42">
+      <c r="AT4" s="6">
+        <f t="shared" ref="AT4:AT14" si="4">2942/AS4</f>
+        <v>8.046656384524054</v>
+      </c>
+    </row>
+    <row r="5" spans="2:46">
       <c r="B5" s="2">
         <v>-1E-3</v>
       </c>
@@ -8766,17 +8961,33 @@
       <c r="AM5">
         <v>36.784999999999997</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6657605002038878</v>
+      </c>
+      <c r="AO5">
         <v>31.7956</v>
       </c>
-      <c r="AO5">
+      <c r="AP5" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7117588597164382</v>
+      </c>
+      <c r="AQ5">
         <v>395.55599999999998</v>
       </c>
-      <c r="AP5" s="50">
+      <c r="AR5" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4376320925482107</v>
+      </c>
+      <c r="AS5" s="50">
         <v>366.62700000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:42">
+      <c r="AT5" s="6">
+        <f t="shared" si="4"/>
+        <v>8.0245044691198402</v>
+      </c>
+    </row>
+    <row r="6" spans="2:46">
       <c r="B6" s="2">
         <v>-2E-3</v>
       </c>
@@ -8811,17 +9022,33 @@
       <c r="AM6">
         <v>36.704999999999998</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="6">
+        <f t="shared" si="1"/>
+        <v>6.6802887889933249</v>
+      </c>
+      <c r="AO6">
         <v>31.6356</v>
       </c>
-      <c r="AO6">
+      <c r="AP6" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7507617999974707</v>
+      </c>
+      <c r="AQ6">
         <v>395.05399999999997</v>
       </c>
-      <c r="AP6">
+      <c r="AR6" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4470831835647786</v>
+      </c>
+      <c r="AS6">
         <v>365.01010000000002</v>
       </c>
-    </row>
-    <row r="7" spans="2:42">
+      <c r="AT6" s="6">
+        <f t="shared" si="4"/>
+        <v>8.0600509410561507</v>
+      </c>
+    </row>
+    <row r="7" spans="2:46">
       <c r="B7" s="2">
         <v>-3.0000000000000001E-3</v>
       </c>
@@ -8856,17 +9083,33 @@
       <c r="AM7">
         <v>36.302999999999997</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7542627331074572</v>
+      </c>
+      <c r="AO7">
         <v>31.436399999999999</v>
       </c>
-      <c r="AO7">
+      <c r="AP7" s="6">
+        <f t="shared" si="2"/>
+        <v>7.7998753037879656</v>
+      </c>
+      <c r="AQ7">
         <v>394.512</v>
       </c>
-      <c r="AP7">
+      <c r="AR7" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4573143529220909</v>
+      </c>
+      <c r="AS7">
         <v>364.84679999999997</v>
       </c>
-    </row>
-    <row r="8" spans="2:42">
+      <c r="AT7" s="6">
+        <f t="shared" si="4"/>
+        <v>8.0636584999512131</v>
+      </c>
+    </row>
+    <row r="8" spans="2:46">
       <c r="B8" s="2">
         <v>-4.0000000000000001E-3</v>
       </c>
@@ -8901,17 +9144,33 @@
       <c r="AM8">
         <v>36.161999999999999</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="6">
+        <f t="shared" si="1"/>
+        <v>6.7805984182290802</v>
+      </c>
+      <c r="AO8">
         <v>31.231100000000001</v>
       </c>
-      <c r="AO8">
+      <c r="AP8" s="6">
+        <f t="shared" si="2"/>
+        <v>7.8511483745369191</v>
+      </c>
+      <c r="AQ8">
         <v>393.92899999999997</v>
       </c>
-      <c r="AP8">
+      <c r="AR8" s="6">
+        <f t="shared" si="3"/>
+        <v>7.4683508957197873</v>
+      </c>
+      <c r="AS8">
         <v>366.05430000000001</v>
       </c>
-    </row>
-    <row r="9" spans="2:42">
+      <c r="AT8" s="6">
+        <f t="shared" si="4"/>
+        <v>8.03705898277933</v>
+      </c>
+    </row>
+    <row r="9" spans="2:46">
       <c r="B9" s="2">
         <v>-5.0000000000000001E-3</v>
       </c>
@@ -8946,17 +9205,33 @@
       <c r="AM9">
         <v>35.459000000000003</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="6">
+        <f t="shared" si="1"/>
+        <v>6.915028624608702</v>
+      </c>
+      <c r="AO9">
         <v>30.269600000000001</v>
       </c>
-      <c r="AO9">
+      <c r="AP9" s="6">
+        <f t="shared" si="2"/>
+        <v>8.1005365118799055</v>
+      </c>
+      <c r="AQ9">
         <v>391.59899999999999</v>
       </c>
-      <c r="AP9" s="50">
+      <c r="AR9" s="6">
+        <f t="shared" si="3"/>
+        <v>7.5127873155958014</v>
+      </c>
+      <c r="AS9" s="50">
         <v>362.15699999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:42">
+      <c r="AT9" s="6">
+        <f t="shared" si="4"/>
+        <v>8.1235486267005754</v>
+      </c>
+    </row>
+    <row r="10" spans="2:46">
       <c r="B10" s="2">
         <v>-0.01</v>
       </c>
@@ -8997,17 +9272,33 @@
       <c r="AM10">
         <v>34.877000000000002</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="6">
+        <f t="shared" si="1"/>
+        <v>7.0304211944834698</v>
+      </c>
+      <c r="AO10">
         <v>29.197399999999998</v>
       </c>
-      <c r="AO10">
+      <c r="AP10" s="6">
+        <f t="shared" si="2"/>
+        <v>8.3980080418119432</v>
+      </c>
+      <c r="AQ10">
         <v>389.32900000000001</v>
       </c>
-      <c r="AP10">
+      <c r="AR10" s="6">
+        <f t="shared" si="3"/>
+        <v>7.5565909552075494</v>
+      </c>
+      <c r="AS10">
         <v>358.4554</v>
       </c>
-    </row>
-    <row r="11" spans="2:42">
+      <c r="AT10" s="6">
+        <f t="shared" si="4"/>
+        <v>8.20743668528916</v>
+      </c>
+    </row>
+    <row r="11" spans="2:46">
       <c r="B11" s="2">
         <v>-1.4999999999999999E-2</v>
       </c>
@@ -9048,17 +9339,33 @@
       <c r="AM11">
         <v>34.393999999999998</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="6">
+        <f t="shared" si="1"/>
+        <v>7.1291504332150959</v>
+      </c>
+      <c r="AO11">
         <v>28.388100000000001</v>
       </c>
-      <c r="AO11">
+      <c r="AP11" s="6">
+        <f t="shared" si="2"/>
+        <v>8.6374220183809403</v>
+      </c>
+      <c r="AQ11">
         <v>387.19900000000001</v>
       </c>
-      <c r="AP11">
+      <c r="AR11" s="6">
+        <f t="shared" si="3"/>
+        <v>7.5981601192151835</v>
+      </c>
+      <c r="AS11">
         <v>354.82670000000002</v>
       </c>
-    </row>
-    <row r="12" spans="2:42">
+      <c r="AT11" s="6">
+        <f t="shared" si="4"/>
+        <v>8.2913715343292935</v>
+      </c>
+    </row>
+    <row r="12" spans="2:46">
       <c r="B12" s="2">
         <v>-0.02</v>
       </c>
@@ -9105,17 +9412,33 @@
       <c r="AM12" s="1">
         <v>33.29</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="6">
+        <f t="shared" si="1"/>
+        <v>7.3655752478221688</v>
+      </c>
+      <c r="AO12">
         <v>26.8889</v>
       </c>
-      <c r="AO12">
+      <c r="AP12" s="6">
+        <f t="shared" si="2"/>
+        <v>9.1190044962791337</v>
+      </c>
+      <c r="AQ12">
         <v>381.59399999999999</v>
       </c>
-      <c r="AP12">
+      <c r="AR12" s="6">
+        <f t="shared" si="3"/>
+        <v>7.7097648285874518</v>
+      </c>
+      <c r="AS12">
         <v>350.86130000000003</v>
       </c>
-    </row>
-    <row r="13" spans="2:42">
+      <c r="AT12" s="6">
+        <f t="shared" si="4"/>
+        <v>8.3850798021896402</v>
+      </c>
+    </row>
+    <row r="13" spans="2:46">
       <c r="B13" s="2">
         <v>-0.03</v>
       </c>
@@ -9162,17 +9485,33 @@
       <c r="AM13">
         <v>32.726999999999997</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="6">
+        <f t="shared" si="1"/>
+        <v>7.4922846579277049</v>
+      </c>
+      <c r="AO13">
         <v>26.354700000000001</v>
       </c>
-      <c r="AO13">
+      <c r="AP13" s="6">
+        <f t="shared" si="2"/>
+        <v>9.3038433372415543</v>
+      </c>
+      <c r="AQ13">
         <v>379.86599999999999</v>
       </c>
-      <c r="AP13">
+      <c r="AR13" s="6">
+        <f t="shared" si="3"/>
+        <v>7.7448363370241085</v>
+      </c>
+      <c r="AS13">
         <v>346.38589999999999</v>
       </c>
-    </row>
-    <row r="14" spans="2:42">
+      <c r="AT13" s="6">
+        <f t="shared" si="4"/>
+        <v>8.4934173128871588</v>
+      </c>
+    </row>
+    <row r="14" spans="2:46">
       <c r="B14" s="2">
         <v>-3.5000000000000003E-2</v>
       </c>
@@ -9219,17 +9558,33 @@
       <c r="AM14">
         <v>32.225000000000001</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="6">
+        <f t="shared" si="1"/>
+        <v>7.6089992242048092</v>
+      </c>
+      <c r="AO14">
         <v>25.5443</v>
       </c>
-      <c r="AO14">
+      <c r="AP14" s="6">
+        <f t="shared" si="2"/>
+        <v>9.5990103467309726</v>
+      </c>
+      <c r="AQ14">
         <v>377.63600000000002</v>
       </c>
-      <c r="AP14">
+      <c r="AR14" s="6">
+        <f t="shared" si="3"/>
+        <v>7.7905708142232202</v>
+      </c>
+      <c r="AS14">
         <v>345.25830000000002</v>
       </c>
-    </row>
-    <row r="15" spans="2:42">
+      <c r="AT14" s="6">
+        <f t="shared" si="4"/>
+        <v>8.5211564790766801</v>
+      </c>
+    </row>
+    <row r="15" spans="2:46">
       <c r="B15" s="2">
         <v>-0.04</v>
       </c>
@@ -9267,7 +9622,7 @@
         <v>512.44100000000003</v>
       </c>
     </row>
-    <row r="16" spans="2:42">
+    <row r="16" spans="2:46">
       <c r="B16" t="s">
         <v>28</v>
       </c>
@@ -9306,20 +9661,36 @@
         <f>(AM14-AM3)/AM3*100</f>
         <v>-13.38995350337302</v>
       </c>
-      <c r="AN16" s="3">
-        <f t="shared" ref="AN16:AP16" si="1">(AN14-AN3)/AN3*100</f>
+      <c r="AN16" s="20">
+        <f>(AN14-AN3)/AN3*100</f>
+        <v>15.460046547711395</v>
+      </c>
+      <c r="AO16" s="3">
+        <f t="shared" ref="AO16:AT16" si="5">(AO14-AO3)/AO3*100</f>
         <v>-20.889762926028578</v>
       </c>
-      <c r="AO16" s="3">
-        <f t="shared" si="1"/>
+      <c r="AP16" s="20">
+        <f t="shared" si="5"/>
+        <v>26.40589094240201</v>
+      </c>
+      <c r="AQ16" s="3">
+        <f t="shared" si="5"/>
         <v>-4.7287956001816367</v>
       </c>
-      <c r="AP16" s="3">
-        <f t="shared" si="1"/>
+      <c r="AR16" s="20">
+        <f t="shared" si="5"/>
+        <v>4.9635098348674331</v>
+      </c>
+      <c r="AS16" s="3">
+        <f t="shared" si="5"/>
         <v>-6.0108847804178396</v>
       </c>
-    </row>
-    <row r="17" spans="2:24">
+      <c r="AT16" s="20">
+        <f t="shared" si="5"/>
+        <v>6.3952988240977779</v>
+      </c>
+    </row>
+    <row r="17" spans="2:46">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -9354,8 +9725,24 @@
         <f>X15-X4</f>
         <v>-15.469999999999914</v>
       </c>
-    </row>
-    <row r="18" spans="2:24">
+      <c r="AN17" s="6">
+        <f>AN14-AN3</f>
+        <v>1.0188414581930374</v>
+      </c>
+      <c r="AP17" s="6">
+        <f>AP14-AP3</f>
+        <v>2.0052105046770539</v>
+      </c>
+      <c r="AR17" s="6">
+        <f>AR14-AR3</f>
+        <v>0.36840016989202251</v>
+      </c>
+      <c r="AT17" s="6">
+        <f>AT14-AT3</f>
+        <v>0.5121968979164091</v>
+      </c>
+    </row>
+    <row r="18" spans="2:46">
       <c r="B18" t="s">
         <v>29</v>
       </c>
@@ -10040,8 +10427,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8:F9"/>
+    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Y7" sqref="Y7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -10067,6 +10454,12 @@
       <c r="Q2" t="s">
         <v>86</v>
       </c>
+      <c r="U2" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="X2" s="42" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="3" spans="1:43">
       <c r="B3" s="2" t="s">
@@ -10122,6 +10515,9 @@
       </c>
       <c r="V3"/>
       <c r="W3"/>
+      <c r="X3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="4" spans="1:43" s="23" customFormat="1">
       <c r="A4" s="42">
@@ -10179,8 +10575,12 @@
         <v>0.18703</v>
       </c>
       <c r="W4"/>
-      <c r="X4" s="42"/>
-      <c r="Y4" s="42"/>
+      <c r="X4" s="42">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="42">
+        <v>5.9900000000000002E-2</v>
+      </c>
       <c r="Z4" s="42"/>
       <c r="AA4" s="42"/>
       <c r="AB4" s="42"/>
@@ -10251,8 +10651,12 @@
         <v>0.18687999999999999</v>
       </c>
       <c r="W5"/>
-      <c r="X5" s="42"/>
-      <c r="Y5" s="42"/>
+      <c r="X5" s="42">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="42">
+        <v>5.9900000000000002E-2</v>
+      </c>
       <c r="Z5" s="42"/>
       <c r="AA5" s="42"/>
       <c r="AB5" s="42"/>
@@ -10320,8 +10724,12 @@
         <v>0.18692</v>
       </c>
       <c r="W6"/>
-      <c r="X6" s="42"/>
-      <c r="Y6" s="42"/>
+      <c r="X6" s="42">
+        <v>3</v>
+      </c>
+      <c r="Y6" s="42">
+        <v>6.0100000000000001E-2</v>
+      </c>
       <c r="Z6" s="42"/>
       <c r="AA6" s="42"/>
       <c r="AB6" s="42"/>
@@ -10396,8 +10804,13 @@
         <v>0.18694333333333332</v>
       </c>
       <c r="W7" s="55"/>
-      <c r="X7" s="42"/>
-      <c r="Y7" s="42"/>
+      <c r="X7" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y7" s="50">
+        <f>AVERAGE(Y4:Y6)</f>
+        <v>5.9966666666666668E-2</v>
+      </c>
       <c r="Z7" s="42"/>
       <c r="AA7" s="42"/>
       <c r="AB7" s="42"/>
@@ -10477,8 +10890,13 @@
         <v>7.7674534651544719E-5</v>
       </c>
       <c r="W8" s="55"/>
-      <c r="X8" s="42"/>
-      <c r="Y8" s="42"/>
+      <c r="X8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="50">
+        <f>STDEV(Y4:Y6)</f>
+        <v>1.1547005383792445E-4</v>
+      </c>
       <c r="Z8" s="42"/>
       <c r="AA8" s="42"/>
       <c r="AB8" s="42"/>
@@ -11528,8 +11946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AO24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AG7" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView topLeftCell="AD4" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="AN8" sqref="AN8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11805,11 +12223,11 @@
         <f>X12</f>
         <v>7.1116871388159725E-2</v>
       </c>
-      <c r="AN7" s="3">
+      <c r="AN7" s="1">
         <f>Diagonals!J22</f>
         <v>5.4784266003495246</v>
       </c>
-      <c r="AO7" s="3">
+      <c r="AO7" s="1">
         <f>Diagonals!J23</f>
         <v>0.16307976020196088</v>
       </c>
@@ -11939,11 +12357,11 @@
         <f>X18</f>
         <v>0.12771083964972155</v>
       </c>
-      <c r="AN8" s="3">
+      <c r="AN8" s="1">
         <f>Diagonals!J16</f>
         <v>5.5254616760078736</v>
       </c>
-      <c r="AO8" s="3">
+      <c r="AO8" s="1">
         <f>Diagonals!J17</f>
         <v>0.21958017064389102</v>
       </c>
@@ -12073,11 +12491,11 @@
         <f>X24</f>
         <v>0.109401357751937</v>
       </c>
-      <c r="AN9" s="3">
+      <c r="AN9" s="1">
         <f>Diagonals!J10</f>
         <v>5.5162328988625013</v>
       </c>
-      <c r="AO9" s="3">
+      <c r="AO9" s="1">
         <f>Diagonals!J11</f>
         <v>0.16223868817939138</v>
       </c>
@@ -13092,10 +13510,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:J23"/>
+  <dimension ref="B4:N23"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -13103,39 +13521,42 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:14">
       <c r="B4" t="s">
         <v>89</v>
       </c>
       <c r="G4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10">
+        <v>97</v>
+      </c>
+      <c r="L4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14">
       <c r="B5" t="s">
         <v>90</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="J5" t="s">
+      <c r="J5" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:14">
       <c r="B6" t="s">
         <v>91</v>
       </c>
       <c r="C6" s="50">
         <v>550.92100000000005</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="2">
         <v>245.2</v>
       </c>
       <c r="H6">
@@ -13144,15 +13565,18 @@
       <c r="I6">
         <v>45.0364</v>
       </c>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="L6">
+        <v>44.172699999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14">
       <c r="B7" t="s">
         <v>92</v>
       </c>
       <c r="C7" s="50">
         <v>551.08040000000005</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="2">
         <v>245.2</v>
       </c>
       <c r="H7">
@@ -13162,14 +13586,14 @@
         <v>42.942700000000002</v>
       </c>
     </row>
-    <row r="8" spans="2:10">
+    <row r="8" spans="2:14">
       <c r="B8" t="s">
         <v>93</v>
       </c>
       <c r="C8" s="50">
         <v>550.83600000000001</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="2">
         <v>245.2</v>
       </c>
       <c r="H8">
@@ -13178,15 +13602,18 @@
       <c r="I8">
         <v>45.9328</v>
       </c>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="L8">
+        <v>45.9557</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14">
       <c r="B9" t="s">
         <v>94</v>
       </c>
       <c r="C9" s="50">
         <v>550.93010000000004</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="2">
         <v>245.2</v>
       </c>
       <c r="H9">
@@ -13195,8 +13622,11 @@
       <c r="I9">
         <v>43.890599999999999</v>
       </c>
-    </row>
-    <row r="10" spans="2:10">
+      <c r="L9">
+        <v>44.5261</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -13204,10 +13634,11 @@
         <f>AVERAGE(C6:C9)</f>
         <v>550.94187499999998</v>
       </c>
+      <c r="G10" s="2"/>
       <c r="H10" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="20">
         <f>AVERAGE(I6:I9)</f>
         <v>44.450625000000002</v>
       </c>
@@ -13215,8 +13646,24 @@
         <f>G6/I10</f>
         <v>5.5162328988625013</v>
       </c>
-    </row>
-    <row r="11" spans="2:10">
+      <c r="K10">
+        <f>J11/J10*100</f>
+        <v>2.9411138208621774</v>
+      </c>
+      <c r="L10" s="20">
+        <f>AVERAGE(L6:L9)</f>
+        <v>44.884833333333326</v>
+      </c>
+      <c r="M10" s="43">
+        <f>G6/L10</f>
+        <v>5.4628697889784608</v>
+      </c>
+      <c r="N10">
+        <f>M11/M10*100</f>
+        <v>2.1033413842460535</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -13224,10 +13671,11 @@
         <f>STDEV(C6:C9)</f>
         <v>0.10160890298920557</v>
       </c>
+      <c r="G11" s="2"/>
       <c r="H11" t="s">
         <v>95</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="20">
         <f>STDEV(I6:I9)</f>
         <v>1.3073434753346185</v>
       </c>
@@ -13235,9 +13683,17 @@
         <f>J10*SQRT((0)^2+(I11/I10)^2)</f>
         <v>0.16223868817939138</v>
       </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="G12">
+      <c r="L11" s="20">
+        <f>STDEV(L6:L9)</f>
+        <v>0.94408127474986725</v>
+      </c>
+      <c r="M11" s="43">
+        <f>M10*SQRT((0)^2+(L11/L10)^2)</f>
+        <v>0.11490280103905902</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14">
+      <c r="G12" s="2">
         <v>490.3</v>
       </c>
       <c r="H12">
@@ -13246,17 +13702,23 @@
       <c r="I12">
         <v>85.480800000000002</v>
       </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="G13">
+      <c r="L12">
+        <v>100.5792</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14">
+      <c r="G13" s="2">
         <v>490.3</v>
       </c>
       <c r="H13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="G14">
+      <c r="L13">
+        <v>96.922300000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14">
+      <c r="G14" s="2">
         <v>490.3</v>
       </c>
       <c r="H14">
@@ -13265,9 +13727,12 @@
       <c r="I14">
         <v>92.481499999999997</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="G15">
+      <c r="L14">
+        <v>89.019099999999995</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14">
+      <c r="G15" s="2">
         <v>490.3</v>
       </c>
       <c r="H15">
@@ -13276,12 +13741,16 @@
       <c r="I15">
         <v>88.241699999999994</v>
       </c>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="L15">
+        <v>92.427000000000007</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14">
+      <c r="G16" s="2"/>
       <c r="H16" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="3">
+      <c r="I16" s="20">
         <f>AVERAGE(I12:I15)</f>
         <v>88.734666666666669</v>
       </c>
@@ -13289,12 +13758,29 @@
         <f>G12/I16</f>
         <v>5.5254616760078736</v>
       </c>
-    </row>
-    <row r="17" spans="7:10">
+      <c r="K16">
+        <f>J17/J16*100</f>
+        <v>3.9739696611657056</v>
+      </c>
+      <c r="L16" s="20">
+        <f>AVERAGE(L12:L15)</f>
+        <v>94.736900000000006</v>
+      </c>
+      <c r="M16" s="43">
+        <f>G12/L16</f>
+        <v>5.1753857261531673</v>
+      </c>
+      <c r="N16">
+        <f>M17/M16*100</f>
+        <v>5.3455047842109007</v>
+      </c>
+    </row>
+    <row r="17" spans="7:14">
+      <c r="G17" s="2"/>
       <c r="H17" t="s">
         <v>95</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="20">
         <f>STDEV(I12:I15)</f>
         <v>3.5262887322698515</v>
       </c>
@@ -13302,9 +13788,17 @@
         <f>J16*SQRT((0)^2+(I17/I16)^2)</f>
         <v>0.21958017064389102</v>
       </c>
-    </row>
-    <row r="18" spans="7:10">
-      <c r="G18">
+      <c r="L17" s="20">
+        <f>STDEV(L12:L15)</f>
+        <v>5.0641655219130977</v>
+      </c>
+      <c r="M17" s="43">
+        <f>M16*SQRT((0)^2+(L17/L16)^2)</f>
+        <v>0.27665049159288563</v>
+      </c>
+    </row>
+    <row r="18" spans="7:14">
+      <c r="G18" s="2">
         <v>2942</v>
       </c>
       <c r="H18">
@@ -13313,9 +13807,12 @@
       <c r="I18">
         <v>543.50530000000003</v>
       </c>
-    </row>
-    <row r="19" spans="7:10">
-      <c r="G19">
+      <c r="L18">
+        <v>532.94989999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="7:14">
+      <c r="G19" s="2">
         <v>2942</v>
       </c>
       <c r="H19">
@@ -13325,8 +13822,8 @@
         <v>514.1105</v>
       </c>
     </row>
-    <row r="20" spans="7:10">
-      <c r="G20">
+    <row r="20" spans="7:14">
+      <c r="G20" s="2">
         <v>2942</v>
       </c>
       <c r="H20">
@@ -13335,9 +13832,12 @@
       <c r="I20">
         <v>539.51610000000005</v>
       </c>
-    </row>
-    <row r="21" spans="7:10">
-      <c r="G21">
+      <c r="L20">
+        <v>511.53359999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="7:14">
+      <c r="G21" s="2">
         <v>2942</v>
       </c>
       <c r="H21">
@@ -13347,11 +13847,12 @@
         <v>550.93010000000004</v>
       </c>
     </row>
-    <row r="22" spans="7:10">
+    <row r="22" spans="7:14">
+      <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>34</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="20">
         <f>AVERAGE(I18:I21)</f>
         <v>537.01549999999997</v>
       </c>
@@ -13359,18 +13860,42 @@
         <f>G18/I22</f>
         <v>5.4784266003495246</v>
       </c>
-    </row>
-    <row r="23" spans="7:10">
+      <c r="K22">
+        <f>J23/J22*100</f>
+        <v>2.9767627112418804</v>
+      </c>
+      <c r="L22" s="20">
+        <f>AVERAGE(L18:L21)</f>
+        <v>522.24174999999991</v>
+      </c>
+      <c r="M22" s="43">
+        <f>G18/L22</f>
+        <v>5.6334063678363524</v>
+      </c>
+      <c r="N22">
+        <f>M23/M22*100</f>
+        <v>2.8997319647319353</v>
+      </c>
+    </row>
+    <row r="23" spans="7:14">
       <c r="H23" t="s">
         <v>95</v>
       </c>
-      <c r="I23" s="3">
+      <c r="I23" s="20">
         <f>STDEV(I18:I21)</f>
         <v>15.985677157589139</v>
       </c>
       <c r="J23" s="43">
         <f>J22*SQRT((0)^2+(I23/I22)^2)</f>
         <v>0.16307976020196088</v>
+      </c>
+      <c r="L23" s="20">
+        <f>STDEV(L18:L21)</f>
+        <v>15.143610957925443</v>
+      </c>
+      <c r="M23" s="43">
+        <f>M22*SQRT((0)^2+(L23/L22)^2)</f>
+        <v>0.16335368515139503</v>
       </c>
     </row>
   </sheetData>

--- a/data/data_error_analysis.xlsx
+++ b/data/data_error_analysis.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="105">
   <si>
     <t>Load</t>
   </si>
@@ -339,6 +339,9 @@
   <si>
     <t>LP Diagonals</t>
   </si>
+  <si>
+    <t>Metallization Diagonals</t>
+  </si>
 </sst>
 </file>
 
@@ -475,8 +478,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="467">
+  <cellStyleXfs count="521">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1006,7 +1063,7 @@
     <xf numFmtId="2" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="467">
+  <cellStyles count="521">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1240,6 +1297,33 @@
     <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1473,6 +1557,33 @@
     <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -10427,8 +10538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AQ21"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+    <sheetView topLeftCell="M2" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="Q13" sqref="Q13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -11539,9 +11650,6 @@
       <c r="P16" s="7">
         <v>361.34750000000003</v>
       </c>
-      <c r="Q16" s="7">
-        <v>371.16750000000002</v>
-      </c>
       <c r="R16" s="42"/>
       <c r="S16" s="42"/>
       <c r="T16" s="42"/>
@@ -11611,7 +11719,7 @@
         <v>379.20519999999999</v>
       </c>
       <c r="Q17" s="7">
-        <v>369.14060000000001</v>
+        <v>371.16750000000002</v>
       </c>
       <c r="R17" s="42"/>
       <c r="S17" s="42"/>
@@ -11686,6 +11794,9 @@
       <c r="O18" s="42"/>
       <c r="P18" s="7">
         <v>373.50889999999998</v>
+      </c>
+      <c r="Q18" s="7">
+        <v>369.14060000000001</v>
       </c>
       <c r="R18" s="42"/>
       <c r="S18" s="42"/>
@@ -11812,7 +11923,7 @@
         <v>371.35386666666665</v>
       </c>
       <c r="Q20" s="40">
-        <f>AVERAGE(Q16:Q19)</f>
+        <f>AVERAGE(Q17:Q19)</f>
         <v>370.15404999999998</v>
       </c>
       <c r="R20" s="45">
@@ -11894,7 +12005,7 @@
         <v>9.1218138998410279</v>
       </c>
       <c r="Q21" s="19">
-        <f>STDEV(Q16:Q19)</f>
+        <f>STDEV(Q17:Q19)</f>
         <v>1.4332347347870218</v>
       </c>
       <c r="R21" s="45">
@@ -13510,9 +13621,9 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:N23"/>
+  <dimension ref="B4:Q23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C8" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
@@ -13521,7 +13632,7 @@
     <col min="9" max="9" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:14">
+    <row r="4" spans="2:17">
       <c r="B4" t="s">
         <v>89</v>
       </c>
@@ -13531,8 +13642,11 @@
       <c r="L4" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
+      <c r="O4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
       <c r="B5" t="s">
         <v>90</v>
       </c>
@@ -13549,7 +13663,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="2:14">
+    <row r="6" spans="2:17">
       <c r="B6" t="s">
         <v>91</v>
       </c>
@@ -13568,8 +13682,11 @@
       <c r="L6">
         <v>44.172699999999999</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="O6">
+        <v>33.293900000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
       <c r="B7" t="s">
         <v>92</v>
       </c>
@@ -13585,8 +13702,11 @@
       <c r="I7">
         <v>42.942700000000002</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="O7">
+        <v>33.674799999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
       <c r="B8" t="s">
         <v>93</v>
       </c>
@@ -13606,7 +13726,7 @@
         <v>45.9557</v>
       </c>
     </row>
-    <row r="9" spans="2:14">
+    <row r="9" spans="2:17">
       <c r="B9" t="s">
         <v>94</v>
       </c>
@@ -13625,8 +13745,11 @@
       <c r="L9">
         <v>44.5261</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="O9">
+        <v>33.6995</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
       <c r="B10" t="s">
         <v>34</v>
       </c>
@@ -13662,8 +13785,20 @@
         <f>M11/M10*100</f>
         <v>2.1033413842460535</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="O10" s="20">
+        <f>AVERAGE(O6:O9)</f>
+        <v>33.556066666666666</v>
+      </c>
+      <c r="P10" s="45">
+        <f>G6/O10</f>
+        <v>7.3071734668942128</v>
+      </c>
+      <c r="Q10">
+        <f>P11/P10*100</f>
+        <v>0.67760812538768667</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -13691,8 +13826,16 @@
         <f>M10*SQRT((0)^2+(L11/L10)^2)</f>
         <v>0.11490280103905902</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="O11" s="20">
+        <f>STDEV(O6:O9)</f>
+        <v>0.22737863429384242</v>
+      </c>
+      <c r="P11" s="45">
+        <f>P10*SQRT((0)^2+(O11/O10)^2)</f>
+        <v>4.9514001147848312E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
       <c r="G12" s="2">
         <v>490.3</v>
       </c>
@@ -13705,8 +13848,13 @@
       <c r="L12">
         <v>100.5792</v>
       </c>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="M12" s="3"/>
+      <c r="O12">
+        <v>72.250200000000007</v>
+      </c>
+      <c r="P12" s="1"/>
+    </row>
+    <row r="13" spans="2:17">
       <c r="G13" s="2">
         <v>490.3</v>
       </c>
@@ -13716,8 +13864,13 @@
       <c r="L13">
         <v>96.922300000000007</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
+      <c r="M13" s="3"/>
+      <c r="O13">
+        <v>76.689899999999994</v>
+      </c>
+      <c r="P13" s="1"/>
+    </row>
+    <row r="14" spans="2:17">
       <c r="G14" s="2">
         <v>490.3</v>
       </c>
@@ -13730,8 +13883,13 @@
       <c r="L14">
         <v>89.019099999999995</v>
       </c>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="M14" s="3"/>
+      <c r="O14">
+        <v>73.348600000000005</v>
+      </c>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="2:17">
       <c r="G15" s="2">
         <v>490.3</v>
       </c>
@@ -13744,8 +13902,10 @@
       <c r="L15">
         <v>92.427000000000007</v>
       </c>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="M15" s="3"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="2:17">
       <c r="G16" s="2"/>
       <c r="H16" t="s">
         <v>34</v>
@@ -13774,8 +13934,20 @@
         <f>M17/M16*100</f>
         <v>5.3455047842109007</v>
       </c>
-    </row>
-    <row r="17" spans="7:14">
+      <c r="O16" s="20">
+        <f>AVERAGE(O12:O15)</f>
+        <v>74.096233333333331</v>
+      </c>
+      <c r="P16" s="43">
+        <f>G12/O16</f>
+        <v>6.6170705033589208</v>
+      </c>
+      <c r="Q16">
+        <f>P17/P16*100</f>
+        <v>3.1207354876724587</v>
+      </c>
+    </row>
+    <row r="17" spans="7:17">
       <c r="G17" s="2"/>
       <c r="H17" t="s">
         <v>95</v>
@@ -13796,8 +13968,16 @@
         <f>M16*SQRT((0)^2+(L17/L16)^2)</f>
         <v>0.27665049159288563</v>
       </c>
-    </row>
-    <row r="18" spans="7:14">
+      <c r="O17" s="20">
+        <f>STDEV(O12:O15)</f>
+        <v>2.3123474486619227</v>
+      </c>
+      <c r="P17" s="43">
+        <f>P16*SQRT((0)^2+(O17/O16)^2)</f>
+        <v>0.20650126744262842</v>
+      </c>
+    </row>
+    <row r="18" spans="7:17">
       <c r="G18" s="2">
         <v>2942</v>
       </c>
@@ -13810,8 +13990,10 @@
       <c r="L18">
         <v>532.94989999999996</v>
       </c>
-    </row>
-    <row r="19" spans="7:14">
+      <c r="M18" s="3"/>
+      <c r="P18" s="6"/>
+    </row>
+    <row r="19" spans="7:17">
       <c r="G19" s="2">
         <v>2942</v>
       </c>
@@ -13821,8 +14003,13 @@
       <c r="I19">
         <v>514.1105</v>
       </c>
-    </row>
-    <row r="20" spans="7:14">
+      <c r="M19" s="3"/>
+      <c r="O19">
+        <v>504.18150000000003</v>
+      </c>
+      <c r="P19" s="6"/>
+    </row>
+    <row r="20" spans="7:17">
       <c r="G20" s="2">
         <v>2942</v>
       </c>
@@ -13835,8 +14022,13 @@
       <c r="L20">
         <v>511.53359999999998</v>
       </c>
-    </row>
-    <row r="21" spans="7:14">
+      <c r="M20" s="3"/>
+      <c r="O20">
+        <v>513.81349999999998</v>
+      </c>
+      <c r="P20" s="6"/>
+    </row>
+    <row r="21" spans="7:17">
       <c r="G21" s="2">
         <v>2942</v>
       </c>
@@ -13846,8 +14038,10 @@
       <c r="I21" s="50">
         <v>550.93010000000004</v>
       </c>
-    </row>
-    <row r="22" spans="7:14">
+      <c r="M21" s="3"/>
+      <c r="P21" s="6"/>
+    </row>
+    <row r="22" spans="7:17">
       <c r="G22" s="2"/>
       <c r="H22" t="s">
         <v>34</v>
@@ -13876,8 +14070,20 @@
         <f>M23/M22*100</f>
         <v>2.8997319647319353</v>
       </c>
-    </row>
-    <row r="23" spans="7:14">
+      <c r="O22" s="20">
+        <f>AVERAGE(O18:O21)</f>
+        <v>508.9975</v>
+      </c>
+      <c r="P22" s="45">
+        <f>G18/O22</f>
+        <v>5.7799890962136358</v>
+      </c>
+      <c r="Q22">
+        <f>P23/P22*100</f>
+        <v>1.3380915459091232</v>
+      </c>
+    </row>
+    <row r="23" spans="7:17">
       <c r="H23" t="s">
         <v>95</v>
       </c>
@@ -13896,6 +14102,14 @@
       <c r="M23" s="43">
         <f>M22*SQRT((0)^2+(L23/L22)^2)</f>
         <v>0.16335368515139503</v>
+      </c>
+      <c r="O23" s="20">
+        <f>STDEV(O18:O21)</f>
+        <v>6.8108525163887892</v>
+      </c>
+      <c r="P23" s="45">
+        <f>P22*SQRT((0)^2+(O23/O22)^2)</f>
+        <v>7.7341545450903798E-2</v>
       </c>
     </row>
   </sheetData>
